--- a/Project/Work in progress/A2A.xlsx
+++ b/Project/Work in progress/A2A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\OneDrive\Desktop\Corporate-project-\Project\Work in progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1839" documentId="13_ncr:1_{62DBAB82-5A4C-4989-B565-9531680DA6CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A2D99E62-1FFE-42BE-A34F-CF3ECEC352AB}"/>
+  <xr:revisionPtr revIDLastSave="2727" documentId="13_ncr:1_{62DBAB82-5A4C-4989-B565-9531680DA6CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9E8513AD-AE4F-4006-BA05-808A48452657}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balance sheet" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,12 @@
     <sheet name="Fin statements overview" sheetId="10" r:id="rId6"/>
     <sheet name="ratio" sheetId="6" r:id="rId7"/>
     <sheet name="analysis" sheetId="7" r:id="rId8"/>
-    <sheet name="Forecasts " sheetId="9" r:id="rId9"/>
+    <sheet name="Forecasts Simo " sheetId="9" r:id="rId9"/>
+    <sheet name="Forecasts Gianma " sheetId="11" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="570">
   <si>
     <t>BALANCE SHEET</t>
   </si>
@@ -1624,13 +1625,167 @@
   <si>
     <t xml:space="preserve">Minorities + Net result from discontinued operations </t>
   </si>
+  <si>
+    <t>Balance Sheet</t>
+  </si>
+  <si>
+    <t>Income Statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash Flow </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tangible </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intangible </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financial </t>
+  </si>
+  <si>
+    <t>Fixed Assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inventory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trade payables </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OWC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other assets </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NWC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NDA/NDL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employees </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provisions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debt </t>
+  </si>
+  <si>
+    <t>Excess cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Debt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total capital employed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check NIC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revenues </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operating costs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labour costs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EBITDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D&amp;A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accruals </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net res. From disc. Op </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reported taxes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shield on fin items </t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆ Trade rec. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆ Trade pay. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆ WC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆ Other liab. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆ NWC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net CAPEX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D&amp;A (add back) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆ Employees </t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆ DTA /L </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fin. Items </t>
+  </si>
+  <si>
+    <t>Fin. Debt issue/(repayment)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shield on fin.items </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCFE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆ Cash (End - Beg) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balance Sheet Q1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS LTM  </t>
+  </si>
+  <si>
+    <t>01/04/15-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trailing CF </t>
+  </si>
+  <si>
+    <t>Check NCF ∆ Cash</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="11">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="12">
+    <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;€&quot;_ ;_ * \(#,##0.00\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="yyyy"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
@@ -1642,7 +1797,7 @@
     <numFmt numFmtId="172" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="173" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1905,8 +2060,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2033,8 +2215,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="50">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -2649,13 +2849,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="455">
+  <cellXfs count="515">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2994,7 +3245,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3127,6 +3377,24 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="11" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="39" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3157,15 +3425,59 @@
     <xf numFmtId="0" fontId="24" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="11" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="39" fillId="2" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="39" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="39" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="38" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="41" fillId="20" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="38" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="41" fillId="20" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="38" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="39" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="38" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="38" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="39" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="40" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="40" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="39" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="38" fillId="22" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="38" fillId="22" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="20" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Migliaia" xfId="2" builtinId="3"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
+    <cellStyle name="Valuta" xfId="3" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4016,14 +4328,14 @@
       <c r="B2" s="62"/>
       <c r="C2" s="63"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="441" t="s">
+      <c r="E2" s="458" t="s">
         <v>158</v>
       </c>
-      <c r="F2" s="441"/>
-      <c r="G2" s="441"/>
-      <c r="H2" s="441"/>
-      <c r="I2" s="441"/>
-      <c r="J2" s="441"/>
+      <c r="F2" s="458"/>
+      <c r="G2" s="458"/>
+      <c r="H2" s="458"/>
+      <c r="I2" s="458"/>
+      <c r="J2" s="458"/>
       <c r="K2" s="195"/>
       <c r="L2" s="195"/>
       <c r="M2" s="195"/>
@@ -46856,6 +47168,18 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25DC7F48-2C04-4736-A7FC-B90E14461610}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A69207-1688-4191-862B-2029FAF60542}">
   <dimension ref="A1:T97"/>
@@ -49827,8 +50151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E6A2F6-3F0D-4770-954F-DCD44B8A0D2B}">
   <dimension ref="A1:T434"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -49842,10 +50166,10 @@
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="146"/>
-      <c r="B1" s="443" t="s">
+      <c r="B1" s="460" t="s">
         <v>368</v>
       </c>
-      <c r="C1" s="443"/>
+      <c r="C1" s="460"/>
       <c r="D1" s="148"/>
       <c r="E1" s="148"/>
       <c r="F1" s="148"/>
@@ -49865,14 +50189,14 @@
     <row r="2" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A2" s="146"/>
       <c r="B2" s="146"/>
-      <c r="C2" s="442" t="s">
+      <c r="C2" s="459" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="442"/>
-      <c r="E2" s="442"/>
-      <c r="F2" s="442"/>
-      <c r="G2" s="442"/>
-      <c r="H2" s="442"/>
+      <c r="D2" s="459"/>
+      <c r="E2" s="459"/>
+      <c r="F2" s="459"/>
+      <c r="G2" s="459"/>
+      <c r="H2" s="459"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -50439,7 +50763,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="174" t="s">
         <v>376</v>
@@ -50476,7 +50800,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="173" t="s">
         <v>396</v>
@@ -50513,7 +50837,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="161" t="s">
         <v>120</v>
@@ -50577,7 +50901,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="1:18" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="173" t="s">
         <v>379</v>
@@ -50609,7 +50933,7 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="1:18" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="173" t="s">
         <v>430</v>
@@ -50641,7 +50965,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="180" t="s">
         <v>385</v>
@@ -50678,7 +51002,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="173"/>
       <c r="C27" s="173"/>
@@ -50698,7 +51022,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="173" t="s">
         <v>429</v>
@@ -50730,7 +51054,7 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="149"/>
       <c r="B29" s="161" t="s">
         <v>113</v>
@@ -50762,7 +51086,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="173" t="s">
         <v>380</v>
@@ -50794,7 +51118,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="177" t="s">
         <v>386</v>
@@ -50831,7 +51155,7 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
     </row>
-    <row r="32" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="173"/>
       <c r="C32" s="173"/>
@@ -50851,7 +51175,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="1:20" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="173"/>
       <c r="C33" s="173"/>
@@ -50871,7 +51195,7 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="1:20" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="173"/>
       <c r="C34" s="173"/>
@@ -50891,7 +51215,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
     </row>
-    <row r="35" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="182" t="s">
         <v>393</v>
@@ -51307,13 +51631,13 @@
       <c r="A49" s="146"/>
       <c r="B49" s="129"/>
       <c r="C49" s="129"/>
-      <c r="D49" s="444" t="s">
+      <c r="D49" s="461" t="s">
         <v>163</v>
       </c>
-      <c r="E49" s="444"/>
-      <c r="F49" s="444"/>
-      <c r="G49" s="444"/>
-      <c r="H49" s="444"/>
+      <c r="E49" s="461"/>
+      <c r="F49" s="461"/>
+      <c r="G49" s="461"/>
+      <c r="H49" s="461"/>
       <c r="I49" s="5"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -53235,7 +53559,7 @@
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
     </row>
-    <row r="111" spans="1:18" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="5" t="s">
         <v>269</v>
@@ -53267,7 +53591,7 @@
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
     </row>
-    <row r="112" spans="1:18" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="5" t="s">
         <v>273</v>
@@ -57111,12 +57435,12 @@
       <c r="A2" s="292"/>
       <c r="B2" s="285"/>
       <c r="C2" s="64"/>
-      <c r="D2" s="445" t="s">
+      <c r="D2" s="462" t="s">
         <v>163</v>
       </c>
-      <c r="E2" s="445"/>
-      <c r="F2" s="445"/>
-      <c r="G2" s="446"/>
+      <c r="E2" s="462"/>
+      <c r="F2" s="462"/>
+      <c r="G2" s="463"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="293"/>
@@ -57886,7 +58210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8198519F-90E1-4FDA-9AEB-E44D11AA75F5}">
   <dimension ref="A1:V153"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A87" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
@@ -57903,26 +58227,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="447" t="s">
+      <c r="A1" s="464" t="s">
         <v>514</v>
       </c>
-      <c r="B1" s="448"/>
+      <c r="B1" s="465"/>
       <c r="C1" s="148"/>
       <c r="D1" s="148"/>
       <c r="E1" s="148"/>
       <c r="F1" s="148"/>
-      <c r="G1" s="386"/>
+      <c r="G1" s="385"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="387"/>
-      <c r="B2" s="442" t="s">
+      <c r="A2" s="386"/>
+      <c r="B2" s="459" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="442"/>
-      <c r="D2" s="442"/>
-      <c r="E2" s="442"/>
-      <c r="F2" s="442"/>
-      <c r="G2" s="449"/>
+      <c r="C2" s="459"/>
+      <c r="D2" s="459"/>
+      <c r="E2" s="459"/>
+      <c r="F2" s="459"/>
+      <c r="G2" s="466"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="293"/>
@@ -57941,12 +58265,12 @@
       <c r="F3" s="147">
         <v>43556</v>
       </c>
-      <c r="G3" s="388">
+      <c r="G3" s="387">
         <v>43922</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="389"/>
+      <c r="A4" s="388"/>
       <c r="B4" s="5"/>
       <c r="C4" s="31"/>
       <c r="D4" s="29"/>
@@ -57955,7 +58279,7 @@
       <c r="G4" s="296"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="390" t="s">
+      <c r="A5" s="389" t="s">
         <v>381</v>
       </c>
       <c r="B5" s="161"/>
@@ -57972,12 +58296,12 @@
       <c r="F5" s="171">
         <v>4703</v>
       </c>
-      <c r="G5" s="391">
+      <c r="G5" s="390">
         <v>4917</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="390" t="s">
+      <c r="A6" s="389" t="s">
         <v>382</v>
       </c>
       <c r="B6" s="161"/>
@@ -57993,12 +58317,12 @@
       <c r="F6" s="171">
         <v>2344</v>
       </c>
-      <c r="G6" s="391">
+      <c r="G6" s="390">
         <v>2429</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="390" t="s">
+      <c r="A7" s="389" t="s">
         <v>377</v>
       </c>
       <c r="B7" s="161"/>
@@ -58018,16 +58342,16 @@
         <f>18+26</f>
         <v>44</v>
       </c>
-      <c r="G7" s="391">
+      <c r="G7" s="390">
         <f>+(24+71)</f>
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="392" t="s">
+      <c r="A8" s="391" t="s">
         <v>383</v>
       </c>
-      <c r="B8" s="393"/>
+      <c r="B8" s="392"/>
       <c r="C8" s="181">
         <f>SUM(C5:C7)</f>
         <v>6528</v>
@@ -58044,22 +58368,22 @@
         <f>F5+F6+F7</f>
         <v>7091</v>
       </c>
-      <c r="G8" s="394">
+      <c r="G8" s="393">
         <f>SUM(G5:G7)</f>
         <v>7441</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="390"/>
+      <c r="A9" s="389"/>
       <c r="B9" s="161"/>
       <c r="C9" s="171"/>
       <c r="D9" s="171"/>
       <c r="E9" s="171"/>
       <c r="F9" s="171"/>
-      <c r="G9" s="391"/>
+      <c r="G9" s="390"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="390" t="s">
+      <c r="A10" s="389" t="s">
         <v>372</v>
       </c>
       <c r="B10" s="161"/>
@@ -58075,12 +58399,12 @@
       <c r="F10" s="171">
         <v>119</v>
       </c>
-      <c r="G10" s="391">
+      <c r="G10" s="390">
         <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="390" t="s">
+      <c r="A11" s="389" t="s">
         <v>373</v>
       </c>
       <c r="B11" s="161"/>
@@ -58097,12 +58421,12 @@
       <c r="F11" s="171">
         <v>2077</v>
       </c>
-      <c r="G11" s="391">
+      <c r="G11" s="390">
         <v>2056</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="390" t="s">
+      <c r="A12" s="389" t="s">
         <v>378</v>
       </c>
       <c r="B12" s="161"/>
@@ -58121,16 +58445,16 @@
         <f>-(1321)</f>
         <v>-1321</v>
       </c>
-      <c r="G12" s="391">
+      <c r="G12" s="390">
         <f>-(1323)</f>
         <v>-1323</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="395" t="s">
+      <c r="A13" s="394" t="s">
         <v>384</v>
       </c>
-      <c r="B13" s="396"/>
+      <c r="B13" s="395"/>
       <c r="C13" s="186">
         <f>SUM(C10:C12)</f>
         <v>633</v>
@@ -58147,22 +58471,22 @@
         <f>F10+F11+F12</f>
         <v>875</v>
       </c>
-      <c r="G13" s="397">
+      <c r="G13" s="396">
         <f>G10+G11+G12</f>
         <v>837</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="398"/>
+      <c r="A14" s="397"/>
       <c r="B14" s="160"/>
       <c r="C14" s="171"/>
       <c r="D14" s="171"/>
       <c r="E14" s="171"/>
       <c r="F14" s="171"/>
-      <c r="G14" s="399"/>
+      <c r="G14" s="398"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="400" t="s">
+      <c r="A15" s="399" t="s">
         <v>515</v>
       </c>
       <c r="B15" s="161"/>
@@ -58170,16 +58494,16 @@
       <c r="D15" s="171"/>
       <c r="E15" s="171"/>
       <c r="F15" s="171"/>
-      <c r="G15" s="391"/>
-      <c r="H15" s="380"/>
-      <c r="I15" s="380"/>
+      <c r="G15" s="390"/>
+      <c r="H15" s="379"/>
+      <c r="I15" s="379"/>
       <c r="J15" s="55"/>
-      <c r="K15" s="380"/>
-      <c r="L15" s="380"/>
+      <c r="K15" s="379"/>
+      <c r="L15" s="379"/>
       <c r="M15" s="55"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="390" t="s">
+      <c r="A16" s="389" t="s">
         <v>374</v>
       </c>
       <c r="B16" s="161"/>
@@ -58195,7 +58519,7 @@
       <c r="F16" s="171">
         <v>391</v>
       </c>
-      <c r="G16" s="391">
+      <c r="G16" s="390">
         <v>946</v>
       </c>
       <c r="H16" s="55"/>
@@ -58213,7 +58537,7 @@
       <c r="T16" s="55"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="390" t="s">
+      <c r="A17" s="389" t="s">
         <v>375</v>
       </c>
       <c r="B17" s="161"/>
@@ -58230,7 +58554,7 @@
       <c r="F17" s="171">
         <v>11</v>
       </c>
-      <c r="G17" s="391">
+      <c r="G17" s="390">
         <v>13</v>
       </c>
       <c r="H17" s="55"/>
@@ -58248,7 +58572,7 @@
       <c r="T17" s="55"/>
     </row>
     <row r="18" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="401" t="s">
+      <c r="A18" s="400" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="174"/>
@@ -58264,7 +58588,7 @@
       <c r="F18" s="171">
         <v>22</v>
       </c>
-      <c r="G18" s="391">
+      <c r="G18" s="390">
         <v>28</v>
       </c>
       <c r="H18" s="55"/>
@@ -58282,7 +58606,7 @@
       <c r="T18" s="55"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="390" t="s">
+      <c r="A19" s="389" t="s">
         <v>75</v>
       </c>
       <c r="B19" s="161"/>
@@ -58298,7 +58622,7 @@
       <c r="F19" s="171">
         <v>49</v>
       </c>
-      <c r="G19" s="399">
+      <c r="G19" s="398">
         <v>51</v>
       </c>
       <c r="H19" s="55"/>
@@ -58316,7 +58640,7 @@
       <c r="T19" s="55"/>
     </row>
     <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="401" t="s">
+      <c r="A20" s="400" t="s">
         <v>376</v>
       </c>
       <c r="B20" s="161"/>
@@ -58333,7 +58657,7 @@
       <c r="F20" s="171">
         <v>110</v>
       </c>
-      <c r="G20" s="391">
+      <c r="G20" s="390">
         <v>0</v>
       </c>
       <c r="H20" s="55"/>
@@ -58351,7 +58675,7 @@
       <c r="T20" s="55"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="400" t="s">
+      <c r="A21" s="399" t="s">
         <v>396</v>
       </c>
       <c r="B21" s="161"/>
@@ -58359,7 +58683,7 @@
       <c r="D21" s="171"/>
       <c r="E21" s="171"/>
       <c r="F21" s="171"/>
-      <c r="G21" s="402"/>
+      <c r="G21" s="401"/>
       <c r="H21" s="55"/>
       <c r="I21" s="55"/>
       <c r="J21" s="55"/>
@@ -58375,7 +58699,7 @@
       <c r="T21" s="55"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="390" t="s">
+      <c r="A22" s="389" t="s">
         <v>120</v>
       </c>
       <c r="B22" s="161"/>
@@ -58392,7 +58716,7 @@
       <c r="F22" s="171">
         <v>-151</v>
       </c>
-      <c r="G22" s="391">
+      <c r="G22" s="390">
         <f>-(154)</f>
         <v>-154</v>
       </c>
@@ -58411,7 +58735,7 @@
       <c r="T22" s="55"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="390" t="s">
+      <c r="A23" s="389" t="s">
         <v>153</v>
       </c>
       <c r="B23" s="161"/>
@@ -58429,7 +58753,7 @@
       <c r="F23" s="171">
         <v>-91</v>
       </c>
-      <c r="G23" s="391">
+      <c r="G23" s="390">
         <f>-(53)</f>
         <v>-53</v>
       </c>
@@ -58448,7 +58772,7 @@
       <c r="T23" s="55"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="390" t="s">
+      <c r="A24" s="389" t="s">
         <v>379</v>
       </c>
       <c r="B24" s="161"/>
@@ -58466,7 +58790,7 @@
       <c r="F24" s="171">
         <v>-882</v>
       </c>
-      <c r="G24" s="391">
+      <c r="G24" s="390">
         <f>-(1352)</f>
         <v>-1352</v>
       </c>
@@ -58485,7 +58809,7 @@
       <c r="T24" s="55"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="390" t="s">
+      <c r="A25" s="389" t="s">
         <v>430</v>
       </c>
       <c r="B25" s="161"/>
@@ -58502,7 +58826,7 @@
       <c r="F25" s="171">
         <v>0</v>
       </c>
-      <c r="G25" s="391">
+      <c r="G25" s="390">
         <v>0</v>
       </c>
       <c r="H25" s="55"/>
@@ -58520,10 +58844,10 @@
       <c r="T25" s="55"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="392" t="s">
+      <c r="A26" s="391" t="s">
         <v>385</v>
       </c>
-      <c r="B26" s="393"/>
+      <c r="B26" s="392"/>
       <c r="C26" s="181">
         <f>C13+SUM(C16:C25)</f>
         <v>391</v>
@@ -58540,7 +58864,7 @@
         <f>F13+F16+F17+F18+F19+F20+F22+F23+F24</f>
         <v>334</v>
       </c>
-      <c r="G26" s="403">
+      <c r="G26" s="402">
         <f>G13+G16+G17+G18+G19+G20+G22+G23+G24+G25</f>
         <v>316</v>
       </c>
@@ -58559,13 +58883,13 @@
       <c r="T26" s="55"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="390"/>
+      <c r="A27" s="389"/>
       <c r="B27" s="161"/>
       <c r="C27" s="171"/>
       <c r="D27" s="171"/>
       <c r="E27" s="171"/>
       <c r="F27" s="171"/>
-      <c r="G27" s="391"/>
+      <c r="G27" s="390"/>
       <c r="H27" s="55"/>
       <c r="I27" s="55"/>
       <c r="J27" s="55"/>
@@ -58581,7 +58905,7 @@
       <c r="T27" s="55"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="390" t="s">
+      <c r="A28" s="389" t="s">
         <v>429</v>
       </c>
       <c r="B28" s="161"/>
@@ -58599,7 +58923,7 @@
       <c r="F28" s="171">
         <v>274</v>
       </c>
-      <c r="G28" s="391">
+      <c r="G28" s="390">
         <f>+(286)</f>
         <v>286</v>
       </c>
@@ -58618,7 +58942,7 @@
       <c r="T28" s="55"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="390" t="s">
+      <c r="A29" s="389" t="s">
         <v>113</v>
       </c>
       <c r="B29" s="161"/>
@@ -58636,7 +58960,7 @@
       <c r="F29" s="171">
         <v>-311</v>
       </c>
-      <c r="G29" s="391">
+      <c r="G29" s="390">
         <f>-(300)</f>
         <v>-300</v>
       </c>
@@ -58655,7 +58979,7 @@
       <c r="T29" s="55"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="390" t="s">
+      <c r="A30" s="389" t="s">
         <v>380</v>
       </c>
       <c r="B30" s="161"/>
@@ -58675,16 +58999,16 @@
         <f>-(637)</f>
         <v>-637</v>
       </c>
-      <c r="G30" s="391">
+      <c r="G30" s="390">
         <f>-(668)</f>
         <v>-668</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="404" t="s">
+      <c r="A31" s="403" t="s">
         <v>386</v>
       </c>
-      <c r="B31" s="405"/>
+      <c r="B31" s="404"/>
       <c r="C31" s="179">
         <f>C8+C26+SUM(C28:C30)</f>
         <v>6293</v>
@@ -58701,43 +59025,43 @@
         <f>F8+F26+F28+F29+F30</f>
         <v>6751</v>
       </c>
-      <c r="G31" s="406">
+      <c r="G31" s="405">
         <f>G8+G26+G28+G29+G30</f>
         <v>7075</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="390"/>
+      <c r="A32" s="389"/>
       <c r="B32" s="161"/>
       <c r="C32" s="171"/>
       <c r="D32" s="163"/>
       <c r="E32" s="163"/>
       <c r="F32" s="163"/>
-      <c r="G32" s="391"/>
+      <c r="G32" s="390"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A33" s="390"/>
+      <c r="A33" s="389"/>
       <c r="B33" s="161"/>
       <c r="C33" s="171"/>
       <c r="D33" s="163"/>
       <c r="E33" s="163"/>
       <c r="F33" s="163"/>
-      <c r="G33" s="391"/>
+      <c r="G33" s="390"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A34" s="390"/>
+      <c r="A34" s="389"/>
       <c r="B34" s="161"/>
       <c r="C34" s="171"/>
       <c r="D34" s="163"/>
       <c r="E34" s="163"/>
       <c r="F34" s="163"/>
-      <c r="G34" s="391"/>
+      <c r="G34" s="390"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A35" s="407" t="s">
+      <c r="A35" s="406" t="s">
         <v>393</v>
       </c>
-      <c r="B35" s="408"/>
+      <c r="B35" s="407"/>
       <c r="C35" s="181">
         <v>-3132</v>
       </c>
@@ -58753,22 +59077,22 @@
         <f>-(3614)</f>
         <v>-3614</v>
       </c>
-      <c r="G35" s="394">
+      <c r="G35" s="393">
         <f>-(3746)</f>
         <v>-3746</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A36" s="390"/>
+      <c r="A36" s="389"/>
       <c r="B36" s="161"/>
       <c r="C36" s="171"/>
       <c r="D36" s="171"/>
       <c r="E36" s="171"/>
       <c r="F36" s="171"/>
-      <c r="G36" s="391"/>
+      <c r="G36" s="390"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A37" s="390" t="s">
+      <c r="A37" s="389" t="s">
         <v>105</v>
       </c>
       <c r="B37" s="161"/>
@@ -58787,13 +59111,13 @@
         <f>-(3074)</f>
         <v>-3074</v>
       </c>
-      <c r="G37" s="391">
+      <c r="G37" s="390">
         <f>-(3052)</f>
         <v>-3052</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A38" s="390" t="s">
+      <c r="A38" s="389" t="s">
         <v>150</v>
       </c>
       <c r="B38" s="161"/>
@@ -58812,16 +59136,16 @@
         <f>-(667)</f>
         <v>-667</v>
       </c>
-      <c r="G38" s="391">
+      <c r="G38" s="390">
         <f>-(584)</f>
         <v>-584</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A39" s="409" t="s">
+      <c r="A39" s="408" t="s">
         <v>392</v>
       </c>
-      <c r="B39" s="410"/>
+      <c r="B39" s="409"/>
       <c r="C39" s="186">
         <f>C37+C38</f>
         <v>-3720</v>
@@ -58838,22 +59162,22 @@
         <f>F37+F38</f>
         <v>-3741</v>
       </c>
-      <c r="G39" s="411">
+      <c r="G39" s="410">
         <f>G37+G38</f>
         <v>-3636</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A40" s="400"/>
+      <c r="A40" s="399"/>
       <c r="B40" s="162"/>
       <c r="C40" s="171"/>
       <c r="D40" s="171"/>
       <c r="E40" s="171"/>
       <c r="F40" s="171"/>
-      <c r="G40" s="412"/>
+      <c r="G40" s="411"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A41" s="390" t="s">
+      <c r="A41" s="389" t="s">
         <v>77</v>
       </c>
       <c r="B41" s="161"/>
@@ -58870,16 +59194,16 @@
       <c r="F41" s="171">
         <v>604</v>
       </c>
-      <c r="G41" s="391">
+      <c r="G41" s="390">
         <f>+(307)</f>
         <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A42" s="392" t="s">
+      <c r="A42" s="391" t="s">
         <v>387</v>
       </c>
-      <c r="B42" s="393"/>
+      <c r="B42" s="392"/>
       <c r="C42" s="181">
         <f>C39+C41</f>
         <v>-3161</v>
@@ -58896,45 +59220,45 @@
         <f>F39+F41</f>
         <v>-3137</v>
       </c>
-      <c r="G42" s="394">
+      <c r="G42" s="393">
         <f>G39+G41</f>
         <v>-3329</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A43" s="390"/>
+      <c r="A43" s="389"/>
       <c r="B43" s="161"/>
       <c r="C43" s="171"/>
       <c r="D43" s="171"/>
       <c r="E43" s="171"/>
       <c r="F43" s="171"/>
-      <c r="G43" s="391"/>
+      <c r="G43" s="390"/>
       <c r="O43" s="282"/>
       <c r="P43" s="282"/>
       <c r="Q43" s="282"/>
     </row>
     <row r="44" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="413" t="s">
+      <c r="A44" s="412" t="s">
         <v>386</v>
       </c>
-      <c r="B44" s="414"/>
-      <c r="C44" s="415">
+      <c r="B44" s="413"/>
+      <c r="C44" s="414">
         <f>C35+C42</f>
         <v>-6293</v>
       </c>
-      <c r="D44" s="415">
+      <c r="D44" s="414">
         <f>D35+D42</f>
         <v>-6746</v>
       </c>
-      <c r="E44" s="415">
+      <c r="E44" s="414">
         <f>E35+E42</f>
         <v>-6391</v>
       </c>
-      <c r="F44" s="415">
+      <c r="F44" s="414">
         <f>F35+F42</f>
         <v>-6751</v>
       </c>
-      <c r="G44" s="416">
+      <c r="G44" s="415">
         <f>G35+G42</f>
         <v>-7075</v>
       </c>
@@ -58952,27 +59276,27 @@
       <c r="Q45" s="282"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A46" s="385" t="s">
+      <c r="A46" s="384" t="s">
         <v>516</v>
       </c>
-      <c r="B46" s="385"/>
-      <c r="C46" s="385" t="str">
+      <c r="B46" s="384"/>
+      <c r="C46" s="384" t="str">
         <f t="shared" ref="C46:F46" si="0">IF(C31+C44=0,"Correct","Incorrect")</f>
         <v>Correct</v>
       </c>
-      <c r="D46" s="385" t="str">
+      <c r="D46" s="384" t="str">
         <f t="shared" si="0"/>
         <v>Correct</v>
       </c>
-      <c r="E46" s="385" t="str">
+      <c r="E46" s="384" t="str">
         <f t="shared" si="0"/>
         <v>Correct</v>
       </c>
-      <c r="F46" s="385" t="str">
+      <c r="F46" s="384" t="str">
         <f t="shared" si="0"/>
         <v>Correct</v>
       </c>
-      <c r="G46" s="385" t="str">
+      <c r="G46" s="384" t="str">
         <f>IF(G31+G44=0,"Correct","Incorrect")</f>
         <v>Correct</v>
       </c>
@@ -58990,119 +59314,119 @@
       <c r="Q47" s="282"/>
     </row>
     <row r="48" spans="1:22" ht="24.6" x14ac:dyDescent="0.5">
-      <c r="A48" s="417" t="s">
+      <c r="A48" s="416" t="s">
         <v>501</v>
       </c>
-      <c r="B48" s="418"/>
-      <c r="C48" s="418"/>
-      <c r="D48" s="418"/>
-      <c r="E48" s="418"/>
-      <c r="F48" s="418"/>
-      <c r="G48" s="419"/>
-      <c r="H48" s="325"/>
-      <c r="I48" s="325"/>
-      <c r="J48" s="325"/>
-      <c r="K48" s="325"/>
-      <c r="L48" s="325"/>
-      <c r="M48" s="325"/>
-      <c r="N48" s="325"/>
-      <c r="O48" s="325"/>
-      <c r="P48" s="325"/>
-      <c r="Q48" s="325"/>
-      <c r="R48" s="325"/>
-      <c r="S48" s="325"/>
-      <c r="T48" s="325"/>
-      <c r="U48" s="325"/>
-      <c r="V48" s="325"/>
+      <c r="B48" s="417"/>
+      <c r="C48" s="417"/>
+      <c r="D48" s="417"/>
+      <c r="E48" s="417"/>
+      <c r="F48" s="417"/>
+      <c r="G48" s="418"/>
+      <c r="H48" s="324"/>
+      <c r="I48" s="324"/>
+      <c r="J48" s="324"/>
+      <c r="K48" s="324"/>
+      <c r="L48" s="324"/>
+      <c r="M48" s="324"/>
+      <c r="N48" s="324"/>
+      <c r="O48" s="324"/>
+      <c r="P48" s="324"/>
+      <c r="Q48" s="324"/>
+      <c r="R48" s="324"/>
+      <c r="S48" s="324"/>
+      <c r="T48" s="324"/>
+      <c r="U48" s="324"/>
+      <c r="V48" s="324"/>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A49" s="420"/>
+      <c r="A49" s="419"/>
       <c r="B49" s="129"/>
-      <c r="C49" s="444" t="s">
+      <c r="C49" s="461" t="s">
         <v>163</v>
       </c>
-      <c r="D49" s="444"/>
-      <c r="E49" s="444"/>
-      <c r="F49" s="444"/>
-      <c r="G49" s="450"/>
-      <c r="H49" s="325"/>
-      <c r="I49" s="325"/>
-      <c r="J49" s="325"/>
-      <c r="K49" s="325"/>
-      <c r="L49" s="325"/>
-      <c r="M49" s="325"/>
-      <c r="N49" s="325"/>
-      <c r="O49" s="325"/>
-      <c r="P49" s="325"/>
-      <c r="Q49" s="325"/>
-      <c r="R49" s="325"/>
-      <c r="S49" s="325"/>
-      <c r="T49" s="325"/>
-      <c r="U49" s="325"/>
-      <c r="V49" s="325"/>
+      <c r="D49" s="461"/>
+      <c r="E49" s="461"/>
+      <c r="F49" s="461"/>
+      <c r="G49" s="467"/>
+      <c r="H49" s="324"/>
+      <c r="I49" s="324"/>
+      <c r="J49" s="324"/>
+      <c r="K49" s="324"/>
+      <c r="L49" s="324"/>
+      <c r="M49" s="324"/>
+      <c r="N49" s="324"/>
+      <c r="O49" s="324"/>
+      <c r="P49" s="324"/>
+      <c r="Q49" s="324"/>
+      <c r="R49" s="324"/>
+      <c r="S49" s="324"/>
+      <c r="T49" s="324"/>
+      <c r="U49" s="324"/>
+      <c r="V49" s="324"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A50" s="421"/>
+      <c r="A50" s="420"/>
       <c r="B50" s="143" t="s">
         <v>1</v>
       </c>
       <c r="C50" s="130" t="s">
         <v>504</v>
       </c>
-      <c r="D50" s="381" t="s">
+      <c r="D50" s="380" t="s">
         <v>505</v>
       </c>
-      <c r="E50" s="381" t="s">
+      <c r="E50" s="380" t="s">
         <v>506</v>
       </c>
-      <c r="F50" s="381" t="s">
+      <c r="F50" s="380" t="s">
         <v>507</v>
       </c>
-      <c r="G50" s="422" t="s">
+      <c r="G50" s="421" t="s">
         <v>508</v>
       </c>
-      <c r="H50" s="325"/>
-      <c r="I50" s="325"/>
-      <c r="J50" s="325"/>
-      <c r="K50" s="325"/>
-      <c r="L50" s="325"/>
-      <c r="M50" s="325"/>
-      <c r="N50" s="325"/>
-      <c r="O50" s="325"/>
-      <c r="P50" s="325"/>
-      <c r="Q50" s="325"/>
-      <c r="R50" s="325"/>
-      <c r="S50" s="325"/>
-      <c r="T50" s="325"/>
-      <c r="U50" s="325"/>
-      <c r="V50" s="325"/>
+      <c r="H50" s="324"/>
+      <c r="I50" s="324"/>
+      <c r="J50" s="324"/>
+      <c r="K50" s="324"/>
+      <c r="L50" s="324"/>
+      <c r="M50" s="324"/>
+      <c r="N50" s="324"/>
+      <c r="O50" s="324"/>
+      <c r="P50" s="324"/>
+      <c r="Q50" s="324"/>
+      <c r="R50" s="324"/>
+      <c r="S50" s="324"/>
+      <c r="T50" s="324"/>
+      <c r="U50" s="324"/>
+      <c r="V50" s="324"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A51" s="423"/>
+      <c r="A51" s="422"/>
       <c r="B51" s="201"/>
       <c r="C51" s="209"/>
       <c r="D51" s="210"/>
       <c r="E51" s="210"/>
       <c r="F51" s="210"/>
-      <c r="G51" s="424"/>
-      <c r="H51" s="325"/>
-      <c r="I51" s="325"/>
-      <c r="J51" s="325"/>
-      <c r="K51" s="325"/>
-      <c r="L51" s="325"/>
-      <c r="M51" s="325"/>
-      <c r="N51" s="325"/>
-      <c r="O51" s="325"/>
-      <c r="P51" s="325"/>
-      <c r="Q51" s="325"/>
-      <c r="R51" s="325"/>
-      <c r="S51" s="325"/>
-      <c r="T51" s="325"/>
-      <c r="U51" s="325"/>
-      <c r="V51" s="325"/>
+      <c r="G51" s="423"/>
+      <c r="H51" s="324"/>
+      <c r="I51" s="324"/>
+      <c r="J51" s="324"/>
+      <c r="K51" s="324"/>
+      <c r="L51" s="324"/>
+      <c r="M51" s="324"/>
+      <c r="N51" s="324"/>
+      <c r="O51" s="324"/>
+      <c r="P51" s="324"/>
+      <c r="Q51" s="324"/>
+      <c r="R51" s="324"/>
+      <c r="S51" s="324"/>
+      <c r="T51" s="324"/>
+      <c r="U51" s="324"/>
+      <c r="V51" s="324"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A52" s="389" t="s">
+      <c r="A52" s="388" t="s">
         <v>398</v>
       </c>
       <c r="B52" s="201"/>
@@ -59122,25 +59446,25 @@
         <f>(2119-1812) + 'Reorganised Statements'!G52</f>
         <v>6801</v>
       </c>
-      <c r="G52" s="399">
+      <c r="G52" s="398">
         <f>1707-2110 +'Reorganised Statements'!H52</f>
         <v>6921</v>
       </c>
-      <c r="H52" s="384"/>
-      <c r="I52" s="325"/>
-      <c r="J52" s="384"/>
-      <c r="K52" s="384"/>
-      <c r="L52" s="325"/>
-      <c r="M52" s="384"/>
-      <c r="N52" s="384"/>
-      <c r="O52" s="325"/>
-      <c r="P52" s="384"/>
-      <c r="Q52" s="384"/>
-      <c r="R52" s="325"/>
-      <c r="S52" s="384"/>
-      <c r="T52" s="384"/>
-      <c r="U52" s="325"/>
-      <c r="V52" s="325"/>
+      <c r="H52" s="383"/>
+      <c r="I52" s="324"/>
+      <c r="J52" s="383"/>
+      <c r="K52" s="383"/>
+      <c r="L52" s="324"/>
+      <c r="M52" s="383"/>
+      <c r="N52" s="383"/>
+      <c r="O52" s="324"/>
+      <c r="P52" s="383"/>
+      <c r="Q52" s="383"/>
+      <c r="R52" s="324"/>
+      <c r="S52" s="383"/>
+      <c r="T52" s="383"/>
+      <c r="U52" s="324"/>
+      <c r="V52" s="324"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="212" t="s">
@@ -59163,25 +59487,25 @@
         <f>-(1605-1239)+SUM('Reorganised Statements'!G58:G60)</f>
         <v>-4964</v>
       </c>
-      <c r="G53" s="391">
+      <c r="G53" s="390">
         <f>-(1196-1605) + SUM('Reorganised Statements'!H58:H60)</f>
         <v>-4981</v>
       </c>
-      <c r="H53" s="325"/>
-      <c r="I53" s="325"/>
-      <c r="J53" s="325"/>
-      <c r="K53" s="325"/>
-      <c r="L53" s="325"/>
-      <c r="M53" s="325"/>
-      <c r="N53" s="325"/>
-      <c r="O53" s="325"/>
-      <c r="P53" s="325"/>
-      <c r="Q53" s="325"/>
-      <c r="R53" s="325"/>
-      <c r="S53" s="325"/>
-      <c r="T53" s="325"/>
-      <c r="U53" s="325"/>
-      <c r="V53" s="325"/>
+      <c r="H53" s="324"/>
+      <c r="I53" s="324"/>
+      <c r="J53" s="324"/>
+      <c r="K53" s="324"/>
+      <c r="L53" s="324"/>
+      <c r="M53" s="324"/>
+      <c r="N53" s="324"/>
+      <c r="O53" s="324"/>
+      <c r="P53" s="324"/>
+      <c r="Q53" s="324"/>
+      <c r="R53" s="324"/>
+      <c r="S53" s="324"/>
+      <c r="T53" s="324"/>
+      <c r="U53" s="324"/>
+      <c r="V53" s="324"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="212" t="s">
@@ -59204,52 +59528,52 @@
         <f>-(177-165)+'Reorganised Statements'!G61</f>
         <v>-677</v>
       </c>
-      <c r="G54" s="391">
+      <c r="G54" s="390">
         <f xml:space="preserve"> -(180-177)+'Reorganised Statements'!H61</f>
         <v>-703</v>
       </c>
-      <c r="H54" s="325"/>
-      <c r="I54" s="325"/>
-      <c r="J54" s="325"/>
-      <c r="K54" s="325"/>
-      <c r="L54" s="325"/>
-      <c r="M54" s="325"/>
-      <c r="N54" s="325"/>
-      <c r="O54" s="325"/>
-      <c r="P54" s="325"/>
-      <c r="Q54" s="325"/>
-      <c r="R54" s="325"/>
-      <c r="S54" s="325"/>
-      <c r="T54" s="325"/>
-      <c r="U54" s="325"/>
-      <c r="V54" s="325"/>
+      <c r="H54" s="324"/>
+      <c r="I54" s="324"/>
+      <c r="J54" s="324"/>
+      <c r="K54" s="324"/>
+      <c r="L54" s="324"/>
+      <c r="M54" s="324"/>
+      <c r="N54" s="324"/>
+      <c r="O54" s="324"/>
+      <c r="P54" s="324"/>
+      <c r="Q54" s="324"/>
+      <c r="R54" s="324"/>
+      <c r="S54" s="324"/>
+      <c r="T54" s="324"/>
+      <c r="U54" s="324"/>
+      <c r="V54" s="324"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A55" s="389"/>
+      <c r="A55" s="388"/>
       <c r="B55" s="201"/>
       <c r="C55" s="171"/>
       <c r="D55" s="171"/>
       <c r="E55" s="163"/>
       <c r="F55" s="163"/>
-      <c r="G55" s="391"/>
-      <c r="H55" s="325"/>
-      <c r="I55" s="325"/>
-      <c r="J55" s="325"/>
-      <c r="K55" s="325"/>
-      <c r="L55" s="325"/>
-      <c r="M55" s="325"/>
-      <c r="N55" s="325"/>
-      <c r="O55" s="325"/>
-      <c r="P55" s="325"/>
-      <c r="Q55" s="325"/>
-      <c r="R55" s="325"/>
-      <c r="S55" s="325"/>
-      <c r="T55" s="325"/>
-      <c r="U55" s="325"/>
-      <c r="V55" s="325"/>
+      <c r="G55" s="390"/>
+      <c r="H55" s="324"/>
+      <c r="I55" s="324"/>
+      <c r="J55" s="324"/>
+      <c r="K55" s="324"/>
+      <c r="L55" s="324"/>
+      <c r="M55" s="324"/>
+      <c r="N55" s="324"/>
+      <c r="O55" s="324"/>
+      <c r="P55" s="324"/>
+      <c r="Q55" s="324"/>
+      <c r="R55" s="324"/>
+      <c r="S55" s="324"/>
+      <c r="T55" s="324"/>
+      <c r="U55" s="324"/>
+      <c r="V55" s="324"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A56" s="425" t="s">
+      <c r="A56" s="424" t="s">
         <v>324</v>
       </c>
       <c r="B56" s="206"/>
@@ -59265,29 +59589,29 @@
         <f>SUM(E52:E54)</f>
         <v>1214</v>
       </c>
-      <c r="F56" s="394">
+      <c r="F56" s="393">
         <f>SUM(F52:F54)</f>
         <v>1160</v>
       </c>
-      <c r="G56" s="394">
+      <c r="G56" s="393">
         <f>SUM(G52:G54)</f>
         <v>1237</v>
       </c>
-      <c r="H56" s="325"/>
-      <c r="I56" s="325"/>
-      <c r="J56" s="325"/>
-      <c r="K56" s="325"/>
-      <c r="L56" s="325"/>
-      <c r="M56" s="325"/>
-      <c r="N56" s="325"/>
-      <c r="O56" s="325"/>
-      <c r="P56" s="325"/>
-      <c r="Q56" s="325"/>
-      <c r="R56" s="325"/>
-      <c r="S56" s="325"/>
-      <c r="T56" s="325"/>
-      <c r="U56" s="325"/>
-      <c r="V56" s="325"/>
+      <c r="H56" s="324"/>
+      <c r="I56" s="324"/>
+      <c r="J56" s="324"/>
+      <c r="K56" s="324"/>
+      <c r="L56" s="324"/>
+      <c r="M56" s="324"/>
+      <c r="N56" s="324"/>
+      <c r="O56" s="324"/>
+      <c r="P56" s="324"/>
+      <c r="Q56" s="324"/>
+      <c r="R56" s="324"/>
+      <c r="S56" s="324"/>
+      <c r="T56" s="324"/>
+      <c r="U56" s="324"/>
+      <c r="V56" s="324"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="212" t="s">
@@ -59310,90 +59634,90 @@
         <f>-(131-121) + 'Reorganised Statements'!G72+'Reorganised Statements'!G76</f>
         <v>-653</v>
       </c>
-      <c r="G57" s="399">
+      <c r="G57" s="398">
         <f>-(135-131) + 'Reorganised Statements'!H72+'Reorganised Statements'!H76</f>
         <v>-551</v>
       </c>
-      <c r="H57" s="325"/>
-      <c r="I57" s="325"/>
-      <c r="J57" s="325"/>
-      <c r="K57" s="325"/>
-      <c r="L57" s="325"/>
-      <c r="M57" s="325"/>
-      <c r="N57" s="325"/>
-      <c r="O57" s="325"/>
-      <c r="P57" s="325"/>
-      <c r="Q57" s="325"/>
-      <c r="R57" s="325"/>
-      <c r="S57" s="325"/>
-      <c r="T57" s="325"/>
-      <c r="U57" s="325"/>
-      <c r="V57" s="325"/>
+      <c r="H57" s="324"/>
+      <c r="I57" s="324"/>
+      <c r="J57" s="324"/>
+      <c r="K57" s="324"/>
+      <c r="L57" s="324"/>
+      <c r="M57" s="324"/>
+      <c r="N57" s="324"/>
+      <c r="O57" s="324"/>
+      <c r="P57" s="324"/>
+      <c r="Q57" s="324"/>
+      <c r="R57" s="324"/>
+      <c r="S57" s="324"/>
+      <c r="T57" s="324"/>
+      <c r="U57" s="324"/>
+      <c r="V57" s="324"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A58" s="389"/>
+      <c r="A58" s="388"/>
       <c r="B58" s="201"/>
       <c r="C58" s="171"/>
       <c r="D58" s="171"/>
       <c r="E58" s="165"/>
       <c r="F58" s="165"/>
-      <c r="G58" s="399"/>
-      <c r="H58" s="325"/>
-      <c r="I58" s="325"/>
-      <c r="J58" s="325"/>
-      <c r="K58" s="325"/>
-      <c r="L58" s="325"/>
-      <c r="M58" s="325"/>
-      <c r="N58" s="325"/>
-      <c r="O58" s="325"/>
-      <c r="P58" s="325"/>
-      <c r="Q58" s="325"/>
-      <c r="R58" s="325"/>
-      <c r="S58" s="325"/>
-      <c r="T58" s="325"/>
-      <c r="U58" s="325"/>
-      <c r="V58" s="325"/>
+      <c r="G58" s="398"/>
+      <c r="H58" s="324"/>
+      <c r="I58" s="324"/>
+      <c r="J58" s="324"/>
+      <c r="K58" s="324"/>
+      <c r="L58" s="324"/>
+      <c r="M58" s="324"/>
+      <c r="N58" s="324"/>
+      <c r="O58" s="324"/>
+      <c r="P58" s="324"/>
+      <c r="Q58" s="324"/>
+      <c r="R58" s="324"/>
+      <c r="S58" s="324"/>
+      <c r="T58" s="324"/>
+      <c r="U58" s="324"/>
+      <c r="V58" s="324"/>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A59" s="425" t="s">
+      <c r="A59" s="424" t="s">
         <v>303</v>
       </c>
       <c r="B59" s="206"/>
-      <c r="C59" s="394">
+      <c r="C59" s="393">
         <f>C56+C57</f>
         <v>2175</v>
       </c>
-      <c r="D59" s="394">
+      <c r="D59" s="393">
         <f>D56+D57</f>
         <v>447</v>
       </c>
-      <c r="E59" s="394">
+      <c r="E59" s="393">
         <f>E56+E57</f>
         <v>714</v>
       </c>
-      <c r="F59" s="394">
+      <c r="F59" s="393">
         <f>F56+F57</f>
         <v>507</v>
       </c>
-      <c r="G59" s="394">
+      <c r="G59" s="393">
         <f>G56+G57</f>
         <v>686</v>
       </c>
-      <c r="H59" s="325"/>
-      <c r="I59" s="325"/>
-      <c r="J59" s="325"/>
-      <c r="K59" s="325"/>
-      <c r="L59" s="325"/>
-      <c r="M59" s="325"/>
-      <c r="N59" s="325"/>
-      <c r="O59" s="325"/>
-      <c r="P59" s="325"/>
-      <c r="Q59" s="325"/>
-      <c r="R59" s="325"/>
-      <c r="S59" s="325"/>
-      <c r="T59" s="325"/>
-      <c r="U59" s="325"/>
-      <c r="V59" s="325"/>
+      <c r="H59" s="324"/>
+      <c r="I59" s="324"/>
+      <c r="J59" s="324"/>
+      <c r="K59" s="324"/>
+      <c r="L59" s="324"/>
+      <c r="M59" s="324"/>
+      <c r="N59" s="324"/>
+      <c r="O59" s="324"/>
+      <c r="P59" s="324"/>
+      <c r="Q59" s="324"/>
+      <c r="R59" s="324"/>
+      <c r="S59" s="324"/>
+      <c r="T59" s="324"/>
+      <c r="U59" s="324"/>
+      <c r="V59" s="324"/>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" s="212" t="s">
@@ -59416,44 +59740,44 @@
         <f xml:space="preserve"> (0-0) + 'Reorganised Statements'!G82</f>
         <v>14</v>
       </c>
-      <c r="G60" s="391">
+      <c r="G60" s="390">
         <f>'Reorganised Statements'!H82+0</f>
         <v>4</v>
       </c>
-      <c r="H60" s="325"/>
-      <c r="I60" s="325"/>
-      <c r="J60" s="325"/>
-      <c r="K60" s="325"/>
-      <c r="L60" s="325"/>
-      <c r="M60" s="325"/>
-      <c r="N60" s="325"/>
-      <c r="O60" s="325"/>
-      <c r="P60" s="325"/>
-      <c r="Q60" s="325"/>
-      <c r="R60" s="325"/>
-      <c r="S60" s="325"/>
-      <c r="T60" s="325"/>
-      <c r="U60" s="325"/>
-      <c r="V60" s="325"/>
+      <c r="H60" s="324"/>
+      <c r="I60" s="324"/>
+      <c r="J60" s="324"/>
+      <c r="K60" s="324"/>
+      <c r="L60" s="324"/>
+      <c r="M60" s="324"/>
+      <c r="N60" s="324"/>
+      <c r="O60" s="324"/>
+      <c r="P60" s="324"/>
+      <c r="Q60" s="324"/>
+      <c r="R60" s="324"/>
+      <c r="S60" s="324"/>
+      <c r="T60" s="324"/>
+      <c r="U60" s="324"/>
+      <c r="V60" s="324"/>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" s="212" t="s">
         <v>498</v>
       </c>
-      <c r="B61" s="380"/>
-      <c r="C61" s="383">
+      <c r="B61" s="379"/>
+      <c r="C61" s="382">
         <f>-(29-25) + 'Reorganised Statements'!D83</f>
         <v>-142</v>
       </c>
-      <c r="D61" s="383">
+      <c r="D61" s="382">
         <f>-(29-25) + 'Reorganised Statements'!E83</f>
         <v>-165</v>
       </c>
-      <c r="E61" s="383">
+      <c r="E61" s="382">
         <f>-(29-25) + 'Reorganised Statements'!F83</f>
         <v>-138</v>
       </c>
-      <c r="F61" s="383">
+      <c r="F61" s="382">
         <f>-(24-29) + 'Reorganised Statements'!G83</f>
         <v>-107</v>
       </c>
@@ -59461,24 +59785,24 @@
         <f>-(18-24) + 'Reorganised Statements'!H83</f>
         <v>-104</v>
       </c>
-      <c r="H61" s="325"/>
-      <c r="I61" s="325"/>
-      <c r="J61" s="325"/>
-      <c r="K61" s="325"/>
-      <c r="L61" s="325"/>
-      <c r="M61" s="325"/>
-      <c r="N61" s="325"/>
-      <c r="O61" s="325"/>
-      <c r="P61" s="325"/>
-      <c r="Q61" s="325"/>
-      <c r="R61" s="325"/>
-      <c r="S61" s="325"/>
-      <c r="T61" s="325"/>
-      <c r="U61" s="325"/>
-      <c r="V61" s="325"/>
+      <c r="H61" s="324"/>
+      <c r="I61" s="324"/>
+      <c r="J61" s="324"/>
+      <c r="K61" s="324"/>
+      <c r="L61" s="324"/>
+      <c r="M61" s="324"/>
+      <c r="N61" s="324"/>
+      <c r="O61" s="324"/>
+      <c r="P61" s="324"/>
+      <c r="Q61" s="324"/>
+      <c r="R61" s="324"/>
+      <c r="S61" s="324"/>
+      <c r="T61" s="324"/>
+      <c r="U61" s="324"/>
+      <c r="V61" s="324"/>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A62" s="426" t="s">
+      <c r="A62" s="425" t="s">
         <v>414</v>
       </c>
       <c r="B62" s="201"/>
@@ -59502,24 +59826,24 @@
         <f>G60+G61</f>
         <v>-100</v>
       </c>
-      <c r="H62" s="325"/>
-      <c r="I62" s="325"/>
-      <c r="J62" s="325"/>
-      <c r="K62" s="325"/>
-      <c r="L62" s="325"/>
-      <c r="M62" s="325"/>
-      <c r="N62" s="325"/>
-      <c r="O62" s="325"/>
-      <c r="P62" s="325"/>
-      <c r="Q62" s="325"/>
-      <c r="R62" s="325"/>
-      <c r="S62" s="325"/>
-      <c r="T62" s="325"/>
-      <c r="U62" s="325"/>
-      <c r="V62" s="325"/>
+      <c r="H62" s="324"/>
+      <c r="I62" s="324"/>
+      <c r="J62" s="324"/>
+      <c r="K62" s="324"/>
+      <c r="L62" s="324"/>
+      <c r="M62" s="324"/>
+      <c r="N62" s="324"/>
+      <c r="O62" s="324"/>
+      <c r="P62" s="324"/>
+      <c r="Q62" s="324"/>
+      <c r="R62" s="324"/>
+      <c r="S62" s="324"/>
+      <c r="T62" s="324"/>
+      <c r="U62" s="324"/>
+      <c r="V62" s="324"/>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A63" s="425" t="s">
+      <c r="A63" s="424" t="s">
         <v>304</v>
       </c>
       <c r="B63" s="206"/>
@@ -59543,24 +59867,24 @@
         <f>G59+G62</f>
         <v>586</v>
       </c>
-      <c r="H63" s="325"/>
-      <c r="I63" s="325"/>
-      <c r="J63" s="325"/>
-      <c r="K63" s="325"/>
-      <c r="L63" s="325"/>
-      <c r="M63" s="325"/>
-      <c r="N63" s="325"/>
-      <c r="O63" s="325"/>
-      <c r="P63" s="325"/>
-      <c r="Q63" s="325"/>
-      <c r="R63" s="325"/>
-      <c r="S63" s="325"/>
-      <c r="T63" s="325"/>
-      <c r="U63" s="325"/>
-      <c r="V63" s="325"/>
+      <c r="H63" s="324"/>
+      <c r="I63" s="324"/>
+      <c r="J63" s="324"/>
+      <c r="K63" s="324"/>
+      <c r="L63" s="324"/>
+      <c r="M63" s="324"/>
+      <c r="N63" s="324"/>
+      <c r="O63" s="324"/>
+      <c r="P63" s="324"/>
+      <c r="Q63" s="324"/>
+      <c r="R63" s="324"/>
+      <c r="S63" s="324"/>
+      <c r="T63" s="324"/>
+      <c r="U63" s="324"/>
+      <c r="V63" s="324"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A64" s="427" t="s">
+      <c r="A64" s="426" t="s">
         <v>511</v>
       </c>
       <c r="B64" s="201"/>
@@ -59580,66 +59904,66 @@
         <f>-(59-83) + 'Reorganised Statements'!G109</f>
         <v>-133</v>
       </c>
-      <c r="G64" s="428">
+      <c r="G64" s="427">
         <f>-(58-59)+'Reorganised Statements'!H109</f>
         <v>-188</v>
       </c>
-      <c r="H64" s="325"/>
-      <c r="I64" s="325"/>
-      <c r="J64" s="325"/>
-      <c r="K64" s="325"/>
-      <c r="L64" s="325"/>
-      <c r="M64" s="325"/>
-      <c r="N64" s="325"/>
-      <c r="O64" s="325"/>
-      <c r="P64" s="325"/>
-      <c r="Q64" s="325"/>
-      <c r="R64" s="325"/>
-      <c r="S64" s="325"/>
-      <c r="T64" s="325"/>
-      <c r="U64" s="325"/>
-      <c r="V64" s="325"/>
+      <c r="H64" s="324"/>
+      <c r="I64" s="324"/>
+      <c r="J64" s="324"/>
+      <c r="K64" s="324"/>
+      <c r="L64" s="324"/>
+      <c r="M64" s="324"/>
+      <c r="N64" s="324"/>
+      <c r="O64" s="324"/>
+      <c r="P64" s="324"/>
+      <c r="Q64" s="324"/>
+      <c r="R64" s="324"/>
+      <c r="S64" s="324"/>
+      <c r="T64" s="324"/>
+      <c r="U64" s="324"/>
+      <c r="V64" s="324"/>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A65" s="429" t="s">
+      <c r="A65" s="428" t="s">
         <v>499</v>
       </c>
-      <c r="B65" s="382"/>
-      <c r="C65" s="430">
+      <c r="B65" s="381"/>
+      <c r="C65" s="429">
         <f>C63+C64</f>
         <v>1896</v>
       </c>
-      <c r="D65" s="430">
+      <c r="D65" s="429">
         <f>D63+D64</f>
         <v>207</v>
       </c>
-      <c r="E65" s="430">
+      <c r="E65" s="429">
         <f>E63+E64</f>
         <v>379</v>
       </c>
-      <c r="F65" s="430">
+      <c r="F65" s="429">
         <f>F63+F64</f>
         <v>281</v>
       </c>
-      <c r="G65" s="430">
+      <c r="G65" s="429">
         <f>G63+G64</f>
         <v>398</v>
       </c>
-      <c r="H65" s="325"/>
-      <c r="I65" s="325"/>
-      <c r="J65" s="325"/>
-      <c r="K65" s="325"/>
-      <c r="L65" s="325"/>
-      <c r="M65" s="325"/>
-      <c r="N65" s="325"/>
-      <c r="O65" s="325"/>
-      <c r="P65" s="325"/>
-      <c r="Q65" s="325"/>
-      <c r="R65" s="325"/>
-      <c r="S65" s="325"/>
-      <c r="T65" s="325"/>
-      <c r="U65" s="325"/>
-      <c r="V65" s="325"/>
+      <c r="H65" s="324"/>
+      <c r="I65" s="324"/>
+      <c r="J65" s="324"/>
+      <c r="K65" s="324"/>
+      <c r="L65" s="324"/>
+      <c r="M65" s="324"/>
+      <c r="N65" s="324"/>
+      <c r="O65" s="324"/>
+      <c r="P65" s="324"/>
+      <c r="Q65" s="324"/>
+      <c r="R65" s="324"/>
+      <c r="S65" s="324"/>
+      <c r="T65" s="324"/>
+      <c r="U65" s="324"/>
+      <c r="V65" s="324"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="212" t="s">
@@ -59662,25 +59986,25 @@
         <f>(0-2) + 'Reorganised Statements'!G111</f>
         <v>19</v>
       </c>
-      <c r="G66" s="391">
+      <c r="G66" s="390">
         <f xml:space="preserve">  0 + 'Reorganised Statements'!H111</f>
         <v>1</v>
       </c>
-      <c r="H66" s="325"/>
-      <c r="I66" s="325"/>
-      <c r="J66" s="325"/>
-      <c r="K66" s="325"/>
-      <c r="L66" s="325"/>
-      <c r="M66" s="325"/>
-      <c r="N66" s="325"/>
-      <c r="O66" s="325"/>
-      <c r="P66" s="325"/>
-      <c r="Q66" s="325"/>
-      <c r="R66" s="325"/>
-      <c r="S66" s="325"/>
-      <c r="T66" s="325"/>
-      <c r="U66" s="325"/>
-      <c r="V66" s="325"/>
+      <c r="H66" s="324"/>
+      <c r="I66" s="324"/>
+      <c r="J66" s="324"/>
+      <c r="K66" s="324"/>
+      <c r="L66" s="324"/>
+      <c r="M66" s="324"/>
+      <c r="N66" s="324"/>
+      <c r="O66" s="324"/>
+      <c r="P66" s="324"/>
+      <c r="Q66" s="324"/>
+      <c r="R66" s="324"/>
+      <c r="S66" s="324"/>
+      <c r="T66" s="324"/>
+      <c r="U66" s="324"/>
+      <c r="V66" s="324"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="212"/>
@@ -59689,63 +60013,63 @@
       <c r="D67" s="163"/>
       <c r="E67" s="163"/>
       <c r="F67" s="163"/>
-      <c r="G67" s="391"/>
-      <c r="H67" s="325"/>
-      <c r="I67" s="325"/>
-      <c r="J67" s="325"/>
-      <c r="K67" s="325"/>
-      <c r="L67" s="325"/>
-      <c r="M67" s="325"/>
-      <c r="N67" s="325"/>
-      <c r="O67" s="325"/>
-      <c r="P67" s="325"/>
-      <c r="Q67" s="325"/>
-      <c r="R67" s="325"/>
-      <c r="S67" s="325"/>
-      <c r="T67" s="325"/>
-      <c r="U67" s="325"/>
-      <c r="V67" s="325"/>
+      <c r="G67" s="390"/>
+      <c r="H67" s="324"/>
+      <c r="I67" s="324"/>
+      <c r="J67" s="324"/>
+      <c r="K67" s="324"/>
+      <c r="L67" s="324"/>
+      <c r="M67" s="324"/>
+      <c r="N67" s="324"/>
+      <c r="O67" s="324"/>
+      <c r="P67" s="324"/>
+      <c r="Q67" s="324"/>
+      <c r="R67" s="324"/>
+      <c r="S67" s="324"/>
+      <c r="T67" s="324"/>
+      <c r="U67" s="324"/>
+      <c r="V67" s="324"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A68" s="425" t="s">
+      <c r="A68" s="424" t="s">
         <v>512</v>
       </c>
       <c r="B68" s="206"/>
-      <c r="C68" s="431">
+      <c r="C68" s="430">
         <f>C65+C66</f>
         <v>1894</v>
       </c>
-      <c r="D68" s="431">
+      <c r="D68" s="430">
         <f>D65+D66</f>
         <v>224</v>
       </c>
-      <c r="E68" s="431">
+      <c r="E68" s="430">
         <f>E65+E66</f>
         <v>292</v>
       </c>
-      <c r="F68" s="431">
+      <c r="F68" s="430">
         <f>F65+F66</f>
         <v>300</v>
       </c>
-      <c r="G68" s="431">
+      <c r="G68" s="430">
         <f>G65+G66</f>
         <v>399</v>
       </c>
-      <c r="H68" s="325"/>
-      <c r="I68" s="325"/>
-      <c r="J68" s="325"/>
-      <c r="K68" s="325"/>
-      <c r="L68" s="325"/>
-      <c r="M68" s="325"/>
-      <c r="N68" s="325"/>
-      <c r="O68" s="325"/>
-      <c r="P68" s="325"/>
-      <c r="Q68" s="325"/>
-      <c r="R68" s="325"/>
-      <c r="S68" s="325"/>
-      <c r="T68" s="325"/>
-      <c r="U68" s="325"/>
-      <c r="V68" s="325"/>
+      <c r="H68" s="324"/>
+      <c r="I68" s="324"/>
+      <c r="J68" s="324"/>
+      <c r="K68" s="324"/>
+      <c r="L68" s="324"/>
+      <c r="M68" s="324"/>
+      <c r="N68" s="324"/>
+      <c r="O68" s="324"/>
+      <c r="P68" s="324"/>
+      <c r="Q68" s="324"/>
+      <c r="R68" s="324"/>
+      <c r="S68" s="324"/>
+      <c r="T68" s="324"/>
+      <c r="U68" s="324"/>
+      <c r="V68" s="324"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="212" t="s">
@@ -59768,25 +60092,25 @@
         <f>-(10-4) + 'Reorganised Statements'!G112</f>
         <v>-16</v>
       </c>
-      <c r="G69" s="391">
+      <c r="G69" s="390">
         <f>-(8-10) + 'Reorganised Statements'!H112</f>
         <v>-2</v>
       </c>
-      <c r="H69" s="325"/>
-      <c r="I69" s="325"/>
-      <c r="J69" s="325"/>
-      <c r="K69" s="325"/>
-      <c r="L69" s="325"/>
-      <c r="M69" s="325"/>
-      <c r="N69" s="325"/>
-      <c r="O69" s="325"/>
-      <c r="P69" s="325"/>
-      <c r="Q69" s="325"/>
-      <c r="R69" s="325"/>
-      <c r="S69" s="325"/>
-      <c r="T69" s="325"/>
-      <c r="U69" s="325"/>
-      <c r="V69" s="325"/>
+      <c r="H69" s="324"/>
+      <c r="I69" s="324"/>
+      <c r="J69" s="324"/>
+      <c r="K69" s="324"/>
+      <c r="L69" s="324"/>
+      <c r="M69" s="324"/>
+      <c r="N69" s="324"/>
+      <c r="O69" s="324"/>
+      <c r="P69" s="324"/>
+      <c r="Q69" s="324"/>
+      <c r="R69" s="324"/>
+      <c r="S69" s="324"/>
+      <c r="T69" s="324"/>
+      <c r="U69" s="324"/>
+      <c r="V69" s="324"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" s="212"/>
@@ -59795,30 +60119,30 @@
       <c r="D70" s="163"/>
       <c r="E70" s="163"/>
       <c r="F70" s="163"/>
-      <c r="G70" s="391"/>
+      <c r="G70" s="390"/>
     </row>
     <row r="71" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="432" t="s">
+      <c r="A71" s="431" t="s">
         <v>391</v>
       </c>
-      <c r="B71" s="433"/>
-      <c r="C71" s="416">
+      <c r="B71" s="432"/>
+      <c r="C71" s="415">
         <f>C68+C69</f>
         <v>2024</v>
       </c>
-      <c r="D71" s="416">
+      <c r="D71" s="415">
         <f>D68+D69</f>
         <v>225</v>
       </c>
-      <c r="E71" s="416">
+      <c r="E71" s="415">
         <f>E68+E69</f>
         <v>286</v>
       </c>
-      <c r="F71" s="416">
+      <c r="F71" s="415">
         <f>F68+F69</f>
         <v>284</v>
       </c>
-      <c r="G71" s="416">
+      <c r="G71" s="415">
         <f>G68+G69</f>
         <v>397</v>
       </c>
@@ -59861,7 +60185,7 @@
     </row>
     <row r="82" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="83" spans="1:22" ht="24.6" x14ac:dyDescent="0.5">
-      <c r="A83" s="435" t="s">
+      <c r="A83" s="434" t="s">
         <v>401</v>
       </c>
       <c r="B83" s="289"/>
@@ -59873,28 +60197,28 @@
     <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84" s="292"/>
       <c r="B84" s="64"/>
-      <c r="C84" s="445" t="s">
+      <c r="C84" s="462" t="s">
         <v>163</v>
       </c>
-      <c r="D84" s="445"/>
-      <c r="E84" s="445"/>
-      <c r="F84" s="446"/>
+      <c r="D84" s="462"/>
+      <c r="E84" s="462"/>
+      <c r="F84" s="463"/>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A85" s="293"/>
       <c r="B85" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="C85" s="381" t="s">
+      <c r="C85" s="380" t="s">
         <v>505</v>
       </c>
-      <c r="D85" s="381" t="s">
+      <c r="D85" s="380" t="s">
         <v>506</v>
       </c>
-      <c r="E85" s="381" t="s">
+      <c r="E85" s="380" t="s">
         <v>507</v>
       </c>
-      <c r="F85" s="422" t="s">
+      <c r="F85" s="421" t="s">
         <v>508</v>
       </c>
     </row>
@@ -59907,7 +60231,7 @@
       <c r="F86" s="296"/>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A87" s="389" t="s">
+      <c r="A87" s="388" t="s">
         <v>303</v>
       </c>
       <c r="B87" s="5"/>
@@ -59973,7 +60297,7 @@
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A90" s="425" t="s">
+      <c r="A90" s="424" t="s">
         <v>403</v>
       </c>
       <c r="B90" s="25"/>
@@ -60060,21 +60384,21 @@
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="G93" s="325"/>
-      <c r="H93" s="325"/>
-      <c r="I93" s="325"/>
-      <c r="J93" s="325"/>
-      <c r="K93" s="325"/>
-      <c r="L93" s="325"/>
-      <c r="M93" s="325"/>
-      <c r="N93" s="325"/>
-      <c r="O93" s="325"/>
-      <c r="P93" s="325"/>
-      <c r="Q93" s="325"/>
-      <c r="R93" s="325"/>
-      <c r="S93" s="325"/>
-      <c r="T93" s="325"/>
-      <c r="U93" s="325"/>
+      <c r="G93" s="324"/>
+      <c r="H93" s="324"/>
+      <c r="I93" s="324"/>
+      <c r="J93" s="324"/>
+      <c r="K93" s="324"/>
+      <c r="L93" s="324"/>
+      <c r="M93" s="324"/>
+      <c r="N93" s="324"/>
+      <c r="O93" s="324"/>
+      <c r="P93" s="324"/>
+      <c r="Q93" s="324"/>
+      <c r="R93" s="324"/>
+      <c r="S93" s="324"/>
+      <c r="T93" s="324"/>
+      <c r="U93" s="324"/>
       <c r="V93" s="282"/>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.3">
@@ -60098,25 +60422,25 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="G94" s="325"/>
-      <c r="H94" s="325"/>
-      <c r="I94" s="325"/>
-      <c r="J94" s="325"/>
-      <c r="K94" s="325"/>
-      <c r="L94" s="325"/>
-      <c r="M94" s="325"/>
-      <c r="N94" s="325"/>
-      <c r="O94" s="325"/>
-      <c r="P94" s="325"/>
-      <c r="Q94" s="325"/>
-      <c r="R94" s="325"/>
-      <c r="S94" s="325"/>
-      <c r="T94" s="325"/>
-      <c r="U94" s="325"/>
+      <c r="G94" s="324"/>
+      <c r="H94" s="324"/>
+      <c r="I94" s="324"/>
+      <c r="J94" s="324"/>
+      <c r="K94" s="324"/>
+      <c r="L94" s="324"/>
+      <c r="M94" s="324"/>
+      <c r="N94" s="324"/>
+      <c r="O94" s="324"/>
+      <c r="P94" s="324"/>
+      <c r="Q94" s="324"/>
+      <c r="R94" s="324"/>
+      <c r="S94" s="324"/>
+      <c r="T94" s="324"/>
+      <c r="U94" s="324"/>
       <c r="V94" s="282"/>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A95" s="425" t="s">
+      <c r="A95" s="424" t="s">
         <v>426</v>
       </c>
       <c r="B95" s="25"/>
@@ -60136,21 +60460,21 @@
         <f t="shared" si="8"/>
         <v>38</v>
       </c>
-      <c r="G95" s="325"/>
-      <c r="H95" s="325"/>
-      <c r="I95" s="325"/>
-      <c r="J95" s="325"/>
-      <c r="K95" s="325"/>
-      <c r="L95" s="325"/>
-      <c r="M95" s="325"/>
-      <c r="N95" s="325"/>
-      <c r="O95" s="325"/>
-      <c r="P95" s="325"/>
-      <c r="Q95" s="325"/>
-      <c r="R95" s="325"/>
-      <c r="S95" s="325"/>
-      <c r="T95" s="325"/>
-      <c r="U95" s="325"/>
+      <c r="G95" s="324"/>
+      <c r="H95" s="324"/>
+      <c r="I95" s="324"/>
+      <c r="J95" s="324"/>
+      <c r="K95" s="324"/>
+      <c r="L95" s="324"/>
+      <c r="M95" s="324"/>
+      <c r="N95" s="324"/>
+      <c r="O95" s="324"/>
+      <c r="P95" s="324"/>
+      <c r="Q95" s="324"/>
+      <c r="R95" s="324"/>
+      <c r="S95" s="324"/>
+      <c r="T95" s="324"/>
+      <c r="U95" s="324"/>
       <c r="V95" s="282"/>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.3">
@@ -60160,21 +60484,21 @@
       <c r="D96" s="218"/>
       <c r="E96" s="218"/>
       <c r="F96" s="298"/>
-      <c r="G96" s="434"/>
-      <c r="H96" s="384"/>
-      <c r="I96" s="325"/>
-      <c r="J96" s="384"/>
-      <c r="K96" s="384"/>
-      <c r="L96" s="325"/>
-      <c r="M96" s="384"/>
-      <c r="N96" s="384"/>
-      <c r="O96" s="325"/>
-      <c r="P96" s="384"/>
-      <c r="Q96" s="384"/>
-      <c r="R96" s="325"/>
-      <c r="S96" s="384"/>
-      <c r="T96" s="384"/>
-      <c r="U96" s="325"/>
+      <c r="G96" s="433"/>
+      <c r="H96" s="383"/>
+      <c r="I96" s="324"/>
+      <c r="J96" s="383"/>
+      <c r="K96" s="383"/>
+      <c r="L96" s="324"/>
+      <c r="M96" s="383"/>
+      <c r="N96" s="383"/>
+      <c r="O96" s="324"/>
+      <c r="P96" s="383"/>
+      <c r="Q96" s="383"/>
+      <c r="R96" s="324"/>
+      <c r="S96" s="383"/>
+      <c r="T96" s="383"/>
+      <c r="U96" s="324"/>
       <c r="V96" s="282"/>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.3">
@@ -60198,21 +60522,21 @@
         <f t="shared" si="9"/>
         <v>-455</v>
       </c>
-      <c r="G97" s="325"/>
-      <c r="H97" s="325"/>
-      <c r="I97" s="325"/>
-      <c r="J97" s="325"/>
-      <c r="K97" s="325"/>
-      <c r="L97" s="325"/>
-      <c r="M97" s="325"/>
-      <c r="N97" s="325"/>
-      <c r="O97" s="325"/>
-      <c r="P97" s="325"/>
-      <c r="Q97" s="325"/>
-      <c r="R97" s="325"/>
-      <c r="S97" s="325"/>
-      <c r="T97" s="325"/>
-      <c r="U97" s="325"/>
+      <c r="G97" s="324"/>
+      <c r="H97" s="324"/>
+      <c r="I97" s="324"/>
+      <c r="J97" s="324"/>
+      <c r="K97" s="324"/>
+      <c r="L97" s="324"/>
+      <c r="M97" s="324"/>
+      <c r="N97" s="324"/>
+      <c r="O97" s="324"/>
+      <c r="P97" s="324"/>
+      <c r="Q97" s="324"/>
+      <c r="R97" s="324"/>
+      <c r="S97" s="324"/>
+      <c r="T97" s="324"/>
+      <c r="U97" s="324"/>
       <c r="V97" s="282"/>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.3">
@@ -60236,25 +60560,25 @@
         <f t="shared" si="10"/>
         <v>435</v>
       </c>
-      <c r="G98" s="325"/>
-      <c r="H98" s="325"/>
-      <c r="I98" s="325"/>
-      <c r="J98" s="325"/>
-      <c r="K98" s="325"/>
-      <c r="L98" s="325"/>
-      <c r="M98" s="325"/>
-      <c r="N98" s="325"/>
-      <c r="O98" s="325"/>
-      <c r="P98" s="325"/>
-      <c r="Q98" s="325"/>
-      <c r="R98" s="325"/>
-      <c r="S98" s="325"/>
-      <c r="T98" s="325"/>
-      <c r="U98" s="325"/>
+      <c r="G98" s="324"/>
+      <c r="H98" s="324"/>
+      <c r="I98" s="324"/>
+      <c r="J98" s="324"/>
+      <c r="K98" s="324"/>
+      <c r="L98" s="324"/>
+      <c r="M98" s="324"/>
+      <c r="N98" s="324"/>
+      <c r="O98" s="324"/>
+      <c r="P98" s="324"/>
+      <c r="Q98" s="324"/>
+      <c r="R98" s="324"/>
+      <c r="S98" s="324"/>
+      <c r="T98" s="324"/>
+      <c r="U98" s="324"/>
       <c r="V98" s="282"/>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A99" s="425" t="s">
+      <c r="A99" s="424" t="s">
         <v>427</v>
       </c>
       <c r="B99" s="25"/>
@@ -60274,21 +60598,21 @@
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="G99" s="325"/>
-      <c r="H99" s="325"/>
-      <c r="I99" s="325"/>
-      <c r="J99" s="325"/>
-      <c r="K99" s="325"/>
-      <c r="L99" s="325"/>
-      <c r="M99" s="325"/>
-      <c r="N99" s="325"/>
-      <c r="O99" s="325"/>
-      <c r="P99" s="325"/>
-      <c r="Q99" s="325"/>
-      <c r="R99" s="325"/>
-      <c r="S99" s="325"/>
-      <c r="T99" s="325"/>
-      <c r="U99" s="325"/>
+      <c r="G99" s="324"/>
+      <c r="H99" s="324"/>
+      <c r="I99" s="324"/>
+      <c r="J99" s="324"/>
+      <c r="K99" s="324"/>
+      <c r="L99" s="324"/>
+      <c r="M99" s="324"/>
+      <c r="N99" s="324"/>
+      <c r="O99" s="324"/>
+      <c r="P99" s="324"/>
+      <c r="Q99" s="324"/>
+      <c r="R99" s="324"/>
+      <c r="S99" s="324"/>
+      <c r="T99" s="324"/>
+      <c r="U99" s="324"/>
       <c r="V99" s="282"/>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.3">
@@ -60298,21 +60622,21 @@
       <c r="D100" s="218"/>
       <c r="E100" s="218"/>
       <c r="F100" s="298"/>
-      <c r="G100" s="325"/>
-      <c r="H100" s="325"/>
-      <c r="I100" s="325"/>
-      <c r="J100" s="325"/>
-      <c r="K100" s="325"/>
-      <c r="L100" s="325"/>
-      <c r="M100" s="325"/>
-      <c r="N100" s="325"/>
-      <c r="O100" s="325"/>
-      <c r="P100" s="325"/>
-      <c r="Q100" s="325"/>
-      <c r="R100" s="325"/>
-      <c r="S100" s="325"/>
-      <c r="T100" s="325"/>
-      <c r="U100" s="325"/>
+      <c r="G100" s="324"/>
+      <c r="H100" s="324"/>
+      <c r="I100" s="324"/>
+      <c r="J100" s="324"/>
+      <c r="K100" s="324"/>
+      <c r="L100" s="324"/>
+      <c r="M100" s="324"/>
+      <c r="N100" s="324"/>
+      <c r="O100" s="324"/>
+      <c r="P100" s="324"/>
+      <c r="Q100" s="324"/>
+      <c r="R100" s="324"/>
+      <c r="S100" s="324"/>
+      <c r="T100" s="324"/>
+      <c r="U100" s="324"/>
       <c r="V100" s="282"/>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.3">
@@ -60325,7 +60649,7 @@
         <v>-1130</v>
       </c>
       <c r="D101" s="217">
-        <f t="shared" ref="D101:F101" si="12">D5+D6-E5-E6+E57</f>
+        <f t="shared" ref="D101" si="12">D5+D6-E5-E6+E57</f>
         <v>-212</v>
       </c>
       <c r="E101" s="217">
@@ -60336,21 +60660,21 @@
         <f>F5+F6-G5-G6 - F102</f>
         <v>-814</v>
       </c>
-      <c r="G101" s="325"/>
-      <c r="H101" s="325"/>
-      <c r="I101" s="325"/>
-      <c r="J101" s="325"/>
-      <c r="K101" s="325"/>
-      <c r="L101" s="325"/>
-      <c r="M101" s="325"/>
-      <c r="N101" s="325"/>
-      <c r="O101" s="325"/>
-      <c r="P101" s="325"/>
-      <c r="Q101" s="325"/>
-      <c r="R101" s="325"/>
-      <c r="S101" s="325"/>
-      <c r="T101" s="325"/>
-      <c r="U101" s="325"/>
+      <c r="G101" s="324"/>
+      <c r="H101" s="324"/>
+      <c r="I101" s="324"/>
+      <c r="J101" s="324"/>
+      <c r="K101" s="324"/>
+      <c r="L101" s="324"/>
+      <c r="M101" s="324"/>
+      <c r="N101" s="324"/>
+      <c r="O101" s="324"/>
+      <c r="P101" s="324"/>
+      <c r="Q101" s="324"/>
+      <c r="R101" s="324"/>
+      <c r="S101" s="324"/>
+      <c r="T101" s="324"/>
+      <c r="U101" s="324"/>
       <c r="V101" s="282"/>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.3">
@@ -60363,7 +60687,7 @@
         <v>730</v>
       </c>
       <c r="D102" s="217">
-        <f t="shared" ref="D102:F102" si="13">-E57</f>
+        <f t="shared" ref="D102" si="13">-E57</f>
         <v>500</v>
       </c>
       <c r="E102" s="217">
@@ -60374,21 +60698,21 @@
         <f>-'Reorganised Statements'!H72+(135-131)</f>
         <v>515</v>
       </c>
-      <c r="G102" s="325"/>
-      <c r="H102" s="325"/>
-      <c r="I102" s="325"/>
-      <c r="J102" s="325"/>
-      <c r="K102" s="325"/>
-      <c r="L102" s="325"/>
-      <c r="M102" s="325"/>
-      <c r="N102" s="325"/>
-      <c r="O102" s="325"/>
-      <c r="P102" s="325"/>
-      <c r="Q102" s="325"/>
-      <c r="R102" s="325"/>
-      <c r="S102" s="325"/>
-      <c r="T102" s="325"/>
-      <c r="U102" s="325"/>
+      <c r="G102" s="324"/>
+      <c r="H102" s="324"/>
+      <c r="I102" s="324"/>
+      <c r="J102" s="324"/>
+      <c r="K102" s="324"/>
+      <c r="L102" s="324"/>
+      <c r="M102" s="324"/>
+      <c r="N102" s="324"/>
+      <c r="O102" s="324"/>
+      <c r="P102" s="324"/>
+      <c r="Q102" s="324"/>
+      <c r="R102" s="324"/>
+      <c r="S102" s="324"/>
+      <c r="T102" s="324"/>
+      <c r="U102" s="324"/>
       <c r="V102" s="282"/>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.3">
@@ -60412,21 +60736,21 @@
         <f t="shared" si="14"/>
         <v>31</v>
       </c>
-      <c r="G103" s="325"/>
-      <c r="H103" s="325"/>
-      <c r="I103" s="325"/>
-      <c r="J103" s="325"/>
-      <c r="K103" s="325"/>
-      <c r="L103" s="325"/>
-      <c r="M103" s="325"/>
-      <c r="N103" s="325"/>
-      <c r="O103" s="325"/>
-      <c r="P103" s="325"/>
-      <c r="Q103" s="325"/>
-      <c r="R103" s="325"/>
-      <c r="S103" s="325"/>
-      <c r="T103" s="325"/>
-      <c r="U103" s="325"/>
+      <c r="G103" s="324"/>
+      <c r="H103" s="324"/>
+      <c r="I103" s="324"/>
+      <c r="J103" s="324"/>
+      <c r="K103" s="324"/>
+      <c r="L103" s="324"/>
+      <c r="M103" s="324"/>
+      <c r="N103" s="324"/>
+      <c r="O103" s="324"/>
+      <c r="P103" s="324"/>
+      <c r="Q103" s="324"/>
+      <c r="R103" s="324"/>
+      <c r="S103" s="324"/>
+      <c r="T103" s="324"/>
+      <c r="U103" s="324"/>
       <c r="V103" s="282"/>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.3">
@@ -60450,21 +60774,21 @@
         <f t="shared" si="15"/>
         <v>-11</v>
       </c>
-      <c r="G104" s="325"/>
-      <c r="H104" s="325"/>
-      <c r="I104" s="325"/>
-      <c r="J104" s="325"/>
-      <c r="K104" s="325"/>
-      <c r="L104" s="325"/>
-      <c r="M104" s="325"/>
-      <c r="N104" s="325"/>
-      <c r="O104" s="325"/>
-      <c r="P104" s="325"/>
-      <c r="Q104" s="325"/>
-      <c r="R104" s="325"/>
-      <c r="S104" s="325"/>
-      <c r="T104" s="325"/>
-      <c r="U104" s="325"/>
+      <c r="G104" s="324"/>
+      <c r="H104" s="324"/>
+      <c r="I104" s="324"/>
+      <c r="J104" s="324"/>
+      <c r="K104" s="324"/>
+      <c r="L104" s="324"/>
+      <c r="M104" s="324"/>
+      <c r="N104" s="324"/>
+      <c r="O104" s="324"/>
+      <c r="P104" s="324"/>
+      <c r="Q104" s="324"/>
+      <c r="R104" s="324"/>
+      <c r="S104" s="324"/>
+      <c r="T104" s="324"/>
+      <c r="U104" s="324"/>
       <c r="V104" s="282"/>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.3">
@@ -60488,21 +60812,21 @@
         <f t="shared" si="16"/>
         <v>-12</v>
       </c>
-      <c r="G105" s="325"/>
-      <c r="H105" s="325"/>
-      <c r="I105" s="325"/>
-      <c r="J105" s="325"/>
-      <c r="K105" s="325"/>
-      <c r="L105" s="325"/>
-      <c r="M105" s="325"/>
-      <c r="N105" s="325"/>
-      <c r="O105" s="325"/>
-      <c r="P105" s="325"/>
-      <c r="Q105" s="325"/>
-      <c r="R105" s="325"/>
-      <c r="S105" s="325"/>
-      <c r="T105" s="325"/>
-      <c r="U105" s="325"/>
+      <c r="G105" s="324"/>
+      <c r="H105" s="324"/>
+      <c r="I105" s="324"/>
+      <c r="J105" s="324"/>
+      <c r="K105" s="324"/>
+      <c r="L105" s="324"/>
+      <c r="M105" s="324"/>
+      <c r="N105" s="324"/>
+      <c r="O105" s="324"/>
+      <c r="P105" s="324"/>
+      <c r="Q105" s="324"/>
+      <c r="R105" s="324"/>
+      <c r="S105" s="324"/>
+      <c r="T105" s="324"/>
+      <c r="U105" s="324"/>
       <c r="V105" s="282"/>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.3">
@@ -60526,27 +60850,27 @@
         <f>G69 + G66</f>
         <v>-1</v>
       </c>
-      <c r="G106" s="325" t="s">
+      <c r="G106" s="324" t="s">
         <v>518</v>
       </c>
-      <c r="H106" s="325"/>
-      <c r="I106" s="325"/>
-      <c r="J106" s="325"/>
-      <c r="K106" s="325"/>
-      <c r="L106" s="325"/>
-      <c r="M106" s="325"/>
-      <c r="N106" s="325"/>
-      <c r="O106" s="325"/>
-      <c r="P106" s="325"/>
-      <c r="Q106" s="325"/>
-      <c r="R106" s="325"/>
-      <c r="S106" s="325"/>
-      <c r="T106" s="325"/>
-      <c r="U106" s="325"/>
+      <c r="H106" s="324"/>
+      <c r="I106" s="324"/>
+      <c r="J106" s="324"/>
+      <c r="K106" s="324"/>
+      <c r="L106" s="324"/>
+      <c r="M106" s="324"/>
+      <c r="N106" s="324"/>
+      <c r="O106" s="324"/>
+      <c r="P106" s="324"/>
+      <c r="Q106" s="324"/>
+      <c r="R106" s="324"/>
+      <c r="S106" s="324"/>
+      <c r="T106" s="324"/>
+      <c r="U106" s="324"/>
       <c r="V106" s="282"/>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A107" s="436" t="s">
+      <c r="A107" s="435" t="s">
         <v>412</v>
       </c>
       <c r="B107" s="20"/>
@@ -60566,21 +60890,21 @@
         <f t="shared" si="17"/>
         <v>191.91808873720134</v>
       </c>
-      <c r="G107" s="325"/>
-      <c r="H107" s="325"/>
-      <c r="I107" s="325"/>
-      <c r="J107" s="325"/>
-      <c r="K107" s="325"/>
-      <c r="L107" s="325"/>
-      <c r="M107" s="325"/>
-      <c r="N107" s="325"/>
-      <c r="O107" s="325"/>
-      <c r="P107" s="325"/>
-      <c r="Q107" s="325"/>
-      <c r="R107" s="325"/>
-      <c r="S107" s="325"/>
-      <c r="T107" s="325"/>
-      <c r="U107" s="325"/>
+      <c r="G107" s="324"/>
+      <c r="H107" s="324"/>
+      <c r="I107" s="324"/>
+      <c r="J107" s="324"/>
+      <c r="K107" s="324"/>
+      <c r="L107" s="324"/>
+      <c r="M107" s="324"/>
+      <c r="N107" s="324"/>
+      <c r="O107" s="324"/>
+      <c r="P107" s="324"/>
+      <c r="Q107" s="324"/>
+      <c r="R107" s="324"/>
+      <c r="S107" s="324"/>
+      <c r="T107" s="324"/>
+      <c r="U107" s="324"/>
       <c r="V107" s="282"/>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.3">
@@ -60592,21 +60916,21 @@
       <c r="D108" s="225"/>
       <c r="E108" s="225"/>
       <c r="F108" s="303"/>
-      <c r="G108" s="325"/>
-      <c r="H108" s="325"/>
-      <c r="I108" s="325"/>
-      <c r="J108" s="325"/>
-      <c r="K108" s="325"/>
-      <c r="L108" s="325"/>
-      <c r="M108" s="325"/>
-      <c r="N108" s="325"/>
-      <c r="O108" s="325"/>
-      <c r="P108" s="325"/>
-      <c r="Q108" s="325"/>
-      <c r="R108" s="325"/>
-      <c r="S108" s="325"/>
-      <c r="T108" s="325"/>
-      <c r="U108" s="325"/>
+      <c r="G108" s="324"/>
+      <c r="H108" s="324"/>
+      <c r="I108" s="324"/>
+      <c r="J108" s="324"/>
+      <c r="K108" s="324"/>
+      <c r="L108" s="324"/>
+      <c r="M108" s="324"/>
+      <c r="N108" s="324"/>
+      <c r="O108" s="324"/>
+      <c r="P108" s="324"/>
+      <c r="Q108" s="324"/>
+      <c r="R108" s="324"/>
+      <c r="S108" s="324"/>
+      <c r="T108" s="324"/>
+      <c r="U108" s="324"/>
       <c r="V108" s="282"/>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.3">
@@ -60616,21 +60940,21 @@
       <c r="D109" s="218"/>
       <c r="E109" s="218"/>
       <c r="F109" s="298"/>
-      <c r="G109" s="325"/>
-      <c r="H109" s="325"/>
-      <c r="I109" s="325"/>
-      <c r="J109" s="325"/>
-      <c r="K109" s="325"/>
-      <c r="L109" s="325"/>
-      <c r="M109" s="325"/>
-      <c r="N109" s="325"/>
-      <c r="O109" s="325"/>
-      <c r="P109" s="325"/>
-      <c r="Q109" s="325"/>
-      <c r="R109" s="325"/>
-      <c r="S109" s="325"/>
-      <c r="T109" s="325"/>
-      <c r="U109" s="325"/>
+      <c r="G109" s="324"/>
+      <c r="H109" s="324"/>
+      <c r="I109" s="324"/>
+      <c r="J109" s="324"/>
+      <c r="K109" s="324"/>
+      <c r="L109" s="324"/>
+      <c r="M109" s="324"/>
+      <c r="N109" s="324"/>
+      <c r="O109" s="324"/>
+      <c r="P109" s="324"/>
+      <c r="Q109" s="324"/>
+      <c r="R109" s="324"/>
+      <c r="S109" s="324"/>
+      <c r="T109" s="324"/>
+      <c r="U109" s="324"/>
       <c r="V109" s="282"/>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.3">
@@ -60654,21 +60978,21 @@
         <f t="shared" si="18"/>
         <v>-151</v>
       </c>
-      <c r="G110" s="325"/>
-      <c r="H110" s="325"/>
-      <c r="I110" s="325"/>
-      <c r="J110" s="325"/>
-      <c r="K110" s="325"/>
-      <c r="L110" s="325"/>
-      <c r="M110" s="325"/>
-      <c r="N110" s="325"/>
-      <c r="O110" s="325"/>
-      <c r="P110" s="325"/>
-      <c r="Q110" s="325"/>
-      <c r="R110" s="325"/>
-      <c r="S110" s="325"/>
-      <c r="T110" s="325"/>
-      <c r="U110" s="325"/>
+      <c r="G110" s="324"/>
+      <c r="H110" s="324"/>
+      <c r="I110" s="324"/>
+      <c r="J110" s="324"/>
+      <c r="K110" s="324"/>
+      <c r="L110" s="324"/>
+      <c r="M110" s="324"/>
+      <c r="N110" s="324"/>
+      <c r="O110" s="324"/>
+      <c r="P110" s="324"/>
+      <c r="Q110" s="324"/>
+      <c r="R110" s="324"/>
+      <c r="S110" s="324"/>
+      <c r="T110" s="324"/>
+      <c r="U110" s="324"/>
       <c r="V110" s="282"/>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.3">
@@ -60692,21 +61016,21 @@
         <f t="shared" si="19"/>
         <v>-105</v>
       </c>
-      <c r="G111" s="325"/>
-      <c r="H111" s="325"/>
-      <c r="I111" s="325"/>
-      <c r="J111" s="325"/>
-      <c r="K111" s="325"/>
-      <c r="L111" s="325"/>
-      <c r="M111" s="325"/>
-      <c r="N111" s="325"/>
-      <c r="O111" s="325"/>
-      <c r="P111" s="325"/>
-      <c r="Q111" s="325"/>
-      <c r="R111" s="325"/>
-      <c r="S111" s="325"/>
-      <c r="T111" s="325"/>
-      <c r="U111" s="325"/>
+      <c r="G111" s="324"/>
+      <c r="H111" s="324"/>
+      <c r="I111" s="324"/>
+      <c r="J111" s="324"/>
+      <c r="K111" s="324"/>
+      <c r="L111" s="324"/>
+      <c r="M111" s="324"/>
+      <c r="N111" s="324"/>
+      <c r="O111" s="324"/>
+      <c r="P111" s="324"/>
+      <c r="Q111" s="324"/>
+      <c r="R111" s="324"/>
+      <c r="S111" s="324"/>
+      <c r="T111" s="324"/>
+      <c r="U111" s="324"/>
       <c r="V111" s="282"/>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.3">
@@ -60730,25 +61054,25 @@
         <f t="shared" si="20"/>
         <v>32.081911262798634</v>
       </c>
-      <c r="G112" s="325"/>
-      <c r="H112" s="325"/>
-      <c r="I112" s="325"/>
-      <c r="J112" s="325"/>
-      <c r="K112" s="325"/>
-      <c r="L112" s="325"/>
-      <c r="M112" s="325"/>
-      <c r="N112" s="325"/>
-      <c r="O112" s="325"/>
-      <c r="P112" s="325"/>
-      <c r="Q112" s="325"/>
-      <c r="R112" s="325"/>
-      <c r="S112" s="325"/>
-      <c r="T112" s="325"/>
-      <c r="U112" s="325"/>
+      <c r="G112" s="324"/>
+      <c r="H112" s="324"/>
+      <c r="I112" s="324"/>
+      <c r="J112" s="324"/>
+      <c r="K112" s="324"/>
+      <c r="L112" s="324"/>
+      <c r="M112" s="324"/>
+      <c r="N112" s="324"/>
+      <c r="O112" s="324"/>
+      <c r="P112" s="324"/>
+      <c r="Q112" s="324"/>
+      <c r="R112" s="324"/>
+      <c r="S112" s="324"/>
+      <c r="T112" s="324"/>
+      <c r="U112" s="324"/>
       <c r="V112" s="282"/>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A113" s="436" t="s">
+      <c r="A113" s="435" t="s">
         <v>416</v>
       </c>
       <c r="B113" s="20"/>
@@ -60768,21 +61092,21 @@
         <f t="shared" si="21"/>
         <v>-32.000000000000021</v>
       </c>
-      <c r="G113" s="325"/>
-      <c r="H113" s="325"/>
-      <c r="I113" s="325"/>
-      <c r="J113" s="325"/>
-      <c r="K113" s="325"/>
-      <c r="L113" s="325"/>
-      <c r="M113" s="325"/>
-      <c r="N113" s="325"/>
-      <c r="O113" s="325"/>
-      <c r="P113" s="325"/>
-      <c r="Q113" s="325"/>
-      <c r="R113" s="325"/>
-      <c r="S113" s="325"/>
-      <c r="T113" s="325"/>
-      <c r="U113" s="325"/>
+      <c r="G113" s="324"/>
+      <c r="H113" s="324"/>
+      <c r="I113" s="324"/>
+      <c r="J113" s="324"/>
+      <c r="K113" s="324"/>
+      <c r="L113" s="324"/>
+      <c r="M113" s="324"/>
+      <c r="N113" s="324"/>
+      <c r="O113" s="324"/>
+      <c r="P113" s="324"/>
+      <c r="Q113" s="324"/>
+      <c r="R113" s="324"/>
+      <c r="S113" s="324"/>
+      <c r="T113" s="324"/>
+      <c r="U113" s="324"/>
       <c r="V113" s="282"/>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.3">
@@ -60794,21 +61118,21 @@
       <c r="D114" s="218"/>
       <c r="E114" s="218"/>
       <c r="F114" s="298"/>
-      <c r="G114" s="325"/>
-      <c r="H114" s="325"/>
-      <c r="I114" s="325"/>
-      <c r="J114" s="325"/>
-      <c r="K114" s="325"/>
-      <c r="L114" s="325"/>
-      <c r="M114" s="325"/>
-      <c r="N114" s="325"/>
-      <c r="O114" s="325"/>
-      <c r="P114" s="325"/>
-      <c r="Q114" s="325"/>
-      <c r="R114" s="325"/>
-      <c r="S114" s="325"/>
-      <c r="T114" s="325"/>
-      <c r="U114" s="325"/>
+      <c r="G114" s="324"/>
+      <c r="H114" s="324"/>
+      <c r="I114" s="324"/>
+      <c r="J114" s="324"/>
+      <c r="K114" s="324"/>
+      <c r="L114" s="324"/>
+      <c r="M114" s="324"/>
+      <c r="N114" s="324"/>
+      <c r="O114" s="324"/>
+      <c r="P114" s="324"/>
+      <c r="Q114" s="324"/>
+      <c r="R114" s="324"/>
+      <c r="S114" s="324"/>
+      <c r="T114" s="324"/>
+      <c r="U114" s="324"/>
       <c r="V114" s="282"/>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.3">
@@ -60818,21 +61142,21 @@
       <c r="D115" s="224"/>
       <c r="E115" s="224"/>
       <c r="F115" s="305"/>
-      <c r="G115" s="325"/>
-      <c r="H115" s="325"/>
-      <c r="I115" s="325"/>
-      <c r="J115" s="325"/>
-      <c r="K115" s="325"/>
-      <c r="L115" s="325"/>
-      <c r="M115" s="325"/>
-      <c r="N115" s="325"/>
-      <c r="O115" s="325"/>
-      <c r="P115" s="325"/>
-      <c r="Q115" s="325"/>
-      <c r="R115" s="325"/>
-      <c r="S115" s="325"/>
-      <c r="T115" s="325"/>
-      <c r="U115" s="325"/>
+      <c r="G115" s="324"/>
+      <c r="H115" s="324"/>
+      <c r="I115" s="324"/>
+      <c r="J115" s="324"/>
+      <c r="K115" s="324"/>
+      <c r="L115" s="324"/>
+      <c r="M115" s="324"/>
+      <c r="N115" s="324"/>
+      <c r="O115" s="324"/>
+      <c r="P115" s="324"/>
+      <c r="Q115" s="324"/>
+      <c r="R115" s="324"/>
+      <c r="S115" s="324"/>
+      <c r="T115" s="324"/>
+      <c r="U115" s="324"/>
       <c r="V115" s="282"/>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.3">
@@ -60845,7 +61169,7 @@
         <v>105</v>
       </c>
       <c r="D116" s="224">
-        <f t="shared" ref="D116:F116" si="22">D35-E35-E71</f>
+        <f t="shared" ref="D116:E116" si="22">D35-E35-E71</f>
         <v>-557</v>
       </c>
       <c r="E116" s="224">
@@ -60856,25 +61180,25 @@
         <f>F35-G35-G71</f>
         <v>-265</v>
       </c>
-      <c r="G116" s="325"/>
-      <c r="H116" s="325"/>
-      <c r="I116" s="325"/>
-      <c r="J116" s="325"/>
-      <c r="K116" s="325"/>
-      <c r="L116" s="325"/>
-      <c r="M116" s="325"/>
-      <c r="N116" s="325"/>
-      <c r="O116" s="325"/>
-      <c r="P116" s="325"/>
-      <c r="Q116" s="325"/>
-      <c r="R116" s="325"/>
-      <c r="S116" s="325"/>
-      <c r="T116" s="325"/>
-      <c r="U116" s="325"/>
+      <c r="G116" s="324"/>
+      <c r="H116" s="324"/>
+      <c r="I116" s="324"/>
+      <c r="J116" s="324"/>
+      <c r="K116" s="324"/>
+      <c r="L116" s="324"/>
+      <c r="M116" s="324"/>
+      <c r="N116" s="324"/>
+      <c r="O116" s="324"/>
+      <c r="P116" s="324"/>
+      <c r="Q116" s="324"/>
+      <c r="R116" s="324"/>
+      <c r="S116" s="324"/>
+      <c r="T116" s="324"/>
+      <c r="U116" s="324"/>
       <c r="V116" s="282"/>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A117" s="389" t="s">
+      <c r="A117" s="388" t="s">
         <v>419</v>
       </c>
       <c r="B117" s="5"/>
@@ -60894,21 +61218,21 @@
         <f t="shared" ref="F117" si="26">F113+F116</f>
         <v>-297</v>
       </c>
-      <c r="G117" s="325"/>
-      <c r="H117" s="325"/>
-      <c r="I117" s="325"/>
-      <c r="J117" s="325"/>
-      <c r="K117" s="325"/>
-      <c r="L117" s="325"/>
-      <c r="M117" s="325"/>
-      <c r="N117" s="325"/>
-      <c r="O117" s="325"/>
-      <c r="P117" s="325"/>
-      <c r="Q117" s="325"/>
-      <c r="R117" s="325"/>
-      <c r="S117" s="325"/>
-      <c r="T117" s="325"/>
-      <c r="U117" s="325"/>
+      <c r="G117" s="324"/>
+      <c r="H117" s="324"/>
+      <c r="I117" s="324"/>
+      <c r="J117" s="324"/>
+      <c r="K117" s="324"/>
+      <c r="L117" s="324"/>
+      <c r="M117" s="324"/>
+      <c r="N117" s="324"/>
+      <c r="O117" s="324"/>
+      <c r="P117" s="324"/>
+      <c r="Q117" s="324"/>
+      <c r="R117" s="324"/>
+      <c r="S117" s="324"/>
+      <c r="T117" s="324"/>
+      <c r="U117" s="324"/>
       <c r="V117" s="282"/>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.3">
@@ -61012,7 +61336,7 @@
       <c r="V120" s="282"/>
     </row>
     <row r="121" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="437" t="s">
+      <c r="A121" s="436" t="s">
         <v>422</v>
       </c>
       <c r="B121" s="308"/>
@@ -61055,516 +61379,516 @@
       <c r="C122" s="55"/>
       <c r="D122" s="55"/>
       <c r="E122" s="55"/>
-      <c r="F122" s="342"/>
+      <c r="F122" s="341"/>
     </row>
     <row r="123" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="312" t="s">
         <v>433</v>
       </c>
       <c r="B123" s="313"/>
-      <c r="C123" s="451">
+      <c r="C123" s="440">
         <f t="shared" ref="C123:E123" si="30">C117-C121</f>
         <v>0</v>
       </c>
-      <c r="D123" s="454">
+      <c r="D123" s="443">
         <f>D117-D121</f>
         <v>-1.1368683772161603E-13</v>
       </c>
-      <c r="E123" s="451">
+      <c r="E123" s="440">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="F123" s="451">
+      <c r="F123" s="440">
         <f>F117-F121</f>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C125" s="452"/>
+      <c r="C125" s="441"/>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C126" s="452"/>
+      <c r="C126" s="441"/>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C127" s="452"/>
+      <c r="C127" s="441"/>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C128" s="452"/>
+      <c r="C128" s="441"/>
     </row>
     <row r="129" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C129" s="452"/>
+      <c r="C129" s="441"/>
     </row>
     <row r="130" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C130" s="452"/>
+      <c r="C130" s="441"/>
     </row>
     <row r="131" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C131" s="453"/>
+      <c r="C131" s="442"/>
     </row>
     <row r="132" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C132" s="453"/>
+      <c r="C132" s="442"/>
     </row>
     <row r="133" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C133" s="282"/>
     </row>
     <row r="134" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B134" s="325"/>
-      <c r="C134" s="325"/>
-      <c r="D134" s="325"/>
-      <c r="E134" s="325"/>
-      <c r="F134" s="325"/>
-      <c r="G134" s="325"/>
-      <c r="H134" s="325"/>
-      <c r="I134" s="325"/>
-      <c r="J134" s="325"/>
-      <c r="K134" s="325"/>
-      <c r="L134" s="325"/>
-      <c r="M134" s="325"/>
-      <c r="N134" s="325"/>
-      <c r="O134" s="325"/>
-      <c r="P134" s="325"/>
-      <c r="Q134" s="325"/>
-      <c r="R134" s="325"/>
-      <c r="S134" s="325"/>
-      <c r="T134" s="325"/>
-      <c r="U134" s="325"/>
-      <c r="V134" s="325"/>
+      <c r="B134" s="324"/>
+      <c r="C134" s="324"/>
+      <c r="D134" s="324"/>
+      <c r="E134" s="324"/>
+      <c r="F134" s="324"/>
+      <c r="G134" s="324"/>
+      <c r="H134" s="324"/>
+      <c r="I134" s="324"/>
+      <c r="J134" s="324"/>
+      <c r="K134" s="324"/>
+      <c r="L134" s="324"/>
+      <c r="M134" s="324"/>
+      <c r="N134" s="324"/>
+      <c r="O134" s="324"/>
+      <c r="P134" s="324"/>
+      <c r="Q134" s="324"/>
+      <c r="R134" s="324"/>
+      <c r="S134" s="324"/>
+      <c r="T134" s="324"/>
+      <c r="U134" s="324"/>
+      <c r="V134" s="324"/>
     </row>
     <row r="135" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B135" s="439"/>
-      <c r="C135" s="325"/>
-      <c r="D135" s="325"/>
-      <c r="E135" s="325"/>
-      <c r="F135" s="325"/>
-      <c r="G135" s="325"/>
-      <c r="H135" s="325"/>
-      <c r="I135" s="325"/>
-      <c r="J135" s="325"/>
-      <c r="K135" s="325"/>
-      <c r="L135" s="325"/>
-      <c r="M135" s="325"/>
-      <c r="N135" s="325"/>
-      <c r="O135" s="325"/>
-      <c r="P135" s="325"/>
-      <c r="Q135" s="325"/>
-      <c r="R135" s="325"/>
-      <c r="S135" s="325"/>
-      <c r="T135" s="325"/>
-      <c r="U135" s="325"/>
-      <c r="V135" s="325"/>
+      <c r="B135" s="438"/>
+      <c r="C135" s="324"/>
+      <c r="D135" s="324"/>
+      <c r="E135" s="324"/>
+      <c r="F135" s="324"/>
+      <c r="G135" s="324"/>
+      <c r="H135" s="324"/>
+      <c r="I135" s="324"/>
+      <c r="J135" s="324"/>
+      <c r="K135" s="324"/>
+      <c r="L135" s="324"/>
+      <c r="M135" s="324"/>
+      <c r="N135" s="324"/>
+      <c r="O135" s="324"/>
+      <c r="P135" s="324"/>
+      <c r="Q135" s="324"/>
+      <c r="R135" s="324"/>
+      <c r="S135" s="324"/>
+      <c r="T135" s="324"/>
+      <c r="U135" s="324"/>
+      <c r="V135" s="324"/>
     </row>
     <row r="136" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B136" s="325"/>
-      <c r="C136" s="325"/>
-      <c r="D136" s="325"/>
-      <c r="E136" s="325"/>
-      <c r="F136" s="325"/>
-      <c r="G136" s="325"/>
-      <c r="H136" s="325"/>
-      <c r="I136" s="325"/>
-      <c r="J136" s="325"/>
-      <c r="K136" s="325"/>
-      <c r="L136" s="325"/>
-      <c r="M136" s="325"/>
-      <c r="N136" s="325"/>
-      <c r="O136" s="325"/>
-      <c r="P136" s="325"/>
-      <c r="Q136" s="325"/>
-      <c r="R136" s="325"/>
-      <c r="S136" s="325"/>
-      <c r="T136" s="325"/>
-      <c r="U136" s="325"/>
-      <c r="V136" s="325"/>
+      <c r="B136" s="324"/>
+      <c r="C136" s="324"/>
+      <c r="D136" s="324"/>
+      <c r="E136" s="324"/>
+      <c r="F136" s="324"/>
+      <c r="G136" s="324"/>
+      <c r="H136" s="324"/>
+      <c r="I136" s="324"/>
+      <c r="J136" s="324"/>
+      <c r="K136" s="324"/>
+      <c r="L136" s="324"/>
+      <c r="M136" s="324"/>
+      <c r="N136" s="324"/>
+      <c r="O136" s="324"/>
+      <c r="P136" s="324"/>
+      <c r="Q136" s="324"/>
+      <c r="R136" s="324"/>
+      <c r="S136" s="324"/>
+      <c r="T136" s="324"/>
+      <c r="U136" s="324"/>
+      <c r="V136" s="324"/>
     </row>
     <row r="137" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B137" s="325"/>
-      <c r="C137" s="325"/>
-      <c r="D137" s="440"/>
-      <c r="E137" s="440"/>
-      <c r="F137" s="434"/>
-      <c r="G137" s="434"/>
-      <c r="H137" s="384"/>
-      <c r="I137" s="325"/>
-      <c r="J137" s="384"/>
-      <c r="K137" s="384"/>
-      <c r="L137" s="325"/>
-      <c r="M137" s="384"/>
-      <c r="N137" s="384"/>
-      <c r="O137" s="325"/>
-      <c r="P137" s="384"/>
-      <c r="Q137" s="384"/>
-      <c r="R137" s="325"/>
-      <c r="S137" s="384"/>
-      <c r="T137" s="384"/>
-      <c r="U137" s="325"/>
-      <c r="V137" s="325"/>
+      <c r="B137" s="324"/>
+      <c r="C137" s="324"/>
+      <c r="D137" s="439"/>
+      <c r="E137" s="439"/>
+      <c r="F137" s="433"/>
+      <c r="G137" s="433"/>
+      <c r="H137" s="383"/>
+      <c r="I137" s="324"/>
+      <c r="J137" s="383"/>
+      <c r="K137" s="383"/>
+      <c r="L137" s="324"/>
+      <c r="M137" s="383"/>
+      <c r="N137" s="383"/>
+      <c r="O137" s="324"/>
+      <c r="P137" s="383"/>
+      <c r="Q137" s="383"/>
+      <c r="R137" s="324"/>
+      <c r="S137" s="383"/>
+      <c r="T137" s="383"/>
+      <c r="U137" s="324"/>
+      <c r="V137" s="324"/>
     </row>
     <row r="138" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B138" s="325"/>
-      <c r="C138" s="325"/>
-      <c r="D138" s="325"/>
-      <c r="E138" s="438"/>
-      <c r="F138" s="325"/>
-      <c r="G138" s="325"/>
-      <c r="H138" s="325"/>
-      <c r="I138" s="325"/>
-      <c r="J138" s="325"/>
-      <c r="K138" s="325"/>
-      <c r="L138" s="325"/>
-      <c r="M138" s="325"/>
-      <c r="N138" s="325"/>
-      <c r="O138" s="325"/>
-      <c r="P138" s="325"/>
-      <c r="Q138" s="325"/>
-      <c r="R138" s="325"/>
-      <c r="S138" s="325"/>
-      <c r="T138" s="325"/>
-      <c r="U138" s="325"/>
-      <c r="V138" s="325"/>
+      <c r="B138" s="324"/>
+      <c r="C138" s="324"/>
+      <c r="D138" s="324"/>
+      <c r="E138" s="437"/>
+      <c r="F138" s="324"/>
+      <c r="G138" s="324"/>
+      <c r="H138" s="324"/>
+      <c r="I138" s="324"/>
+      <c r="J138" s="324"/>
+      <c r="K138" s="324"/>
+      <c r="L138" s="324"/>
+      <c r="M138" s="324"/>
+      <c r="N138" s="324"/>
+      <c r="O138" s="324"/>
+      <c r="P138" s="324"/>
+      <c r="Q138" s="324"/>
+      <c r="R138" s="324"/>
+      <c r="S138" s="324"/>
+      <c r="T138" s="324"/>
+      <c r="U138" s="324"/>
+      <c r="V138" s="324"/>
     </row>
     <row r="139" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B139" s="325"/>
-      <c r="C139" s="325"/>
-      <c r="D139" s="325"/>
-      <c r="E139" s="438"/>
-      <c r="F139" s="325"/>
-      <c r="G139" s="325"/>
-      <c r="H139" s="325"/>
-      <c r="I139" s="325"/>
-      <c r="J139" s="325"/>
-      <c r="K139" s="325"/>
-      <c r="L139" s="325"/>
-      <c r="M139" s="325"/>
-      <c r="N139" s="325"/>
-      <c r="O139" s="325"/>
-      <c r="P139" s="325"/>
-      <c r="Q139" s="325"/>
-      <c r="R139" s="325"/>
-      <c r="S139" s="325"/>
-      <c r="T139" s="325"/>
-      <c r="U139" s="325"/>
-      <c r="V139" s="325"/>
+      <c r="B139" s="324"/>
+      <c r="C139" s="324"/>
+      <c r="D139" s="324"/>
+      <c r="E139" s="437"/>
+      <c r="F139" s="324"/>
+      <c r="G139" s="324"/>
+      <c r="H139" s="324"/>
+      <c r="I139" s="324"/>
+      <c r="J139" s="324"/>
+      <c r="K139" s="324"/>
+      <c r="L139" s="324"/>
+      <c r="M139" s="324"/>
+      <c r="N139" s="324"/>
+      <c r="O139" s="324"/>
+      <c r="P139" s="324"/>
+      <c r="Q139" s="324"/>
+      <c r="R139" s="324"/>
+      <c r="S139" s="324"/>
+      <c r="T139" s="324"/>
+      <c r="U139" s="324"/>
+      <c r="V139" s="324"/>
     </row>
     <row r="140" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B140" s="325"/>
-      <c r="C140" s="325"/>
-      <c r="D140" s="325"/>
-      <c r="E140" s="438"/>
-      <c r="F140" s="325"/>
-      <c r="G140" s="325"/>
-      <c r="H140" s="325"/>
-      <c r="I140" s="325"/>
-      <c r="J140" s="325"/>
-      <c r="K140" s="325"/>
-      <c r="L140" s="325"/>
-      <c r="M140" s="325"/>
-      <c r="N140" s="325"/>
-      <c r="O140" s="325"/>
-      <c r="P140" s="325"/>
-      <c r="Q140" s="325"/>
-      <c r="R140" s="325"/>
-      <c r="S140" s="325"/>
-      <c r="T140" s="325"/>
-      <c r="U140" s="325"/>
-      <c r="V140" s="325"/>
+      <c r="B140" s="324"/>
+      <c r="C140" s="324"/>
+      <c r="D140" s="324"/>
+      <c r="E140" s="437"/>
+      <c r="F140" s="324"/>
+      <c r="G140" s="324"/>
+      <c r="H140" s="324"/>
+      <c r="I140" s="324"/>
+      <c r="J140" s="324"/>
+      <c r="K140" s="324"/>
+      <c r="L140" s="324"/>
+      <c r="M140" s="324"/>
+      <c r="N140" s="324"/>
+      <c r="O140" s="324"/>
+      <c r="P140" s="324"/>
+      <c r="Q140" s="324"/>
+      <c r="R140" s="324"/>
+      <c r="S140" s="324"/>
+      <c r="T140" s="324"/>
+      <c r="U140" s="324"/>
+      <c r="V140" s="324"/>
     </row>
     <row r="141" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B141" s="325"/>
-      <c r="C141" s="325"/>
-      <c r="D141" s="325"/>
-      <c r="E141" s="438"/>
-      <c r="F141" s="325"/>
-      <c r="G141" s="325"/>
-      <c r="H141" s="325"/>
-      <c r="I141" s="325"/>
-      <c r="J141" s="325"/>
-      <c r="K141" s="325"/>
-      <c r="L141" s="325"/>
-      <c r="M141" s="325"/>
-      <c r="N141" s="325"/>
-      <c r="O141" s="325"/>
-      <c r="P141" s="325"/>
-      <c r="Q141" s="325"/>
-      <c r="R141" s="325"/>
-      <c r="S141" s="325"/>
-      <c r="T141" s="325"/>
-      <c r="U141" s="325"/>
-      <c r="V141" s="325"/>
+      <c r="B141" s="324"/>
+      <c r="C141" s="324"/>
+      <c r="D141" s="324"/>
+      <c r="E141" s="437"/>
+      <c r="F141" s="324"/>
+      <c r="G141" s="324"/>
+      <c r="H141" s="324"/>
+      <c r="I141" s="324"/>
+      <c r="J141" s="324"/>
+      <c r="K141" s="324"/>
+      <c r="L141" s="324"/>
+      <c r="M141" s="324"/>
+      <c r="N141" s="324"/>
+      <c r="O141" s="324"/>
+      <c r="P141" s="324"/>
+      <c r="Q141" s="324"/>
+      <c r="R141" s="324"/>
+      <c r="S141" s="324"/>
+      <c r="T141" s="324"/>
+      <c r="U141" s="324"/>
+      <c r="V141" s="324"/>
     </row>
     <row r="142" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B142" s="325"/>
-      <c r="C142" s="325"/>
-      <c r="D142" s="325"/>
-      <c r="E142" s="438"/>
-      <c r="F142" s="325"/>
-      <c r="G142" s="325"/>
-      <c r="H142" s="325"/>
-      <c r="I142" s="325"/>
-      <c r="J142" s="325"/>
-      <c r="K142" s="325"/>
-      <c r="L142" s="325"/>
-      <c r="M142" s="325"/>
-      <c r="N142" s="325"/>
-      <c r="O142" s="325"/>
-      <c r="P142" s="325"/>
-      <c r="Q142" s="325"/>
-      <c r="R142" s="325"/>
-      <c r="S142" s="325"/>
-      <c r="T142" s="325"/>
-      <c r="U142" s="325"/>
-      <c r="V142" s="325"/>
+      <c r="B142" s="324"/>
+      <c r="C142" s="324"/>
+      <c r="D142" s="324"/>
+      <c r="E142" s="437"/>
+      <c r="F142" s="324"/>
+      <c r="G142" s="324"/>
+      <c r="H142" s="324"/>
+      <c r="I142" s="324"/>
+      <c r="J142" s="324"/>
+      <c r="K142" s="324"/>
+      <c r="L142" s="324"/>
+      <c r="M142" s="324"/>
+      <c r="N142" s="324"/>
+      <c r="O142" s="324"/>
+      <c r="P142" s="324"/>
+      <c r="Q142" s="324"/>
+      <c r="R142" s="324"/>
+      <c r="S142" s="324"/>
+      <c r="T142" s="324"/>
+      <c r="U142" s="324"/>
+      <c r="V142" s="324"/>
     </row>
     <row r="143" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B143" s="325"/>
-      <c r="C143" s="325"/>
-      <c r="D143" s="325"/>
-      <c r="E143" s="438"/>
-      <c r="F143" s="325"/>
-      <c r="G143" s="325"/>
-      <c r="H143" s="325"/>
-      <c r="I143" s="325"/>
-      <c r="J143" s="325"/>
-      <c r="K143" s="325"/>
-      <c r="L143" s="325"/>
-      <c r="M143" s="325"/>
-      <c r="N143" s="325"/>
-      <c r="O143" s="325"/>
-      <c r="P143" s="325"/>
-      <c r="Q143" s="325"/>
-      <c r="R143" s="325"/>
-      <c r="S143" s="325"/>
-      <c r="T143" s="325"/>
-      <c r="U143" s="325"/>
-      <c r="V143" s="325"/>
+      <c r="B143" s="324"/>
+      <c r="C143" s="324"/>
+      <c r="D143" s="324"/>
+      <c r="E143" s="437"/>
+      <c r="F143" s="324"/>
+      <c r="G143" s="324"/>
+      <c r="H143" s="324"/>
+      <c r="I143" s="324"/>
+      <c r="J143" s="324"/>
+      <c r="K143" s="324"/>
+      <c r="L143" s="324"/>
+      <c r="M143" s="324"/>
+      <c r="N143" s="324"/>
+      <c r="O143" s="324"/>
+      <c r="P143" s="324"/>
+      <c r="Q143" s="324"/>
+      <c r="R143" s="324"/>
+      <c r="S143" s="324"/>
+      <c r="T143" s="324"/>
+      <c r="U143" s="324"/>
+      <c r="V143" s="324"/>
     </row>
     <row r="144" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B144" s="325"/>
-      <c r="C144" s="325"/>
-      <c r="D144" s="325"/>
-      <c r="E144" s="438"/>
-      <c r="F144" s="325"/>
-      <c r="G144" s="325"/>
-      <c r="H144" s="325"/>
-      <c r="I144" s="325"/>
-      <c r="J144" s="325"/>
-      <c r="K144" s="325"/>
-      <c r="L144" s="325"/>
-      <c r="M144" s="325"/>
-      <c r="N144" s="325"/>
-      <c r="O144" s="325"/>
-      <c r="P144" s="325"/>
-      <c r="Q144" s="325"/>
-      <c r="R144" s="325"/>
-      <c r="S144" s="325"/>
-      <c r="T144" s="325"/>
-      <c r="U144" s="325"/>
-      <c r="V144" s="325"/>
+      <c r="B144" s="324"/>
+      <c r="C144" s="324"/>
+      <c r="D144" s="324"/>
+      <c r="E144" s="437"/>
+      <c r="F144" s="324"/>
+      <c r="G144" s="324"/>
+      <c r="H144" s="324"/>
+      <c r="I144" s="324"/>
+      <c r="J144" s="324"/>
+      <c r="K144" s="324"/>
+      <c r="L144" s="324"/>
+      <c r="M144" s="324"/>
+      <c r="N144" s="324"/>
+      <c r="O144" s="324"/>
+      <c r="P144" s="324"/>
+      <c r="Q144" s="324"/>
+      <c r="R144" s="324"/>
+      <c r="S144" s="324"/>
+      <c r="T144" s="324"/>
+      <c r="U144" s="324"/>
+      <c r="V144" s="324"/>
     </row>
     <row r="145" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B145" s="325"/>
-      <c r="C145" s="325"/>
-      <c r="D145" s="325"/>
-      <c r="E145" s="438"/>
-      <c r="F145" s="325"/>
-      <c r="G145" s="325"/>
-      <c r="H145" s="325"/>
-      <c r="I145" s="325"/>
-      <c r="J145" s="325"/>
-      <c r="K145" s="325"/>
-      <c r="L145" s="325"/>
-      <c r="M145" s="325"/>
-      <c r="N145" s="325"/>
-      <c r="O145" s="325"/>
-      <c r="P145" s="325"/>
-      <c r="Q145" s="325"/>
-      <c r="R145" s="325"/>
-      <c r="S145" s="325"/>
-      <c r="T145" s="325"/>
-      <c r="U145" s="325"/>
-      <c r="V145" s="325"/>
+      <c r="B145" s="324"/>
+      <c r="C145" s="324"/>
+      <c r="D145" s="324"/>
+      <c r="E145" s="437"/>
+      <c r="F145" s="324"/>
+      <c r="G145" s="324"/>
+      <c r="H145" s="324"/>
+      <c r="I145" s="324"/>
+      <c r="J145" s="324"/>
+      <c r="K145" s="324"/>
+      <c r="L145" s="324"/>
+      <c r="M145" s="324"/>
+      <c r="N145" s="324"/>
+      <c r="O145" s="324"/>
+      <c r="P145" s="324"/>
+      <c r="Q145" s="324"/>
+      <c r="R145" s="324"/>
+      <c r="S145" s="324"/>
+      <c r="T145" s="324"/>
+      <c r="U145" s="324"/>
+      <c r="V145" s="324"/>
     </row>
     <row r="146" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B146" s="325"/>
-      <c r="C146" s="325"/>
-      <c r="D146" s="325"/>
-      <c r="E146" s="438"/>
-      <c r="F146" s="325"/>
-      <c r="G146" s="325"/>
-      <c r="H146" s="325"/>
-      <c r="I146" s="325"/>
-      <c r="J146" s="325"/>
-      <c r="K146" s="325"/>
-      <c r="L146" s="325"/>
-      <c r="M146" s="325"/>
-      <c r="N146" s="325"/>
-      <c r="O146" s="325"/>
-      <c r="P146" s="325"/>
-      <c r="Q146" s="325"/>
-      <c r="R146" s="325"/>
-      <c r="S146" s="325"/>
-      <c r="T146" s="325"/>
-      <c r="U146" s="325"/>
-      <c r="V146" s="325"/>
+      <c r="B146" s="324"/>
+      <c r="C146" s="324"/>
+      <c r="D146" s="324"/>
+      <c r="E146" s="437"/>
+      <c r="F146" s="324"/>
+      <c r="G146" s="324"/>
+      <c r="H146" s="324"/>
+      <c r="I146" s="324"/>
+      <c r="J146" s="324"/>
+      <c r="K146" s="324"/>
+      <c r="L146" s="324"/>
+      <c r="M146" s="324"/>
+      <c r="N146" s="324"/>
+      <c r="O146" s="324"/>
+      <c r="P146" s="324"/>
+      <c r="Q146" s="324"/>
+      <c r="R146" s="324"/>
+      <c r="S146" s="324"/>
+      <c r="T146" s="324"/>
+      <c r="U146" s="324"/>
+      <c r="V146" s="324"/>
     </row>
     <row r="147" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B147" s="325"/>
-      <c r="C147" s="325"/>
-      <c r="D147" s="325"/>
-      <c r="E147" s="438"/>
-      <c r="F147" s="325"/>
-      <c r="G147" s="325"/>
-      <c r="H147" s="325"/>
-      <c r="I147" s="325"/>
-      <c r="J147" s="325"/>
-      <c r="K147" s="325"/>
-      <c r="L147" s="325"/>
-      <c r="M147" s="325"/>
-      <c r="N147" s="325"/>
-      <c r="O147" s="325"/>
-      <c r="P147" s="325"/>
-      <c r="Q147" s="325"/>
-      <c r="R147" s="325"/>
-      <c r="S147" s="325"/>
-      <c r="T147" s="325"/>
-      <c r="U147" s="325"/>
-      <c r="V147" s="325"/>
+      <c r="B147" s="324"/>
+      <c r="C147" s="324"/>
+      <c r="D147" s="324"/>
+      <c r="E147" s="437"/>
+      <c r="F147" s="324"/>
+      <c r="G147" s="324"/>
+      <c r="H147" s="324"/>
+      <c r="I147" s="324"/>
+      <c r="J147" s="324"/>
+      <c r="K147" s="324"/>
+      <c r="L147" s="324"/>
+      <c r="M147" s="324"/>
+      <c r="N147" s="324"/>
+      <c r="O147" s="324"/>
+      <c r="P147" s="324"/>
+      <c r="Q147" s="324"/>
+      <c r="R147" s="324"/>
+      <c r="S147" s="324"/>
+      <c r="T147" s="324"/>
+      <c r="U147" s="324"/>
+      <c r="V147" s="324"/>
     </row>
     <row r="148" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B148" s="325"/>
-      <c r="C148" s="325"/>
-      <c r="D148" s="325"/>
-      <c r="E148" s="438"/>
-      <c r="F148" s="325"/>
-      <c r="G148" s="325"/>
-      <c r="H148" s="325"/>
-      <c r="I148" s="325"/>
-      <c r="J148" s="325"/>
-      <c r="K148" s="325"/>
-      <c r="L148" s="325"/>
-      <c r="M148" s="325"/>
-      <c r="N148" s="325"/>
-      <c r="O148" s="325"/>
-      <c r="P148" s="325"/>
-      <c r="Q148" s="325"/>
-      <c r="R148" s="325"/>
-      <c r="S148" s="325"/>
-      <c r="T148" s="325"/>
-      <c r="U148" s="325"/>
-      <c r="V148" s="325"/>
+      <c r="B148" s="324"/>
+      <c r="C148" s="324"/>
+      <c r="D148" s="324"/>
+      <c r="E148" s="437"/>
+      <c r="F148" s="324"/>
+      <c r="G148" s="324"/>
+      <c r="H148" s="324"/>
+      <c r="I148" s="324"/>
+      <c r="J148" s="324"/>
+      <c r="K148" s="324"/>
+      <c r="L148" s="324"/>
+      <c r="M148" s="324"/>
+      <c r="N148" s="324"/>
+      <c r="O148" s="324"/>
+      <c r="P148" s="324"/>
+      <c r="Q148" s="324"/>
+      <c r="R148" s="324"/>
+      <c r="S148" s="324"/>
+      <c r="T148" s="324"/>
+      <c r="U148" s="324"/>
+      <c r="V148" s="324"/>
     </row>
     <row r="149" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B149" s="325"/>
-      <c r="C149" s="325"/>
-      <c r="D149" s="325"/>
-      <c r="E149" s="438"/>
-      <c r="F149" s="325"/>
-      <c r="G149" s="325"/>
-      <c r="H149" s="325"/>
-      <c r="I149" s="325"/>
-      <c r="J149" s="325"/>
-      <c r="K149" s="325"/>
-      <c r="L149" s="325"/>
-      <c r="M149" s="325"/>
-      <c r="N149" s="325"/>
-      <c r="O149" s="325"/>
-      <c r="P149" s="325"/>
-      <c r="Q149" s="325"/>
-      <c r="R149" s="325"/>
-      <c r="S149" s="325"/>
-      <c r="T149" s="325"/>
-      <c r="U149" s="325"/>
-      <c r="V149" s="325"/>
+      <c r="B149" s="324"/>
+      <c r="C149" s="324"/>
+      <c r="D149" s="324"/>
+      <c r="E149" s="437"/>
+      <c r="F149" s="324"/>
+      <c r="G149" s="324"/>
+      <c r="H149" s="324"/>
+      <c r="I149" s="324"/>
+      <c r="J149" s="324"/>
+      <c r="K149" s="324"/>
+      <c r="L149" s="324"/>
+      <c r="M149" s="324"/>
+      <c r="N149" s="324"/>
+      <c r="O149" s="324"/>
+      <c r="P149" s="324"/>
+      <c r="Q149" s="324"/>
+      <c r="R149" s="324"/>
+      <c r="S149" s="324"/>
+      <c r="T149" s="324"/>
+      <c r="U149" s="324"/>
+      <c r="V149" s="324"/>
     </row>
     <row r="150" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B150" s="325"/>
-      <c r="C150" s="325"/>
-      <c r="D150" s="325"/>
-      <c r="E150" s="438"/>
-      <c r="F150" s="325"/>
-      <c r="G150" s="325"/>
-      <c r="H150" s="325"/>
-      <c r="I150" s="325"/>
-      <c r="J150" s="325"/>
-      <c r="K150" s="325"/>
-      <c r="L150" s="325"/>
-      <c r="M150" s="325"/>
-      <c r="N150" s="325"/>
-      <c r="O150" s="325"/>
-      <c r="P150" s="325"/>
-      <c r="Q150" s="325"/>
-      <c r="R150" s="325"/>
-      <c r="S150" s="325"/>
-      <c r="T150" s="325"/>
-      <c r="U150" s="325"/>
-      <c r="V150" s="325"/>
+      <c r="B150" s="324"/>
+      <c r="C150" s="324"/>
+      <c r="D150" s="324"/>
+      <c r="E150" s="437"/>
+      <c r="F150" s="324"/>
+      <c r="G150" s="324"/>
+      <c r="H150" s="324"/>
+      <c r="I150" s="324"/>
+      <c r="J150" s="324"/>
+      <c r="K150" s="324"/>
+      <c r="L150" s="324"/>
+      <c r="M150" s="324"/>
+      <c r="N150" s="324"/>
+      <c r="O150" s="324"/>
+      <c r="P150" s="324"/>
+      <c r="Q150" s="324"/>
+      <c r="R150" s="324"/>
+      <c r="S150" s="324"/>
+      <c r="T150" s="324"/>
+      <c r="U150" s="324"/>
+      <c r="V150" s="324"/>
     </row>
     <row r="151" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B151" s="325"/>
-      <c r="C151" s="325"/>
-      <c r="D151" s="325"/>
-      <c r="E151" s="438"/>
-      <c r="F151" s="325"/>
-      <c r="G151" s="325"/>
-      <c r="H151" s="325"/>
-      <c r="I151" s="325"/>
-      <c r="J151" s="325"/>
-      <c r="K151" s="325"/>
-      <c r="L151" s="325"/>
-      <c r="M151" s="325"/>
-      <c r="N151" s="325"/>
-      <c r="O151" s="325"/>
-      <c r="P151" s="325"/>
-      <c r="Q151" s="325"/>
-      <c r="R151" s="325"/>
-      <c r="S151" s="325"/>
-      <c r="T151" s="325"/>
-      <c r="U151" s="325"/>
-      <c r="V151" s="325"/>
+      <c r="B151" s="324"/>
+      <c r="C151" s="324"/>
+      <c r="D151" s="324"/>
+      <c r="E151" s="437"/>
+      <c r="F151" s="324"/>
+      <c r="G151" s="324"/>
+      <c r="H151" s="324"/>
+      <c r="I151" s="324"/>
+      <c r="J151" s="324"/>
+      <c r="K151" s="324"/>
+      <c r="L151" s="324"/>
+      <c r="M151" s="324"/>
+      <c r="N151" s="324"/>
+      <c r="O151" s="324"/>
+      <c r="P151" s="324"/>
+      <c r="Q151" s="324"/>
+      <c r="R151" s="324"/>
+      <c r="S151" s="324"/>
+      <c r="T151" s="324"/>
+      <c r="U151" s="324"/>
+      <c r="V151" s="324"/>
     </row>
     <row r="152" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B152" s="325"/>
-      <c r="C152" s="325"/>
-      <c r="D152" s="325"/>
-      <c r="E152" s="438"/>
-      <c r="F152" s="325"/>
-      <c r="G152" s="325"/>
-      <c r="H152" s="325"/>
-      <c r="I152" s="325"/>
-      <c r="J152" s="325"/>
-      <c r="K152" s="325"/>
-      <c r="L152" s="325"/>
-      <c r="M152" s="325"/>
-      <c r="N152" s="325"/>
-      <c r="O152" s="325"/>
-      <c r="P152" s="325"/>
-      <c r="Q152" s="325"/>
-      <c r="R152" s="325"/>
-      <c r="S152" s="325"/>
-      <c r="T152" s="325"/>
-      <c r="U152" s="325"/>
-      <c r="V152" s="325"/>
+      <c r="B152" s="324"/>
+      <c r="C152" s="324"/>
+      <c r="D152" s="324"/>
+      <c r="E152" s="437"/>
+      <c r="F152" s="324"/>
+      <c r="G152" s="324"/>
+      <c r="H152" s="324"/>
+      <c r="I152" s="324"/>
+      <c r="J152" s="324"/>
+      <c r="K152" s="324"/>
+      <c r="L152" s="324"/>
+      <c r="M152" s="324"/>
+      <c r="N152" s="324"/>
+      <c r="O152" s="324"/>
+      <c r="P152" s="324"/>
+      <c r="Q152" s="324"/>
+      <c r="R152" s="324"/>
+      <c r="S152" s="324"/>
+      <c r="T152" s="324"/>
+      <c r="U152" s="324"/>
+      <c r="V152" s="324"/>
     </row>
     <row r="153" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B153" s="325"/>
-      <c r="C153" s="325"/>
-      <c r="D153" s="325"/>
-      <c r="E153" s="325"/>
-      <c r="F153" s="325"/>
-      <c r="G153" s="325"/>
-      <c r="H153" s="325"/>
-      <c r="I153" s="325"/>
-      <c r="J153" s="325"/>
-      <c r="K153" s="325"/>
-      <c r="L153" s="325"/>
-      <c r="M153" s="325"/>
-      <c r="N153" s="325"/>
-      <c r="O153" s="325"/>
-      <c r="P153" s="325"/>
-      <c r="Q153" s="325"/>
-      <c r="R153" s="325"/>
-      <c r="S153" s="325"/>
-      <c r="T153" s="325"/>
-      <c r="U153" s="325"/>
-      <c r="V153" s="325"/>
+      <c r="B153" s="324"/>
+      <c r="C153" s="324"/>
+      <c r="D153" s="324"/>
+      <c r="E153" s="324"/>
+      <c r="F153" s="324"/>
+      <c r="G153" s="324"/>
+      <c r="H153" s="324"/>
+      <c r="I153" s="324"/>
+      <c r="J153" s="324"/>
+      <c r="K153" s="324"/>
+      <c r="L153" s="324"/>
+      <c r="M153" s="324"/>
+      <c r="N153" s="324"/>
+      <c r="O153" s="324"/>
+      <c r="P153" s="324"/>
+      <c r="Q153" s="324"/>
+      <c r="R153" s="324"/>
+      <c r="S153" s="324"/>
+      <c r="T153" s="324"/>
+      <c r="U153" s="324"/>
+      <c r="V153" s="324"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -61580,13 +61904,2951 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385E9370-6A8C-4EA4-8353-72ABD4D2014D}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:V75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V41" sqref="V41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="16" max="16" width="21.88671875" customWidth="1"/>
+    <col min="17" max="17" width="13.109375" customWidth="1"/>
+    <col min="18" max="18" width="12.21875" customWidth="1"/>
+    <col min="19" max="19" width="12.77734375" customWidth="1"/>
+    <col min="20" max="20" width="11.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="445" t="s">
+        <v>519</v>
+      </c>
+      <c r="C2" s="505">
+        <v>42369</v>
+      </c>
+      <c r="D2" s="505">
+        <v>42735</v>
+      </c>
+      <c r="E2" s="505">
+        <v>43100</v>
+      </c>
+      <c r="F2" s="506">
+        <v>43465</v>
+      </c>
+      <c r="G2" s="506">
+        <v>43830</v>
+      </c>
+      <c r="I2" s="445" t="s">
+        <v>520</v>
+      </c>
+      <c r="J2" s="505">
+        <v>42369</v>
+      </c>
+      <c r="K2" s="505">
+        <v>42735</v>
+      </c>
+      <c r="L2" s="505">
+        <v>43100</v>
+      </c>
+      <c r="M2" s="506">
+        <v>43465</v>
+      </c>
+      <c r="N2" s="506">
+        <v>43830</v>
+      </c>
+      <c r="P2" s="445" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q2" s="505">
+        <v>42735</v>
+      </c>
+      <c r="R2" s="505">
+        <v>43100</v>
+      </c>
+      <c r="S2" s="506">
+        <v>43465</v>
+      </c>
+      <c r="T2" s="506">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B3" s="446" t="s">
+        <v>522</v>
+      </c>
+      <c r="C3" s="449">
+        <v>5067</v>
+      </c>
+      <c r="D3" s="449">
+        <v>5129</v>
+      </c>
+      <c r="E3" s="449">
+        <v>4606</v>
+      </c>
+      <c r="F3" s="449">
+        <v>4620</v>
+      </c>
+      <c r="G3" s="454">
+        <v>4869</v>
+      </c>
+      <c r="I3" s="487" t="s">
+        <v>540</v>
+      </c>
+      <c r="J3" s="488">
+        <v>4921</v>
+      </c>
+      <c r="K3" s="488">
+        <v>4860</v>
+      </c>
+      <c r="L3" s="488">
+        <v>5796</v>
+      </c>
+      <c r="M3" s="488">
+        <v>6494</v>
+      </c>
+      <c r="N3" s="489">
+        <v>7324</v>
+      </c>
+      <c r="P3" s="448" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q3" s="450">
+        <v>443</v>
+      </c>
+      <c r="R3" s="450">
+        <v>710</v>
+      </c>
+      <c r="S3" s="450">
+        <v>588</v>
+      </c>
+      <c r="T3" s="477">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B4" s="446" t="s">
+        <v>523</v>
+      </c>
+      <c r="C4" s="449">
+        <v>1348</v>
+      </c>
+      <c r="D4" s="449">
+        <v>1704</v>
+      </c>
+      <c r="E4" s="449">
+        <v>1863</v>
+      </c>
+      <c r="F4" s="449">
+        <v>2302</v>
+      </c>
+      <c r="G4" s="454">
+        <v>2379</v>
+      </c>
+      <c r="I4" s="446"/>
+      <c r="J4" s="449"/>
+      <c r="K4" s="449"/>
+      <c r="L4" s="449"/>
+      <c r="M4" s="449"/>
+      <c r="N4" s="454"/>
+      <c r="P4" s="446" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q4" s="449">
+        <f>K16</f>
+        <v>-122</v>
+      </c>
+      <c r="R4" s="449">
+        <f t="shared" ref="R4:T4" si="0">L16</f>
+        <v>-192</v>
+      </c>
+      <c r="S4" s="449">
+        <f t="shared" si="0"/>
+        <v>-157</v>
+      </c>
+      <c r="T4" s="454">
+        <f t="shared" si="0"/>
+        <v>-189</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B5" s="447" t="s">
+        <v>524</v>
+      </c>
+      <c r="C5" s="455">
+        <v>137</v>
+      </c>
+      <c r="D5" s="451">
+        <v>136</v>
+      </c>
+      <c r="E5" s="451">
+        <v>107</v>
+      </c>
+      <c r="F5" s="451">
+        <v>45</v>
+      </c>
+      <c r="G5" s="456">
+        <v>65</v>
+      </c>
+      <c r="I5" s="446" t="s">
+        <v>541</v>
+      </c>
+      <c r="J5" s="449">
+        <v>-1244</v>
+      </c>
+      <c r="K5" s="449">
+        <v>-3102</v>
+      </c>
+      <c r="L5" s="449">
+        <v>-3962</v>
+      </c>
+      <c r="M5" s="449">
+        <v>-4598</v>
+      </c>
+      <c r="N5" s="454">
+        <v>-5390</v>
+      </c>
+      <c r="P5" s="447" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q5" s="457">
+        <f>-K13*(K16/K14)</f>
+        <v>-39.814371257485028</v>
+      </c>
+      <c r="R5" s="457">
+        <f t="shared" ref="R5:T5" si="1">-L13*(L16/L14)</f>
+        <v>-44.666666666666664</v>
+      </c>
+      <c r="S5" s="457">
+        <f t="shared" si="1"/>
+        <v>-31.400000000000002</v>
+      </c>
+      <c r="T5" s="493">
+        <f t="shared" si="1"/>
+        <v>-34.481927710843372</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B6" s="448" t="s">
+        <v>525</v>
+      </c>
+      <c r="C6" s="450">
+        <f>SUM(C3:C5)</f>
+        <v>6552</v>
+      </c>
+      <c r="D6" s="450">
+        <f>SUM(D3:D5)</f>
+        <v>6969</v>
+      </c>
+      <c r="E6" s="450">
+        <f t="shared" ref="E6:G6" si="2">SUM(E3:E5)</f>
+        <v>6576</v>
+      </c>
+      <c r="F6" s="450">
+        <f t="shared" si="2"/>
+        <v>6967</v>
+      </c>
+      <c r="G6" s="477">
+        <f t="shared" si="2"/>
+        <v>7313</v>
+      </c>
+      <c r="I6" s="447" t="s">
+        <v>542</v>
+      </c>
+      <c r="J6" s="451">
+        <v>-629</v>
+      </c>
+      <c r="K6" s="451">
+        <v>-596</v>
+      </c>
+      <c r="L6" s="451">
+        <v>-635</v>
+      </c>
+      <c r="M6" s="451">
+        <v>-665</v>
+      </c>
+      <c r="N6" s="456">
+        <v>-700</v>
+      </c>
+      <c r="P6" s="448" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q6" s="494">
+        <f>Q3+Q4+Q5</f>
+        <v>281.18562874251495</v>
+      </c>
+      <c r="R6" s="494">
+        <f t="shared" ref="R6:T6" si="3">R3+R4+R5</f>
+        <v>473.33333333333331</v>
+      </c>
+      <c r="S6" s="494">
+        <f t="shared" si="3"/>
+        <v>399.6</v>
+      </c>
+      <c r="T6" s="495">
+        <f t="shared" si="3"/>
+        <v>463.51807228915663</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B7" s="446"/>
+      <c r="C7" s="449"/>
+      <c r="D7" s="449"/>
+      <c r="E7" s="449"/>
+      <c r="F7" s="449"/>
+      <c r="G7" s="454"/>
+      <c r="I7" s="448" t="s">
+        <v>543</v>
+      </c>
+      <c r="J7" s="450">
+        <f>J3+J5+J6</f>
+        <v>3048</v>
+      </c>
+      <c r="K7" s="450">
+        <f t="shared" ref="K7:N7" si="4">K3+K5+K6</f>
+        <v>1162</v>
+      </c>
+      <c r="L7" s="450">
+        <f t="shared" si="4"/>
+        <v>1199</v>
+      </c>
+      <c r="M7" s="450">
+        <f t="shared" si="4"/>
+        <v>1231</v>
+      </c>
+      <c r="N7" s="477">
+        <f t="shared" si="4"/>
+        <v>1234</v>
+      </c>
+      <c r="P7" s="446"/>
+      <c r="Q7" s="449"/>
+      <c r="R7" s="449"/>
+      <c r="S7" s="449"/>
+      <c r="T7" s="454"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B8" s="446" t="s">
+        <v>526</v>
+      </c>
+      <c r="C8" s="449">
+        <v>184</v>
+      </c>
+      <c r="D8" s="449">
+        <v>159</v>
+      </c>
+      <c r="E8" s="449">
+        <v>147</v>
+      </c>
+      <c r="F8" s="449">
+        <v>187</v>
+      </c>
+      <c r="G8" s="454">
+        <v>184</v>
+      </c>
+      <c r="I8" s="446"/>
+      <c r="J8" s="449"/>
+      <c r="K8" s="449"/>
+      <c r="L8" s="449"/>
+      <c r="M8" s="449"/>
+      <c r="N8" s="454"/>
+      <c r="P8" s="446" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q8" s="449">
+        <f>C8-D8</f>
+        <v>25</v>
+      </c>
+      <c r="R8" s="449">
+        <f t="shared" ref="R8:T10" si="5">D8-E8</f>
+        <v>12</v>
+      </c>
+      <c r="S8" s="449">
+        <f t="shared" si="5"/>
+        <v>-40</v>
+      </c>
+      <c r="T8" s="454">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B9" s="446" t="s">
+        <v>373</v>
+      </c>
+      <c r="C9" s="449">
+        <v>1485</v>
+      </c>
+      <c r="D9" s="449">
+        <v>1821</v>
+      </c>
+      <c r="E9" s="449">
+        <v>1671</v>
+      </c>
+      <c r="F9" s="449">
+        <v>1781</v>
+      </c>
+      <c r="G9" s="454">
+        <v>1852</v>
+      </c>
+      <c r="I9" s="446" t="s">
+        <v>544</v>
+      </c>
+      <c r="J9" s="449">
+        <v>-754</v>
+      </c>
+      <c r="K9" s="449">
+        <v>-648</v>
+      </c>
+      <c r="L9" s="449">
+        <v>-444</v>
+      </c>
+      <c r="M9" s="449">
+        <v>-623</v>
+      </c>
+      <c r="N9" s="454">
+        <v>-511</v>
+      </c>
+      <c r="P9" s="446" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q9" s="449">
+        <f>C9-D9</f>
+        <v>-336</v>
+      </c>
+      <c r="R9" s="449">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="S9" s="449">
+        <f t="shared" si="5"/>
+        <v>-110</v>
+      </c>
+      <c r="T9" s="454">
+        <f t="shared" si="5"/>
+        <v>-71</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B10" s="447" t="s">
+        <v>527</v>
+      </c>
+      <c r="C10" s="468">
+        <v>-1170</v>
+      </c>
+      <c r="D10" s="469">
+        <v>-1384</v>
+      </c>
+      <c r="E10" s="451">
+        <v>-1381</v>
+      </c>
+      <c r="F10" s="451">
+        <v>-1413</v>
+      </c>
+      <c r="G10" s="456">
+        <v>-1481</v>
+      </c>
+      <c r="I10" s="447" t="s">
+        <v>545</v>
+      </c>
+      <c r="J10" s="451">
+        <v>-79</v>
+      </c>
+      <c r="K10" s="451">
+        <v>-71</v>
+      </c>
+      <c r="L10" s="451">
+        <v>-45</v>
+      </c>
+      <c r="M10" s="451">
+        <v>-20</v>
+      </c>
+      <c r="N10" s="456">
+        <v>-36</v>
+      </c>
+      <c r="P10" s="447" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q10" s="469">
+        <f>C10-D10</f>
+        <v>214</v>
+      </c>
+      <c r="R10" s="469">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+      <c r="S10" s="469">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="T10" s="496">
+        <f t="shared" si="5"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B11" s="448" t="s">
+        <v>528</v>
+      </c>
+      <c r="C11" s="471">
+        <f>C8+C9+C10</f>
+        <v>499</v>
+      </c>
+      <c r="D11" s="471">
+        <f>D8+D9+D10</f>
+        <v>596</v>
+      </c>
+      <c r="E11" s="471">
+        <f t="shared" ref="E11:G11" si="6">E8+E9+E10</f>
+        <v>437</v>
+      </c>
+      <c r="F11" s="471">
+        <f t="shared" si="6"/>
+        <v>555</v>
+      </c>
+      <c r="G11" s="478">
+        <f t="shared" si="6"/>
+        <v>555</v>
+      </c>
+      <c r="I11" s="448" t="s">
+        <v>303</v>
+      </c>
+      <c r="J11" s="450">
+        <f>J7+J9+J10</f>
+        <v>2215</v>
+      </c>
+      <c r="K11" s="450">
+        <f t="shared" ref="K11:N11" si="7">K7+K9+K10</f>
+        <v>443</v>
+      </c>
+      <c r="L11" s="450">
+        <f t="shared" si="7"/>
+        <v>710</v>
+      </c>
+      <c r="M11" s="450">
+        <f t="shared" si="7"/>
+        <v>588</v>
+      </c>
+      <c r="N11" s="477">
+        <f t="shared" si="7"/>
+        <v>687</v>
+      </c>
+      <c r="P11" s="448" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q11" s="471">
+        <f>Q8+Q9+Q10</f>
+        <v>-97</v>
+      </c>
+      <c r="R11" s="471">
+        <f t="shared" ref="R11:T11" si="8">R8+R9+R10</f>
+        <v>159</v>
+      </c>
+      <c r="S11" s="471">
+        <f t="shared" si="8"/>
+        <v>-118</v>
+      </c>
+      <c r="T11" s="478">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B12" s="446"/>
+      <c r="C12" s="449"/>
+      <c r="D12" s="449"/>
+      <c r="E12" s="449"/>
+      <c r="F12" s="449"/>
+      <c r="G12" s="454"/>
+      <c r="I12" s="446"/>
+      <c r="J12" s="449"/>
+      <c r="K12" s="449"/>
+      <c r="L12" s="449"/>
+      <c r="M12" s="449"/>
+      <c r="N12" s="454"/>
+      <c r="P12" s="446"/>
+      <c r="Q12" s="449"/>
+      <c r="R12" s="449"/>
+      <c r="S12" s="449"/>
+      <c r="T12" s="454"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B13" s="446" t="s">
+        <v>529</v>
+      </c>
+      <c r="C13" s="449">
+        <f>636</f>
+        <v>636</v>
+      </c>
+      <c r="D13" s="449">
+        <v>695</v>
+      </c>
+      <c r="E13" s="449">
+        <v>563</v>
+      </c>
+      <c r="F13" s="449">
+        <v>510</v>
+      </c>
+      <c r="G13" s="454">
+        <v>665</v>
+      </c>
+      <c r="I13" s="447" t="s">
+        <v>414</v>
+      </c>
+      <c r="J13" s="451">
+        <v>-137</v>
+      </c>
+      <c r="K13" s="451">
+        <v>-109</v>
+      </c>
+      <c r="L13" s="451">
+        <v>-134</v>
+      </c>
+      <c r="M13" s="451">
+        <v>-98</v>
+      </c>
+      <c r="N13" s="456">
+        <v>-106</v>
+      </c>
+      <c r="P13" s="446" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q13" s="449">
+        <f>C13-D13</f>
+        <v>-59</v>
+      </c>
+      <c r="R13" s="449">
+        <f t="shared" ref="R13:T14" si="9">D13-E13</f>
+        <v>132</v>
+      </c>
+      <c r="S13" s="449">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="T13" s="454">
+        <f t="shared" si="9"/>
+        <v>-155</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B14" s="447" t="s">
+        <v>396</v>
+      </c>
+      <c r="C14" s="451">
+        <v>-683</v>
+      </c>
+      <c r="D14" s="451">
+        <v>-893</v>
+      </c>
+      <c r="E14" s="451">
+        <v>-673</v>
+      </c>
+      <c r="F14" s="451">
+        <v>-763</v>
+      </c>
+      <c r="G14" s="456">
+        <v>-999</v>
+      </c>
+      <c r="I14" s="448" t="s">
+        <v>304</v>
+      </c>
+      <c r="J14" s="450">
+        <f>J11+J13</f>
+        <v>2078</v>
+      </c>
+      <c r="K14" s="450">
+        <f t="shared" ref="K14:N14" si="10">K11+K13</f>
+        <v>334</v>
+      </c>
+      <c r="L14" s="450">
+        <f t="shared" si="10"/>
+        <v>576</v>
+      </c>
+      <c r="M14" s="450">
+        <f t="shared" si="10"/>
+        <v>490</v>
+      </c>
+      <c r="N14" s="477">
+        <f t="shared" si="10"/>
+        <v>581</v>
+      </c>
+      <c r="P14" s="447" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q14" s="451">
+        <f>C14-D14</f>
+        <v>210</v>
+      </c>
+      <c r="R14" s="451">
+        <f t="shared" si="9"/>
+        <v>-220</v>
+      </c>
+      <c r="S14" s="451">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="T14" s="456">
+        <f t="shared" si="9"/>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B15" s="448" t="s">
+        <v>530</v>
+      </c>
+      <c r="C15" s="471">
+        <f>C11+C13+C14</f>
+        <v>452</v>
+      </c>
+      <c r="D15" s="471">
+        <f>D11+D13+D14</f>
+        <v>398</v>
+      </c>
+      <c r="E15" s="471">
+        <f t="shared" ref="E15:G15" si="11">E11+E13+E14</f>
+        <v>327</v>
+      </c>
+      <c r="F15" s="471">
+        <f t="shared" si="11"/>
+        <v>302</v>
+      </c>
+      <c r="G15" s="478">
+        <f t="shared" si="11"/>
+        <v>221</v>
+      </c>
+      <c r="I15" s="446"/>
+      <c r="J15" s="449"/>
+      <c r="K15" s="449"/>
+      <c r="L15" s="449"/>
+      <c r="M15" s="449"/>
+      <c r="N15" s="454"/>
+      <c r="P15" s="448" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q15" s="471">
+        <f>Q11+Q13+Q14</f>
+        <v>54</v>
+      </c>
+      <c r="R15" s="471">
+        <f t="shared" ref="R15:T15" si="12">R11+R13+R14</f>
+        <v>71</v>
+      </c>
+      <c r="S15" s="471">
+        <f t="shared" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="T15" s="478">
+        <f t="shared" si="12"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B16" s="446"/>
+      <c r="C16" s="449"/>
+      <c r="D16" s="449"/>
+      <c r="E16" s="449"/>
+      <c r="F16" s="449"/>
+      <c r="G16" s="454"/>
+      <c r="I16" s="446" t="s">
+        <v>511</v>
+      </c>
+      <c r="J16" s="449">
+        <v>-133</v>
+      </c>
+      <c r="K16" s="449">
+        <v>-122</v>
+      </c>
+      <c r="L16" s="449">
+        <v>-192</v>
+      </c>
+      <c r="M16" s="449">
+        <v>-157</v>
+      </c>
+      <c r="N16" s="454">
+        <v>-189</v>
+      </c>
+      <c r="P16" s="446"/>
+      <c r="Q16" s="449"/>
+      <c r="R16" s="449"/>
+      <c r="S16" s="449"/>
+      <c r="T16" s="454"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B17" s="446" t="s">
+        <v>531</v>
+      </c>
+      <c r="C17" s="449">
+        <v>308</v>
+      </c>
+      <c r="D17" s="449">
+        <v>341</v>
+      </c>
+      <c r="E17" s="449">
+        <v>301</v>
+      </c>
+      <c r="F17" s="449">
+        <v>264</v>
+      </c>
+      <c r="G17" s="454">
+        <v>277</v>
+      </c>
+      <c r="I17" s="446" t="s">
+        <v>546</v>
+      </c>
+      <c r="J17" s="449">
+        <v>0</v>
+      </c>
+      <c r="K17" s="449">
+        <v>19</v>
+      </c>
+      <c r="L17" s="449">
+        <v>-86</v>
+      </c>
+      <c r="M17" s="449">
+        <v>21</v>
+      </c>
+      <c r="N17" s="454">
+        <v>1</v>
+      </c>
+      <c r="P17" s="446" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q17" s="449">
+        <f>C3+C4-D3-D4 + K9</f>
+        <v>-1066</v>
+      </c>
+      <c r="R17" s="449">
+        <f t="shared" ref="R17:T17" si="13">D3+D4-E3-E4 + L9</f>
+        <v>-80</v>
+      </c>
+      <c r="S17" s="449">
+        <f t="shared" si="13"/>
+        <v>-1076</v>
+      </c>
+      <c r="T17" s="454">
+        <f t="shared" si="13"/>
+        <v>-837</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B18" s="446" t="s">
+        <v>532</v>
+      </c>
+      <c r="C18" s="449">
+        <v>-332</v>
+      </c>
+      <c r="D18" s="449">
+        <v>-365</v>
+      </c>
+      <c r="E18" s="449">
+        <v>-319</v>
+      </c>
+      <c r="F18" s="449">
+        <v>-314</v>
+      </c>
+      <c r="G18" s="454">
+        <v>-307</v>
+      </c>
+      <c r="I18" s="447" t="s">
+        <v>513</v>
+      </c>
+      <c r="J18" s="451">
+        <v>130</v>
+      </c>
+      <c r="K18" s="451">
+        <v>1</v>
+      </c>
+      <c r="L18" s="451">
+        <v>-6</v>
+      </c>
+      <c r="M18" s="451">
+        <v>-10</v>
+      </c>
+      <c r="N18" s="456">
+        <v>-4</v>
+      </c>
+      <c r="P18" s="446" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q18" s="449">
+        <f>-K9</f>
+        <v>648</v>
+      </c>
+      <c r="R18" s="449">
+        <f t="shared" ref="R18:T18" si="14">-L9</f>
+        <v>444</v>
+      </c>
+      <c r="S18" s="449">
+        <f t="shared" si="14"/>
+        <v>623</v>
+      </c>
+      <c r="T18" s="454">
+        <f t="shared" si="14"/>
+        <v>511</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B19" s="447" t="s">
+        <v>533</v>
+      </c>
+      <c r="C19" s="451">
+        <v>-576</v>
+      </c>
+      <c r="D19" s="451">
+        <v>-671</v>
+      </c>
+      <c r="E19" s="451">
+        <v>-625</v>
+      </c>
+      <c r="F19" s="451">
+        <v>-642</v>
+      </c>
+      <c r="G19" s="456">
+        <v>-676</v>
+      </c>
+      <c r="I19" s="448" t="s">
+        <v>547</v>
+      </c>
+      <c r="J19" s="450">
+        <f>J14+J16+J17+J18</f>
+        <v>2075</v>
+      </c>
+      <c r="K19" s="450">
+        <f t="shared" ref="K19:N19" si="15">K14+K16+K17+K18</f>
+        <v>232</v>
+      </c>
+      <c r="L19" s="450">
+        <f t="shared" si="15"/>
+        <v>292</v>
+      </c>
+      <c r="M19" s="450">
+        <f t="shared" si="15"/>
+        <v>344</v>
+      </c>
+      <c r="N19" s="477">
+        <f t="shared" si="15"/>
+        <v>389</v>
+      </c>
+      <c r="P19" s="446" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q19" s="449">
+        <f>C19-D19</f>
+        <v>95</v>
+      </c>
+      <c r="R19" s="449">
+        <f t="shared" ref="R19:T19" si="16">D19-E19</f>
+        <v>-46</v>
+      </c>
+      <c r="S19" s="449">
+        <f t="shared" si="16"/>
+        <v>17</v>
+      </c>
+      <c r="T19" s="454">
+        <f t="shared" si="16"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="448" t="s">
+        <v>534</v>
+      </c>
+      <c r="C20" s="471">
+        <f>C6+C15+C17+C18+C19</f>
+        <v>6404</v>
+      </c>
+      <c r="D20" s="471">
+        <f>D6+D15+D17+D18+D19</f>
+        <v>6672</v>
+      </c>
+      <c r="E20" s="471">
+        <f t="shared" ref="E20:G20" si="17">E6+E15+E17+E18+E19</f>
+        <v>6260</v>
+      </c>
+      <c r="F20" s="471">
+        <f t="shared" si="17"/>
+        <v>6577</v>
+      </c>
+      <c r="G20" s="478">
+        <f t="shared" si="17"/>
+        <v>6828</v>
+      </c>
+      <c r="I20" s="490"/>
+      <c r="J20" s="491"/>
+      <c r="K20" s="491"/>
+      <c r="L20" s="491"/>
+      <c r="M20" s="491"/>
+      <c r="N20" s="492"/>
+      <c r="P20" s="446" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q20" s="449">
+        <f>C18-D18</f>
+        <v>33</v>
+      </c>
+      <c r="R20" s="449">
+        <f t="shared" ref="R20:T20" si="18">D18-E18</f>
+        <v>-46</v>
+      </c>
+      <c r="S20" s="449">
+        <f t="shared" si="18"/>
+        <v>-5</v>
+      </c>
+      <c r="T20" s="454">
+        <f t="shared" si="18"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B21" s="446"/>
+      <c r="C21" s="449"/>
+      <c r="D21" s="449"/>
+      <c r="E21" s="449"/>
+      <c r="F21" s="449"/>
+      <c r="G21" s="454"/>
+      <c r="I21" s="282"/>
+      <c r="J21" s="282"/>
+      <c r="K21" s="282"/>
+      <c r="L21" s="282"/>
+      <c r="M21" s="282"/>
+      <c r="N21" s="282"/>
+      <c r="P21" s="446" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q21" s="449">
+        <f>C17-D17</f>
+        <v>-33</v>
+      </c>
+      <c r="R21" s="449">
+        <f t="shared" ref="R21:T21" si="19">D17-E17</f>
+        <v>40</v>
+      </c>
+      <c r="S21" s="449">
+        <f t="shared" si="19"/>
+        <v>37</v>
+      </c>
+      <c r="T21" s="454">
+        <f t="shared" si="19"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B22" s="452" t="s">
+        <v>393</v>
+      </c>
+      <c r="C22" s="472">
+        <v>-3259</v>
+      </c>
+      <c r="D22" s="472">
+        <v>-3279</v>
+      </c>
+      <c r="E22" s="472">
+        <v>-3013</v>
+      </c>
+      <c r="F22" s="472">
+        <v>-3523</v>
+      </c>
+      <c r="G22" s="481">
+        <v>-3651</v>
+      </c>
+      <c r="I22" s="282"/>
+      <c r="J22" s="282"/>
+      <c r="K22" s="282"/>
+      <c r="L22" s="282"/>
+      <c r="M22" s="282"/>
+      <c r="N22" s="282"/>
+      <c r="P22" s="447" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q22" s="451">
+        <f>K17+K18</f>
+        <v>20</v>
+      </c>
+      <c r="R22" s="451">
+        <f t="shared" ref="R22:T22" si="20">L17+L18</f>
+        <v>-92</v>
+      </c>
+      <c r="S22" s="451">
+        <f t="shared" si="20"/>
+        <v>11</v>
+      </c>
+      <c r="T22" s="456">
+        <f t="shared" si="20"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B23" s="448"/>
+      <c r="C23" s="449"/>
+      <c r="D23" s="449"/>
+      <c r="E23" s="449"/>
+      <c r="F23" s="449"/>
+      <c r="G23" s="454"/>
+      <c r="I23" s="282"/>
+      <c r="J23" s="282"/>
+      <c r="K23" s="282"/>
+      <c r="L23" s="282"/>
+      <c r="M23" s="282"/>
+      <c r="N23" s="282"/>
+      <c r="P23" s="448" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q23" s="494">
+        <f>Q6+Q15+SUM(Q17:Q22)</f>
+        <v>32.18562874251495</v>
+      </c>
+      <c r="R23" s="494">
+        <f t="shared" ref="R23:T23" si="21">R6+R15+SUM(R17:R22)</f>
+        <v>764.33333333333326</v>
+      </c>
+      <c r="S23" s="494">
+        <f t="shared" si="21"/>
+        <v>31.600000000000023</v>
+      </c>
+      <c r="T23" s="495">
+        <f t="shared" si="21"/>
+        <v>229.51807228915663</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B24" s="446" t="s">
+        <v>535</v>
+      </c>
+      <c r="C24" s="449">
+        <v>-3781</v>
+      </c>
+      <c r="D24" s="449">
+        <v>-3795</v>
+      </c>
+      <c r="E24" s="449">
+        <v>-3938</v>
+      </c>
+      <c r="F24" s="449">
+        <v>-3678</v>
+      </c>
+      <c r="G24" s="454">
+        <v>-3611</v>
+      </c>
+      <c r="I24" s="282"/>
+      <c r="J24" s="282"/>
+      <c r="K24" s="282"/>
+      <c r="L24" s="282"/>
+      <c r="M24" s="282"/>
+      <c r="N24" s="282"/>
+      <c r="P24" s="497" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q24" s="498">
+        <f>Q23/Q3</f>
+        <v>7.2653789486489734E-2</v>
+      </c>
+      <c r="R24" s="498">
+        <f t="shared" ref="R24:T24" si="22">R23/R3</f>
+        <v>1.0765258215962441</v>
+      </c>
+      <c r="S24" s="498">
+        <f t="shared" si="22"/>
+        <v>5.3741496598639492E-2</v>
+      </c>
+      <c r="T24" s="499">
+        <f t="shared" si="22"/>
+        <v>0.33408744146893249</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B25" s="447" t="s">
+        <v>536</v>
+      </c>
+      <c r="C25" s="451">
+        <v>636</v>
+      </c>
+      <c r="D25" s="451">
+        <v>402</v>
+      </c>
+      <c r="E25" s="451">
+        <v>691</v>
+      </c>
+      <c r="F25" s="451">
+        <v>624</v>
+      </c>
+      <c r="G25" s="456">
+        <v>434</v>
+      </c>
+      <c r="I25" s="282"/>
+      <c r="J25" s="282"/>
+      <c r="K25" s="282"/>
+      <c r="L25" s="282"/>
+      <c r="M25" s="282"/>
+      <c r="N25" s="282"/>
+      <c r="P25" s="446"/>
+      <c r="Q25" s="449"/>
+      <c r="R25" s="449"/>
+      <c r="S25" s="449"/>
+      <c r="T25" s="454"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B26" s="453" t="s">
+        <v>537</v>
+      </c>
+      <c r="C26" s="473">
+        <f>C24+C25</f>
+        <v>-3145</v>
+      </c>
+      <c r="D26" s="473">
+        <f>D24+D25</f>
+        <v>-3393</v>
+      </c>
+      <c r="E26" s="473">
+        <f t="shared" ref="E26:G26" si="23">E24+E25</f>
+        <v>-3247</v>
+      </c>
+      <c r="F26" s="473">
+        <f t="shared" si="23"/>
+        <v>-3054</v>
+      </c>
+      <c r="G26" s="479">
+        <f t="shared" si="23"/>
+        <v>-3177</v>
+      </c>
+      <c r="I26" s="282"/>
+      <c r="J26" s="282"/>
+      <c r="K26" s="282"/>
+      <c r="L26" s="282"/>
+      <c r="M26" s="282"/>
+      <c r="N26" s="282"/>
+      <c r="P26" s="446" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q26" s="449">
+        <f>K13+C5-D5</f>
+        <v>-108</v>
+      </c>
+      <c r="R26" s="449">
+        <f t="shared" ref="R26:T26" si="24">L13+D5-E5</f>
+        <v>-105</v>
+      </c>
+      <c r="S26" s="449">
+        <f t="shared" si="24"/>
+        <v>-36</v>
+      </c>
+      <c r="T26" s="454">
+        <f t="shared" si="24"/>
+        <v>-126</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B27" s="448" t="s">
+        <v>538</v>
+      </c>
+      <c r="C27" s="450">
+        <f>C22+C26</f>
+        <v>-6404</v>
+      </c>
+      <c r="D27" s="450">
+        <f>D22+D26</f>
+        <v>-6672</v>
+      </c>
+      <c r="E27" s="450">
+        <f t="shared" ref="E27:G27" si="25">E22+E26</f>
+        <v>-6260</v>
+      </c>
+      <c r="F27" s="450">
+        <f t="shared" si="25"/>
+        <v>-6577</v>
+      </c>
+      <c r="G27" s="477">
+        <f t="shared" si="25"/>
+        <v>-6828</v>
+      </c>
+      <c r="I27" s="282"/>
+      <c r="J27" s="282"/>
+      <c r="K27" s="282"/>
+      <c r="L27" s="282"/>
+      <c r="M27" s="282"/>
+      <c r="N27" s="282"/>
+      <c r="P27" s="446" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q27" s="449">
+        <f>C24-D24</f>
+        <v>14</v>
+      </c>
+      <c r="R27" s="449">
+        <f t="shared" ref="R27:T27" si="26">D24-E24</f>
+        <v>143</v>
+      </c>
+      <c r="S27" s="449">
+        <f t="shared" si="26"/>
+        <v>-260</v>
+      </c>
+      <c r="T27" s="454">
+        <f t="shared" si="26"/>
+        <v>-67</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="475" t="s">
+        <v>539</v>
+      </c>
+      <c r="C28" s="476">
+        <f>C20+C27</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="476">
+        <f t="shared" ref="D28:G28" si="27">D20+D27</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="476">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="476">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="480">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="282"/>
+      <c r="J28" s="282"/>
+      <c r="K28" s="282"/>
+      <c r="L28" s="282"/>
+      <c r="M28" s="282"/>
+      <c r="N28" s="282"/>
+      <c r="P28" s="447" t="s">
+        <v>561</v>
+      </c>
+      <c r="Q28" s="457">
+        <f>-Q5</f>
+        <v>39.814371257485028</v>
+      </c>
+      <c r="R28" s="457">
+        <f t="shared" ref="R28:T28" si="28">-R5</f>
+        <v>44.666666666666664</v>
+      </c>
+      <c r="S28" s="457">
+        <f t="shared" si="28"/>
+        <v>31.400000000000002</v>
+      </c>
+      <c r="T28" s="493">
+        <f t="shared" si="28"/>
+        <v>34.481927710843372</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="I29" s="282"/>
+      <c r="J29" s="282"/>
+      <c r="K29" s="282"/>
+      <c r="L29" s="282"/>
+      <c r="M29" s="282"/>
+      <c r="N29" s="282"/>
+      <c r="P29" s="448" t="s">
+        <v>562</v>
+      </c>
+      <c r="Q29" s="470">
+        <f>Q23+Q26+Q27+Q28</f>
+        <v>-22.000000000000021</v>
+      </c>
+      <c r="R29" s="470">
+        <f t="shared" ref="R29:T29" si="29">R23+R26+R27+R28</f>
+        <v>846.99999999999989</v>
+      </c>
+      <c r="S29" s="470">
+        <f t="shared" si="29"/>
+        <v>-232.99999999999997</v>
+      </c>
+      <c r="T29" s="500">
+        <f t="shared" si="29"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="I30" s="282"/>
+      <c r="J30" s="282"/>
+      <c r="K30" s="282"/>
+      <c r="L30" s="282"/>
+      <c r="M30" s="282"/>
+      <c r="N30" s="282"/>
+      <c r="P30" s="497" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q30" s="498">
+        <f>Q29/Q3</f>
+        <v>-4.9661399548532777E-2</v>
+      </c>
+      <c r="R30" s="498">
+        <f t="shared" ref="R30:T30" si="30">R29/R3</f>
+        <v>1.192957746478873</v>
+      </c>
+      <c r="S30" s="498">
+        <f t="shared" si="30"/>
+        <v>-0.39625850340136048</v>
+      </c>
+      <c r="T30" s="499">
+        <f t="shared" si="30"/>
+        <v>0.10334788937409024</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="P31" s="446"/>
+      <c r="Q31" s="449"/>
+      <c r="R31" s="449"/>
+      <c r="S31" s="449"/>
+      <c r="T31" s="454"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="P32" s="447" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q32" s="451">
+        <f>C22-D22-K19</f>
+        <v>-212</v>
+      </c>
+      <c r="R32" s="451">
+        <f t="shared" ref="R32:T32" si="31">D22-E22-L19</f>
+        <v>-558</v>
+      </c>
+      <c r="S32" s="451">
+        <f t="shared" si="31"/>
+        <v>166</v>
+      </c>
+      <c r="T32" s="456">
+        <f t="shared" si="31"/>
+        <v>-261</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="P33" s="448" t="s">
+        <v>563</v>
+      </c>
+      <c r="Q33" s="471">
+        <f>Q29+Q32</f>
+        <v>-234.00000000000003</v>
+      </c>
+      <c r="R33" s="471">
+        <f t="shared" ref="R33:T33" si="32">R29+R32</f>
+        <v>288.99999999999989</v>
+      </c>
+      <c r="S33" s="471">
+        <f t="shared" si="32"/>
+        <v>-66.999999999999972</v>
+      </c>
+      <c r="T33" s="478">
+        <f t="shared" si="32"/>
+        <v>-190</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="P34" s="446"/>
+      <c r="Q34" s="449"/>
+      <c r="R34" s="449"/>
+      <c r="S34" s="449"/>
+      <c r="T34" s="454"/>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="P35" s="448" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q35" s="450">
+        <f>D25-C25</f>
+        <v>-234</v>
+      </c>
+      <c r="R35" s="450">
+        <f t="shared" ref="R35:T35" si="33">E25-D25</f>
+        <v>289</v>
+      </c>
+      <c r="S35" s="450">
+        <f t="shared" si="33"/>
+        <v>-67</v>
+      </c>
+      <c r="T35" s="477">
+        <f t="shared" si="33"/>
+        <v>-190</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="P36" s="295"/>
+      <c r="Q36" s="55"/>
+      <c r="R36" s="55"/>
+      <c r="S36" s="55"/>
+      <c r="T36" s="341"/>
+      <c r="U36" s="282"/>
+      <c r="V36" s="282"/>
+    </row>
+    <row r="37" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P37" s="474" t="s">
+        <v>569</v>
+      </c>
+      <c r="Q37" s="514">
+        <f>Q33-Q35</f>
+        <v>0</v>
+      </c>
+      <c r="R37" s="514">
+        <f t="shared" ref="R37:T37" si="34">R33-R35</f>
+        <v>0</v>
+      </c>
+      <c r="S37" s="514">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="514">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="282"/>
+      <c r="V37" s="282"/>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="P38" s="282"/>
+      <c r="Q38" s="282"/>
+      <c r="R38" s="282"/>
+      <c r="S38" s="282"/>
+      <c r="T38" s="282"/>
+      <c r="U38" s="282"/>
+      <c r="V38" s="282"/>
+    </row>
+    <row r="39" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U39" s="282"/>
+      <c r="V39" s="282"/>
+    </row>
+    <row r="40" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="482" t="s">
+        <v>565</v>
+      </c>
+      <c r="C40" s="483">
+        <v>42461</v>
+      </c>
+      <c r="D40" s="483">
+        <v>42826</v>
+      </c>
+      <c r="E40" s="483">
+        <v>43191</v>
+      </c>
+      <c r="F40" s="483">
+        <v>43556</v>
+      </c>
+      <c r="G40" s="483">
+        <v>43922</v>
+      </c>
+      <c r="I40" s="482" t="s">
+        <v>566</v>
+      </c>
+      <c r="J40" s="483" t="s">
+        <v>567</v>
+      </c>
+      <c r="K40" s="483" t="s">
+        <v>505</v>
+      </c>
+      <c r="L40" s="483" t="s">
+        <v>506</v>
+      </c>
+      <c r="M40" s="483" t="s">
+        <v>507</v>
+      </c>
+      <c r="N40" s="483" t="s">
+        <v>508</v>
+      </c>
+      <c r="P40" s="507" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q40" s="483" t="s">
+        <v>505</v>
+      </c>
+      <c r="R40" s="483" t="s">
+        <v>506</v>
+      </c>
+      <c r="S40" s="483" t="s">
+        <v>507</v>
+      </c>
+      <c r="T40" s="483" t="s">
+        <v>508</v>
+      </c>
+      <c r="U40" s="504"/>
+      <c r="V40" s="282"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B41" s="446" t="s">
+        <v>522</v>
+      </c>
+      <c r="C41" s="449">
+        <v>5022</v>
+      </c>
+      <c r="D41" s="449">
+        <v>5026</v>
+      </c>
+      <c r="E41" s="449">
+        <v>4592</v>
+      </c>
+      <c r="F41" s="449">
+        <v>4703</v>
+      </c>
+      <c r="G41" s="454">
+        <v>4917</v>
+      </c>
+      <c r="I41" s="487" t="s">
+        <v>540</v>
+      </c>
+      <c r="J41" s="488">
+        <v>4829</v>
+      </c>
+      <c r="K41" s="488">
+        <v>5050</v>
+      </c>
+      <c r="L41" s="488">
+        <v>5986</v>
+      </c>
+      <c r="M41" s="488">
+        <v>6801</v>
+      </c>
+      <c r="N41" s="489">
+        <v>6921</v>
+      </c>
+      <c r="P41" s="487" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q41" s="488">
+        <f>K49</f>
+        <v>447</v>
+      </c>
+      <c r="R41" s="488">
+        <f t="shared" ref="R41:T41" si="35">L49</f>
+        <v>714</v>
+      </c>
+      <c r="S41" s="488">
+        <f t="shared" si="35"/>
+        <v>507</v>
+      </c>
+      <c r="T41" s="489">
+        <f t="shared" si="35"/>
+        <v>686</v>
+      </c>
+      <c r="U41" s="282"/>
+      <c r="V41" s="282"/>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B42" s="446" t="s">
+        <v>523</v>
+      </c>
+      <c r="C42" s="449">
+        <v>1360</v>
+      </c>
+      <c r="D42" s="449">
+        <v>1756</v>
+      </c>
+      <c r="E42" s="449">
+        <v>1902</v>
+      </c>
+      <c r="F42" s="449">
+        <v>2344</v>
+      </c>
+      <c r="G42" s="454">
+        <v>2429</v>
+      </c>
+      <c r="I42" s="446"/>
+      <c r="J42" s="449"/>
+      <c r="K42" s="449"/>
+      <c r="L42" s="449"/>
+      <c r="M42" s="449"/>
+      <c r="N42" s="454"/>
+      <c r="P42" s="446" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q42" s="449">
+        <f>K54</f>
+        <v>-127</v>
+      </c>
+      <c r="R42" s="449">
+        <f t="shared" ref="R42:T42" si="36">L54</f>
+        <v>-197</v>
+      </c>
+      <c r="S42" s="449">
+        <f t="shared" si="36"/>
+        <v>-133</v>
+      </c>
+      <c r="T42" s="454">
+        <f t="shared" si="36"/>
+        <v>-188</v>
+      </c>
+      <c r="U42" s="282"/>
+      <c r="V42" s="282"/>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B43" s="447" t="s">
+        <v>524</v>
+      </c>
+      <c r="C43" s="451">
+        <v>146</v>
+      </c>
+      <c r="D43" s="451">
+        <v>140</v>
+      </c>
+      <c r="E43" s="451">
+        <v>105</v>
+      </c>
+      <c r="F43" s="451">
+        <v>44</v>
+      </c>
+      <c r="G43" s="456">
+        <v>95</v>
+      </c>
+      <c r="I43" s="446" t="s">
+        <v>541</v>
+      </c>
+      <c r="J43" s="449">
+        <v>-1176</v>
+      </c>
+      <c r="K43" s="449">
+        <v>-3272</v>
+      </c>
+      <c r="L43" s="449">
+        <v>-4132</v>
+      </c>
+      <c r="M43" s="449">
+        <v>-4964</v>
+      </c>
+      <c r="N43" s="454">
+        <v>-4981</v>
+      </c>
+      <c r="P43" s="447" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q43" s="457">
+        <f>-K51*(K54/K52)</f>
+        <v>-42.967065868263475</v>
+      </c>
+      <c r="R43" s="457">
+        <f t="shared" ref="R43:T43" si="37">-L51*(L54/L52)</f>
+        <v>-47.197916666666664</v>
+      </c>
+      <c r="S43" s="457">
+        <f t="shared" si="37"/>
+        <v>-29.876811594202898</v>
+      </c>
+      <c r="T43" s="493">
+        <f t="shared" si="37"/>
+        <v>-32.081911262798634</v>
+      </c>
+      <c r="U43" s="282"/>
+      <c r="V43" s="282"/>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B44" s="448" t="s">
+        <v>525</v>
+      </c>
+      <c r="C44" s="450">
+        <f>C41+C42+C43</f>
+        <v>6528</v>
+      </c>
+      <c r="D44" s="450">
+        <f t="shared" ref="D44:G44" si="38">D41+D42+D43</f>
+        <v>6922</v>
+      </c>
+      <c r="E44" s="450">
+        <f t="shared" si="38"/>
+        <v>6599</v>
+      </c>
+      <c r="F44" s="450">
+        <f t="shared" si="38"/>
+        <v>7091</v>
+      </c>
+      <c r="G44" s="477">
+        <f t="shared" si="38"/>
+        <v>7441</v>
+      </c>
+      <c r="I44" s="447" t="s">
+        <v>542</v>
+      </c>
+      <c r="J44" s="451">
+        <v>-634</v>
+      </c>
+      <c r="K44" s="451">
+        <v>-601</v>
+      </c>
+      <c r="L44" s="451">
+        <v>-640</v>
+      </c>
+      <c r="M44" s="451">
+        <v>-677</v>
+      </c>
+      <c r="N44" s="456">
+        <v>-703</v>
+      </c>
+      <c r="P44" s="448" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q44" s="494">
+        <f>Q41+Q42+Q43</f>
+        <v>277.03293413173651</v>
+      </c>
+      <c r="R44" s="494">
+        <f t="shared" ref="R44:T44" si="39">R41+R42+R43</f>
+        <v>469.80208333333331</v>
+      </c>
+      <c r="S44" s="494">
+        <f t="shared" si="39"/>
+        <v>344.12318840579712</v>
+      </c>
+      <c r="T44" s="495">
+        <f t="shared" si="39"/>
+        <v>465.91808873720134</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B45" s="446"/>
+      <c r="C45" s="449"/>
+      <c r="D45" s="449"/>
+      <c r="E45" s="449"/>
+      <c r="F45" s="449"/>
+      <c r="G45" s="454"/>
+      <c r="I45" s="448" t="s">
+        <v>543</v>
+      </c>
+      <c r="J45" s="450">
+        <f>J41+J43+J44</f>
+        <v>3019</v>
+      </c>
+      <c r="K45" s="450">
+        <f t="shared" ref="K45:N45" si="40">K41+K43+K44</f>
+        <v>1177</v>
+      </c>
+      <c r="L45" s="450">
+        <f t="shared" si="40"/>
+        <v>1214</v>
+      </c>
+      <c r="M45" s="450">
+        <f t="shared" si="40"/>
+        <v>1160</v>
+      </c>
+      <c r="N45" s="477">
+        <f t="shared" si="40"/>
+        <v>1237</v>
+      </c>
+      <c r="P45" s="446"/>
+      <c r="Q45" s="449"/>
+      <c r="R45" s="449"/>
+      <c r="S45" s="449"/>
+      <c r="T45" s="454"/>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B46" s="446" t="s">
+        <v>526</v>
+      </c>
+      <c r="C46" s="449">
+        <v>98</v>
+      </c>
+      <c r="D46" s="449">
+        <v>118</v>
+      </c>
+      <c r="E46" s="449">
+        <v>80</v>
+      </c>
+      <c r="F46" s="449">
+        <v>119</v>
+      </c>
+      <c r="G46" s="454">
+        <v>104</v>
+      </c>
+      <c r="I46" s="446"/>
+      <c r="J46" s="449"/>
+      <c r="K46" s="449"/>
+      <c r="L46" s="449"/>
+      <c r="M46" s="449"/>
+      <c r="N46" s="454"/>
+      <c r="P46" s="446" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q46" s="449">
+        <f>C46-D46</f>
+        <v>-20</v>
+      </c>
+      <c r="R46" s="449">
+        <f t="shared" ref="R46:T48" si="41">D46-E46</f>
+        <v>38</v>
+      </c>
+      <c r="S46" s="449">
+        <f t="shared" si="41"/>
+        <v>-39</v>
+      </c>
+      <c r="T46" s="454">
+        <f t="shared" si="41"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B47" s="446" t="s">
+        <v>373</v>
+      </c>
+      <c r="C47" s="449">
+        <v>1547</v>
+      </c>
+      <c r="D47" s="449">
+        <v>1878</v>
+      </c>
+      <c r="E47" s="449">
+        <v>1826</v>
+      </c>
+      <c r="F47" s="449">
+        <v>2077</v>
+      </c>
+      <c r="G47" s="454">
+        <v>2056</v>
+      </c>
+      <c r="I47" s="446" t="s">
+        <v>544</v>
+      </c>
+      <c r="J47" s="449">
+        <f>-(844-79)</f>
+        <v>-765</v>
+      </c>
+      <c r="K47" s="449">
+        <f>-(730-71)</f>
+        <v>-659</v>
+      </c>
+      <c r="L47" s="449">
+        <f>-(500-45)</f>
+        <v>-455</v>
+      </c>
+      <c r="M47" s="449">
+        <f>-(653-20)</f>
+        <v>-633</v>
+      </c>
+      <c r="N47" s="454">
+        <v>-515</v>
+      </c>
+      <c r="P47" s="446" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q47" s="449">
+        <f>C47-D47</f>
+        <v>-331</v>
+      </c>
+      <c r="R47" s="449">
+        <f t="shared" si="41"/>
+        <v>52</v>
+      </c>
+      <c r="S47" s="449">
+        <f t="shared" si="41"/>
+        <v>-251</v>
+      </c>
+      <c r="T47" s="454">
+        <f t="shared" si="41"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B48" s="447" t="s">
+        <v>527</v>
+      </c>
+      <c r="C48" s="451">
+        <v>-1012</v>
+      </c>
+      <c r="D48" s="451">
+        <v>-1151</v>
+      </c>
+      <c r="E48" s="451">
+        <v>-1150</v>
+      </c>
+      <c r="F48" s="451">
+        <v>-1321</v>
+      </c>
+      <c r="G48" s="456">
+        <v>-1323</v>
+      </c>
+      <c r="I48" s="447" t="s">
+        <v>545</v>
+      </c>
+      <c r="J48" s="451">
+        <v>-79</v>
+      </c>
+      <c r="K48" s="451">
+        <v>-71</v>
+      </c>
+      <c r="L48" s="451">
+        <v>-45</v>
+      </c>
+      <c r="M48" s="451">
+        <v>-20</v>
+      </c>
+      <c r="N48" s="456">
+        <f>-(551-515)</f>
+        <v>-36</v>
+      </c>
+      <c r="P48" s="447" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q48" s="451">
+        <f>C48-D48</f>
+        <v>139</v>
+      </c>
+      <c r="R48" s="451">
+        <f t="shared" si="41"/>
+        <v>-1</v>
+      </c>
+      <c r="S48" s="451">
+        <f t="shared" si="41"/>
+        <v>171</v>
+      </c>
+      <c r="T48" s="456">
+        <f t="shared" si="41"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B49" s="448" t="s">
+        <v>528</v>
+      </c>
+      <c r="C49" s="450">
+        <f>C46+C48+C47</f>
+        <v>633</v>
+      </c>
+      <c r="D49" s="450">
+        <f t="shared" ref="D49:G49" si="42">D46+D48+D47</f>
+        <v>845</v>
+      </c>
+      <c r="E49" s="450">
+        <f t="shared" si="42"/>
+        <v>756</v>
+      </c>
+      <c r="F49" s="450">
+        <f t="shared" si="42"/>
+        <v>875</v>
+      </c>
+      <c r="G49" s="477">
+        <f t="shared" si="42"/>
+        <v>837</v>
+      </c>
+      <c r="I49" s="448" t="s">
+        <v>303</v>
+      </c>
+      <c r="J49" s="450">
+        <f>J45+J47+J48</f>
+        <v>2175</v>
+      </c>
+      <c r="K49" s="450">
+        <f t="shared" ref="K49:N49" si="43">K45+K47+K48</f>
+        <v>447</v>
+      </c>
+      <c r="L49" s="450">
+        <f t="shared" si="43"/>
+        <v>714</v>
+      </c>
+      <c r="M49" s="450">
+        <f t="shared" si="43"/>
+        <v>507</v>
+      </c>
+      <c r="N49" s="477">
+        <f t="shared" si="43"/>
+        <v>686</v>
+      </c>
+      <c r="P49" s="448" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q49" s="450">
+        <f>Q46+Q47+Q48</f>
+        <v>-212</v>
+      </c>
+      <c r="R49" s="450">
+        <f t="shared" ref="R49:T49" si="44">R46+R47+R48</f>
+        <v>89</v>
+      </c>
+      <c r="S49" s="450">
+        <f t="shared" si="44"/>
+        <v>-119</v>
+      </c>
+      <c r="T49" s="477">
+        <f t="shared" si="44"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B50" s="446"/>
+      <c r="C50" s="449"/>
+      <c r="D50" s="449"/>
+      <c r="E50" s="449"/>
+      <c r="F50" s="449"/>
+      <c r="G50" s="454"/>
+      <c r="I50" s="446"/>
+      <c r="J50" s="449"/>
+      <c r="K50" s="449"/>
+      <c r="L50" s="449"/>
+      <c r="M50" s="449"/>
+      <c r="N50" s="454"/>
+      <c r="P50" s="446"/>
+      <c r="Q50" s="449"/>
+      <c r="R50" s="449"/>
+      <c r="S50" s="449"/>
+      <c r="T50" s="454"/>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B51" s="446" t="s">
+        <v>529</v>
+      </c>
+      <c r="C51" s="449">
+        <v>645</v>
+      </c>
+      <c r="D51" s="449">
+        <v>542</v>
+      </c>
+      <c r="E51" s="449">
+        <v>509</v>
+      </c>
+      <c r="F51" s="449">
+        <v>583</v>
+      </c>
+      <c r="G51" s="454">
+        <v>1038</v>
+      </c>
+      <c r="I51" s="447" t="s">
+        <v>414</v>
+      </c>
+      <c r="J51" s="451">
+        <v>-141</v>
+      </c>
+      <c r="K51" s="451">
+        <v>-113</v>
+      </c>
+      <c r="L51" s="451">
+        <v>-138</v>
+      </c>
+      <c r="M51" s="451">
+        <v>-93</v>
+      </c>
+      <c r="N51" s="456">
+        <v>-100</v>
+      </c>
+      <c r="P51" s="446" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q51" s="449">
+        <f>C51-D51</f>
+        <v>103</v>
+      </c>
+      <c r="R51" s="449">
+        <f t="shared" ref="R51:T52" si="45">D51-E51</f>
+        <v>33</v>
+      </c>
+      <c r="S51" s="449">
+        <f t="shared" si="45"/>
+        <v>-74</v>
+      </c>
+      <c r="T51" s="454">
+        <f t="shared" si="45"/>
+        <v>-455</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B52" s="447" t="s">
+        <v>396</v>
+      </c>
+      <c r="C52" s="451">
+        <v>-887</v>
+      </c>
+      <c r="D52" s="451">
+        <v>-895</v>
+      </c>
+      <c r="E52" s="451">
+        <v>-827</v>
+      </c>
+      <c r="F52" s="451">
+        <v>-1124</v>
+      </c>
+      <c r="G52" s="456">
+        <v>-1559</v>
+      </c>
+      <c r="I52" s="448" t="s">
+        <v>304</v>
+      </c>
+      <c r="J52" s="450">
+        <f>J49+J51</f>
+        <v>2034</v>
+      </c>
+      <c r="K52" s="450">
+        <f t="shared" ref="K52:N52" si="46">K49+K51</f>
+        <v>334</v>
+      </c>
+      <c r="L52" s="450">
+        <f t="shared" si="46"/>
+        <v>576</v>
+      </c>
+      <c r="M52" s="450">
+        <f t="shared" si="46"/>
+        <v>414</v>
+      </c>
+      <c r="N52" s="477">
+        <f t="shared" si="46"/>
+        <v>586</v>
+      </c>
+      <c r="P52" s="447" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q52" s="451">
+        <f>C52-D52</f>
+        <v>8</v>
+      </c>
+      <c r="R52" s="451">
+        <f t="shared" si="45"/>
+        <v>-68</v>
+      </c>
+      <c r="S52" s="451">
+        <f t="shared" si="45"/>
+        <v>297</v>
+      </c>
+      <c r="T52" s="456">
+        <f t="shared" si="45"/>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B53" s="448" t="s">
+        <v>530</v>
+      </c>
+      <c r="C53" s="450">
+        <f>C49+C51+C52</f>
+        <v>391</v>
+      </c>
+      <c r="D53" s="450">
+        <f t="shared" ref="D53:G53" si="47">D49+D51+D52</f>
+        <v>492</v>
+      </c>
+      <c r="E53" s="450">
+        <f t="shared" si="47"/>
+        <v>438</v>
+      </c>
+      <c r="F53" s="450">
+        <f t="shared" si="47"/>
+        <v>334</v>
+      </c>
+      <c r="G53" s="477">
+        <f t="shared" si="47"/>
+        <v>316</v>
+      </c>
+      <c r="I53" s="446"/>
+      <c r="J53" s="449"/>
+      <c r="K53" s="449"/>
+      <c r="L53" s="449"/>
+      <c r="M53" s="449"/>
+      <c r="N53" s="454"/>
+      <c r="P53" s="448" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q53" s="450">
+        <f>Q49+Q51+Q52</f>
+        <v>-101</v>
+      </c>
+      <c r="R53" s="450">
+        <f t="shared" ref="R53:T53" si="48">R49+R51+R52</f>
+        <v>54</v>
+      </c>
+      <c r="S53" s="450">
+        <f t="shared" si="48"/>
+        <v>104</v>
+      </c>
+      <c r="T53" s="477">
+        <f t="shared" si="48"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B54" s="446"/>
+      <c r="C54" s="449"/>
+      <c r="D54" s="449"/>
+      <c r="E54" s="449"/>
+      <c r="F54" s="449"/>
+      <c r="G54" s="454"/>
+      <c r="I54" s="446" t="s">
+        <v>511</v>
+      </c>
+      <c r="J54" s="449">
+        <v>-138</v>
+      </c>
+      <c r="K54" s="449">
+        <v>-127</v>
+      </c>
+      <c r="L54" s="449">
+        <v>-197</v>
+      </c>
+      <c r="M54" s="449">
+        <v>-133</v>
+      </c>
+      <c r="N54" s="454">
+        <v>-188</v>
+      </c>
+      <c r="P54" s="446"/>
+      <c r="Q54" s="449"/>
+      <c r="R54" s="449"/>
+      <c r="S54" s="449"/>
+      <c r="T54" s="454"/>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B55" s="446" t="s">
+        <v>531</v>
+      </c>
+      <c r="C55" s="449">
+        <v>305</v>
+      </c>
+      <c r="D55" s="449">
+        <v>357</v>
+      </c>
+      <c r="E55" s="449">
+        <v>295</v>
+      </c>
+      <c r="F55" s="449">
+        <v>274</v>
+      </c>
+      <c r="G55" s="454">
+        <v>286</v>
+      </c>
+      <c r="I55" s="446" t="s">
+        <v>546</v>
+      </c>
+      <c r="J55" s="449">
+        <v>-2</v>
+      </c>
+      <c r="K55" s="449">
+        <v>17</v>
+      </c>
+      <c r="L55" s="449">
+        <v>-87</v>
+      </c>
+      <c r="M55" s="449">
+        <v>19</v>
+      </c>
+      <c r="N55" s="454">
+        <v>1</v>
+      </c>
+      <c r="P55" s="446" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q55" s="449">
+        <f>C41+C42-D41-D42+K47</f>
+        <v>-1059</v>
+      </c>
+      <c r="R55" s="449">
+        <f t="shared" ref="R55:T55" si="49">D41+D42-E41-E42+L47</f>
+        <v>-167</v>
+      </c>
+      <c r="S55" s="449">
+        <f t="shared" si="49"/>
+        <v>-1186</v>
+      </c>
+      <c r="T55" s="454">
+        <f t="shared" si="49"/>
+        <v>-814</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B56" s="446" t="s">
+        <v>532</v>
+      </c>
+      <c r="C56" s="449">
+        <v>-327</v>
+      </c>
+      <c r="D56" s="449">
+        <v>-359</v>
+      </c>
+      <c r="E56" s="449">
+        <v>-315</v>
+      </c>
+      <c r="F56" s="449">
+        <v>-311</v>
+      </c>
+      <c r="G56" s="454">
+        <v>-300</v>
+      </c>
+      <c r="I56" s="447" t="s">
+        <v>513</v>
+      </c>
+      <c r="J56" s="451">
+        <v>130</v>
+      </c>
+      <c r="K56" s="451">
+        <v>1</v>
+      </c>
+      <c r="L56" s="451">
+        <v>-6</v>
+      </c>
+      <c r="M56" s="451">
+        <v>-16</v>
+      </c>
+      <c r="N56" s="456">
+        <v>-2</v>
+      </c>
+      <c r="P56" s="446" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q56" s="449">
+        <f>-K47</f>
+        <v>659</v>
+      </c>
+      <c r="R56" s="449">
+        <f t="shared" ref="R56:T56" si="50">-L47</f>
+        <v>455</v>
+      </c>
+      <c r="S56" s="449">
+        <f t="shared" si="50"/>
+        <v>633</v>
+      </c>
+      <c r="T56" s="454">
+        <f t="shared" si="50"/>
+        <v>515</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="447" t="s">
+        <v>533</v>
+      </c>
+      <c r="C57" s="451">
+        <v>-604</v>
+      </c>
+      <c r="D57" s="451">
+        <v>-666</v>
+      </c>
+      <c r="E57" s="451">
+        <v>-626</v>
+      </c>
+      <c r="F57" s="451">
+        <v>-637</v>
+      </c>
+      <c r="G57" s="456">
+        <v>-668</v>
+      </c>
+      <c r="I57" s="501" t="s">
+        <v>547</v>
+      </c>
+      <c r="J57" s="502">
+        <f>J52+J54+J55+J56</f>
+        <v>2024</v>
+      </c>
+      <c r="K57" s="502">
+        <f t="shared" ref="K57:N57" si="51">K52+K54+K55+K56</f>
+        <v>225</v>
+      </c>
+      <c r="L57" s="502">
+        <f t="shared" si="51"/>
+        <v>286</v>
+      </c>
+      <c r="M57" s="502">
+        <f t="shared" si="51"/>
+        <v>284</v>
+      </c>
+      <c r="N57" s="503">
+        <f t="shared" si="51"/>
+        <v>397</v>
+      </c>
+      <c r="P57" s="446" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q57" s="449">
+        <f>C57-D57</f>
+        <v>62</v>
+      </c>
+      <c r="R57" s="449">
+        <f t="shared" ref="R57:T57" si="52">D57-E57</f>
+        <v>-40</v>
+      </c>
+      <c r="S57" s="449">
+        <f t="shared" si="52"/>
+        <v>11</v>
+      </c>
+      <c r="T57" s="454">
+        <f t="shared" si="52"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B58" s="448" t="s">
+        <v>534</v>
+      </c>
+      <c r="C58" s="450">
+        <f>C44+C53+C55+C56+C57</f>
+        <v>6293</v>
+      </c>
+      <c r="D58" s="450">
+        <f t="shared" ref="D58:G58" si="53">D44+D53+D55+D56+D57</f>
+        <v>6746</v>
+      </c>
+      <c r="E58" s="450">
+        <f t="shared" si="53"/>
+        <v>6391</v>
+      </c>
+      <c r="F58" s="450">
+        <f t="shared" si="53"/>
+        <v>6751</v>
+      </c>
+      <c r="G58" s="477">
+        <f t="shared" si="53"/>
+        <v>7075</v>
+      </c>
+      <c r="P58" s="446" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q58" s="449">
+        <f>C56-D56</f>
+        <v>32</v>
+      </c>
+      <c r="R58" s="449">
+        <f t="shared" ref="R58:T58" si="54">D56-E56</f>
+        <v>-44</v>
+      </c>
+      <c r="S58" s="449">
+        <f t="shared" si="54"/>
+        <v>-4</v>
+      </c>
+      <c r="T58" s="454">
+        <f t="shared" si="54"/>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B59" s="446"/>
+      <c r="C59" s="449"/>
+      <c r="D59" s="449"/>
+      <c r="E59" s="449"/>
+      <c r="F59" s="449"/>
+      <c r="G59" s="454"/>
+      <c r="P59" s="446" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q59" s="449">
+        <f>C55-D55</f>
+        <v>-52</v>
+      </c>
+      <c r="R59" s="449">
+        <f t="shared" ref="R59:T59" si="55">D55-E55</f>
+        <v>62</v>
+      </c>
+      <c r="S59" s="449">
+        <f t="shared" si="55"/>
+        <v>21</v>
+      </c>
+      <c r="T59" s="454">
+        <f t="shared" si="55"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B60" s="448" t="s">
+        <v>393</v>
+      </c>
+      <c r="C60" s="450">
+        <v>-3132</v>
+      </c>
+      <c r="D60" s="450">
+        <v>-3462</v>
+      </c>
+      <c r="E60" s="450">
+        <v>-3191</v>
+      </c>
+      <c r="F60" s="450">
+        <v>-3614</v>
+      </c>
+      <c r="G60" s="477">
+        <v>-3746</v>
+      </c>
+      <c r="P60" s="447" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q60" s="451">
+        <f>K55+K56</f>
+        <v>18</v>
+      </c>
+      <c r="R60" s="451">
+        <f t="shared" ref="R60:T60" si="56">L55+L56</f>
+        <v>-93</v>
+      </c>
+      <c r="S60" s="451">
+        <f t="shared" si="56"/>
+        <v>3</v>
+      </c>
+      <c r="T60" s="456">
+        <f t="shared" si="56"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B61" s="446"/>
+      <c r="C61" s="449"/>
+      <c r="D61" s="449"/>
+      <c r="E61" s="449"/>
+      <c r="F61" s="449"/>
+      <c r="G61" s="454"/>
+      <c r="P61" s="448" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q61" s="494">
+        <f>Q44+Q53+SUM(Q55:Q60)</f>
+        <v>-163.96706586826349</v>
+      </c>
+      <c r="R61" s="494">
+        <f t="shared" ref="R61:T61" si="57">R44+R53+SUM(R55:R60)</f>
+        <v>696.80208333333326</v>
+      </c>
+      <c r="S61" s="494">
+        <f t="shared" si="57"/>
+        <v>-73.876811594202877</v>
+      </c>
+      <c r="T61" s="495">
+        <f t="shared" si="57"/>
+        <v>191.91808873720134</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B62" s="446" t="s">
+        <v>535</v>
+      </c>
+      <c r="C62" s="449">
+        <v>-3720</v>
+      </c>
+      <c r="D62" s="449">
+        <v>-3973</v>
+      </c>
+      <c r="E62" s="449">
+        <v>-3926</v>
+      </c>
+      <c r="F62" s="449">
+        <v>-3741</v>
+      </c>
+      <c r="G62" s="454">
+        <v>-3636</v>
+      </c>
+      <c r="P62" s="497" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q62" s="498">
+        <f>Q61/Q41</f>
+        <v>-0.36681670216613754</v>
+      </c>
+      <c r="R62" s="498">
+        <f t="shared" ref="R62:T62" si="58">R61/R41</f>
+        <v>0.97591328197945837</v>
+      </c>
+      <c r="S62" s="498">
+        <f t="shared" si="58"/>
+        <v>-0.14571363233570586</v>
+      </c>
+      <c r="T62" s="499">
+        <f t="shared" si="58"/>
+        <v>0.27976397775102235</v>
+      </c>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B63" s="447" t="s">
+        <v>536</v>
+      </c>
+      <c r="C63" s="451">
+        <v>559</v>
+      </c>
+      <c r="D63" s="451">
+        <v>689</v>
+      </c>
+      <c r="E63" s="451">
+        <v>726</v>
+      </c>
+      <c r="F63" s="451">
+        <v>604</v>
+      </c>
+      <c r="G63" s="456">
+        <v>307</v>
+      </c>
+      <c r="P63" s="446"/>
+      <c r="Q63" s="449"/>
+      <c r="R63" s="449"/>
+      <c r="S63" s="449"/>
+      <c r="T63" s="454"/>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B64" s="453" t="s">
+        <v>537</v>
+      </c>
+      <c r="C64" s="473">
+        <f>C62+C63</f>
+        <v>-3161</v>
+      </c>
+      <c r="D64" s="473">
+        <f t="shared" ref="D64:G64" si="59">D62+D63</f>
+        <v>-3284</v>
+      </c>
+      <c r="E64" s="473">
+        <f t="shared" si="59"/>
+        <v>-3200</v>
+      </c>
+      <c r="F64" s="473">
+        <f t="shared" si="59"/>
+        <v>-3137</v>
+      </c>
+      <c r="G64" s="479">
+        <f t="shared" si="59"/>
+        <v>-3329</v>
+      </c>
+      <c r="P64" s="446" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q64" s="449">
+        <f>C43-D43+K51</f>
+        <v>-107</v>
+      </c>
+      <c r="R64" s="449">
+        <f t="shared" ref="R64:T64" si="60">D43-E43+L51</f>
+        <v>-103</v>
+      </c>
+      <c r="S64" s="449">
+        <f t="shared" si="60"/>
+        <v>-32</v>
+      </c>
+      <c r="T64" s="454">
+        <f t="shared" si="60"/>
+        <v>-151</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B65" s="448" t="s">
+        <v>538</v>
+      </c>
+      <c r="C65" s="450">
+        <f>C60+C64</f>
+        <v>-6293</v>
+      </c>
+      <c r="D65" s="450">
+        <f t="shared" ref="D65:G65" si="61">D60+D64</f>
+        <v>-6746</v>
+      </c>
+      <c r="E65" s="450">
+        <f t="shared" si="61"/>
+        <v>-6391</v>
+      </c>
+      <c r="F65" s="450">
+        <f t="shared" si="61"/>
+        <v>-6751</v>
+      </c>
+      <c r="G65" s="477">
+        <f t="shared" si="61"/>
+        <v>-7075</v>
+      </c>
+      <c r="P65" s="446" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q65" s="449">
+        <f>C62-D62</f>
+        <v>253</v>
+      </c>
+      <c r="R65" s="449">
+        <f t="shared" ref="R65:T65" si="62">D62-E62</f>
+        <v>-47</v>
+      </c>
+      <c r="S65" s="449">
+        <f t="shared" si="62"/>
+        <v>-185</v>
+      </c>
+      <c r="T65" s="454">
+        <f t="shared" si="62"/>
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="484" t="s">
+        <v>539</v>
+      </c>
+      <c r="C66" s="485">
+        <f>C58+C65</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="485">
+        <f t="shared" ref="D66:G66" si="63">D58+D65</f>
+        <v>0</v>
+      </c>
+      <c r="E66" s="485">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="F66" s="485">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="486">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="P66" s="447" t="s">
+        <v>561</v>
+      </c>
+      <c r="Q66" s="457">
+        <f>-Q43</f>
+        <v>42.967065868263475</v>
+      </c>
+      <c r="R66" s="457">
+        <f t="shared" ref="R66:T66" si="64">-R43</f>
+        <v>47.197916666666664</v>
+      </c>
+      <c r="S66" s="457">
+        <f t="shared" si="64"/>
+        <v>29.876811594202898</v>
+      </c>
+      <c r="T66" s="493">
+        <f t="shared" si="64"/>
+        <v>32.081911262798634</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="P67" s="448" t="s">
+        <v>562</v>
+      </c>
+      <c r="Q67" s="494">
+        <f>Q61+Q64+Q65+Q66</f>
+        <v>24.999999999999986</v>
+      </c>
+      <c r="R67" s="494">
+        <f t="shared" ref="R67:T67" si="65">R61+R64+R65+R66</f>
+        <v>593.99999999999989</v>
+      </c>
+      <c r="S67" s="494">
+        <f t="shared" si="65"/>
+        <v>-261</v>
+      </c>
+      <c r="T67" s="495">
+        <f t="shared" si="65"/>
+        <v>-32.000000000000021</v>
+      </c>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="P68" s="497" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q68" s="498">
+        <f>Q67/Q41</f>
+        <v>5.592841163310959E-2</v>
+      </c>
+      <c r="R68" s="498">
+        <f t="shared" ref="R68:T68" si="66">R67/R41</f>
+        <v>0.83193277310924352</v>
+      </c>
+      <c r="S68" s="498">
+        <f t="shared" si="66"/>
+        <v>-0.51479289940828399</v>
+      </c>
+      <c r="T68" s="499">
+        <f t="shared" si="66"/>
+        <v>-4.6647230320699742E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="P69" s="446"/>
+      <c r="Q69" s="449"/>
+      <c r="R69" s="449"/>
+      <c r="S69" s="449"/>
+      <c r="T69" s="454"/>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="P70" s="447" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q70" s="451">
+        <f>C60-D60-K57</f>
+        <v>105</v>
+      </c>
+      <c r="R70" s="451">
+        <f t="shared" ref="R70:T70" si="67">D60-E60-L57</f>
+        <v>-557</v>
+      </c>
+      <c r="S70" s="451">
+        <f t="shared" si="67"/>
+        <v>139</v>
+      </c>
+      <c r="T70" s="456">
+        <f t="shared" si="67"/>
+        <v>-265</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="P71" s="448" t="s">
+        <v>563</v>
+      </c>
+      <c r="Q71" s="494">
+        <f>Q67+Q70</f>
+        <v>130</v>
+      </c>
+      <c r="R71" s="494">
+        <f t="shared" ref="R71:T71" si="68">R67+R70</f>
+        <v>36.999999999999886</v>
+      </c>
+      <c r="S71" s="494">
+        <f t="shared" si="68"/>
+        <v>-122</v>
+      </c>
+      <c r="T71" s="495">
+        <f t="shared" si="68"/>
+        <v>-297</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="P72" s="446"/>
+      <c r="Q72" s="449"/>
+      <c r="R72" s="449"/>
+      <c r="S72" s="449"/>
+      <c r="T72" s="454"/>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="P73" s="448" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q73" s="450">
+        <f>D63-C63</f>
+        <v>130</v>
+      </c>
+      <c r="R73" s="450">
+        <f t="shared" ref="R73:T73" si="69">E63-D63</f>
+        <v>37</v>
+      </c>
+      <c r="S73" s="450">
+        <f t="shared" si="69"/>
+        <v>-122</v>
+      </c>
+      <c r="T73" s="477">
+        <f t="shared" si="69"/>
+        <v>-297</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="P74" s="295"/>
+      <c r="Q74" s="55"/>
+      <c r="R74" s="55"/>
+      <c r="S74" s="55"/>
+      <c r="T74" s="341"/>
+    </row>
+    <row r="75" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P75" s="511" t="s">
+        <v>569</v>
+      </c>
+      <c r="Q75" s="512">
+        <f>Q71-Q73</f>
+        <v>0</v>
+      </c>
+      <c r="R75" s="512">
+        <f t="shared" ref="R75:T75" si="70">R71-R73</f>
+        <v>-1.1368683772161603E-13</v>
+      </c>
+      <c r="S75" s="512">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="T75" s="513">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -62101,7 +65363,7 @@
   <dimension ref="A1:R71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="Q52" sqref="Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -62347,7 +65609,7 @@
     </row>
     <row r="36" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="37" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="332" t="s">
+      <c r="A37" s="331" t="s">
         <v>435</v>
       </c>
       <c r="B37" s="84"/>
@@ -62359,65 +65621,65 @@
       <c r="H37" s="84"/>
       <c r="I37" s="84"/>
       <c r="J37" s="113"/>
-      <c r="K37" s="366" t="s">
+      <c r="K37" s="508" t="s">
         <v>478</v>
       </c>
-      <c r="L37" s="366"/>
-      <c r="M37" s="363"/>
-      <c r="N37" s="378" t="s">
+      <c r="L37" s="365"/>
+      <c r="M37" s="362"/>
+      <c r="N37" s="377" t="s">
         <v>459</v>
       </c>
       <c r="O37" s="311" t="s">
         <v>485</v>
       </c>
-      <c r="P37" s="355"/>
-      <c r="Q37" s="378" t="s">
+      <c r="P37" s="354"/>
+      <c r="Q37" s="377" t="s">
         <v>459</v>
       </c>
-      <c r="R37" s="355" t="s">
+      <c r="R37" s="354" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="350" t="s">
+      <c r="A38" s="349" t="s">
         <v>436</v>
       </c>
-      <c r="B38" s="351"/>
-      <c r="C38" s="350" t="s">
+      <c r="B38" s="350"/>
+      <c r="C38" s="349" t="s">
         <v>437</v>
       </c>
-      <c r="D38" s="351"/>
-      <c r="E38" s="350" t="s">
+      <c r="D38" s="350"/>
+      <c r="E38" s="349" t="s">
         <v>438</v>
       </c>
-      <c r="F38" s="351"/>
-      <c r="G38" s="325"/>
-      <c r="H38" s="325"/>
-      <c r="I38" s="325"/>
+      <c r="F38" s="350"/>
+      <c r="G38" s="324"/>
+      <c r="H38" s="324"/>
+      <c r="I38" s="324"/>
       <c r="J38" s="107"/>
-      <c r="K38" s="295"/>
-      <c r="L38" s="352" t="s">
+      <c r="K38" s="55"/>
+      <c r="L38" s="351" t="s">
         <v>460</v>
       </c>
       <c r="M38" s="311" t="s">
         <v>461</v>
       </c>
-      <c r="N38" s="365">
+      <c r="N38" s="364">
         <f>'Balance sheet'!J110</f>
         <v>3651</v>
       </c>
-      <c r="O38" s="365">
+      <c r="O38" s="364">
         <f>'Balance sheet'!J110</f>
         <v>3651</v>
       </c>
-      <c r="P38" s="365" t="s">
+      <c r="P38" s="364" t="s">
         <v>481</v>
       </c>
-      <c r="Q38" s="365">
+      <c r="Q38" s="364">
         <f>N38/(N38+N40)</f>
         <v>0.50275406224180663</v>
       </c>
-      <c r="R38" s="365">
+      <c r="R38" s="364">
         <f>O38/(O38+O40)</f>
         <v>0.50275406224180663</v>
       </c>
@@ -62426,341 +65688,341 @@
       <c r="A39" s="295" t="s">
         <v>439</v>
       </c>
-      <c r="B39" s="336">
+      <c r="B39" s="335">
         <v>-7.2081146095294803E-4</v>
       </c>
       <c r="C39" s="295" t="s">
         <v>440</v>
       </c>
-      <c r="D39" s="340">
+      <c r="D39" s="339">
         <v>-7.2081146095294803E-4</v>
       </c>
       <c r="E39" s="295"/>
-      <c r="F39" s="342"/>
-      <c r="G39" s="325"/>
-      <c r="H39" s="325"/>
-      <c r="I39" s="325"/>
+      <c r="F39" s="341"/>
+      <c r="G39" s="324"/>
+      <c r="H39" s="324"/>
+      <c r="I39" s="324"/>
       <c r="J39" s="107"/>
-      <c r="K39" s="295"/>
-      <c r="L39" s="352" t="s">
+      <c r="K39" s="55"/>
+      <c r="L39" s="351" t="s">
         <v>462</v>
       </c>
       <c r="M39" s="311" t="s">
         <v>463</v>
       </c>
-      <c r="N39" s="365">
+      <c r="N39" s="364">
         <f>PRODUCT(1.67,3109.183856)</f>
         <v>5192.33703952</v>
       </c>
-      <c r="O39" s="365">
+      <c r="O39" s="364">
         <f>PRODUCT(1.12,3109.183856)</f>
         <v>3482.2859187200006</v>
       </c>
-      <c r="P39" s="365" t="s">
+      <c r="P39" s="364" t="s">
         <v>482</v>
       </c>
-      <c r="Q39" s="365">
+      <c r="Q39" s="364">
         <f>N40/(N38+N40)</f>
         <v>0.49724593775819331</v>
       </c>
-      <c r="R39" s="365">
+      <c r="R39" s="364">
         <f>O40/(O38+O40)</f>
         <v>0.49724593775819331</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="337" t="s">
+      <c r="A40" s="336" t="s">
         <v>441</v>
       </c>
-      <c r="B40" s="338">
+      <c r="B40" s="337">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="C40" s="337" t="s">
+      <c r="C40" s="336" t="s">
         <v>442</v>
       </c>
-      <c r="D40" s="338">
+      <c r="D40" s="337">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E40" s="344" t="s">
+      <c r="E40" s="343" t="s">
         <v>477</v>
       </c>
-      <c r="F40" s="348">
+      <c r="F40" s="347">
         <f>M53</f>
         <v>1.8253033707865168E-2</v>
       </c>
-      <c r="G40" s="325"/>
-      <c r="H40" s="326"/>
-      <c r="I40" s="326"/>
+      <c r="G40" s="324"/>
+      <c r="H40" s="325"/>
+      <c r="I40" s="325"/>
       <c r="J40" s="107"/>
-      <c r="K40" s="295"/>
-      <c r="L40" s="353" t="s">
+      <c r="K40" s="55"/>
+      <c r="L40" s="352" t="s">
         <v>464</v>
       </c>
       <c r="M40" s="311" t="s">
         <v>486</v>
       </c>
-      <c r="N40" s="365">
+      <c r="N40" s="364">
         <f>-'Reorganised Statements'!H39</f>
         <v>3611</v>
       </c>
-      <c r="O40" s="365">
+      <c r="O40" s="364">
         <f>-'Reorganised Statements'!H39</f>
         <v>3611</v>
       </c>
-      <c r="P40" s="374"/>
-      <c r="Q40" s="374"/>
-      <c r="R40" s="342"/>
+      <c r="P40" s="373"/>
+      <c r="Q40" s="373"/>
+      <c r="R40" s="341"/>
     </row>
     <row r="41" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="339" t="s">
+      <c r="A41" s="338" t="s">
         <v>443</v>
       </c>
-      <c r="B41" s="340">
+      <c r="B41" s="339">
         <f>SUM(B39:B40)</f>
         <v>1.4279188539047052E-2</v>
       </c>
-      <c r="C41" s="346" t="s">
+      <c r="C41" s="345" t="s">
         <v>443</v>
       </c>
-      <c r="D41" s="340">
+      <c r="D41" s="339">
         <f>SUM(D39:D40)</f>
         <v>1.4279188539047052E-2</v>
       </c>
       <c r="E41" s="295"/>
-      <c r="F41" s="342"/>
-      <c r="G41" s="325"/>
-      <c r="H41" s="325"/>
-      <c r="I41" s="325"/>
+      <c r="F41" s="341"/>
+      <c r="G41" s="324"/>
+      <c r="H41" s="324"/>
+      <c r="I41" s="324"/>
       <c r="J41" s="107"/>
-      <c r="K41" s="295"/>
-      <c r="L41" s="354" t="s">
+      <c r="K41" s="55"/>
+      <c r="L41" s="353" t="s">
         <v>465</v>
       </c>
-      <c r="M41" s="355"/>
-      <c r="N41" s="364">
+      <c r="M41" s="354"/>
+      <c r="N41" s="363">
         <f>(SUM(N42:N44))</f>
         <v>3754</v>
       </c>
-      <c r="O41" s="364">
+      <c r="O41" s="363">
         <f>(SUM(O42:O44))</f>
         <v>3754</v>
       </c>
-      <c r="P41" s="365" t="s">
+      <c r="P41" s="364" t="s">
         <v>483</v>
       </c>
-      <c r="Q41" s="365">
+      <c r="Q41" s="364">
         <f>N39/(N39+N41)</f>
         <v>0.58038692445669204</v>
       </c>
-      <c r="R41" s="365">
+      <c r="R41" s="364">
         <f>O39/(O39+O41)</f>
         <v>0.48122558420632017</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="337" t="s">
+      <c r="A42" s="336" t="s">
         <v>444</v>
       </c>
-      <c r="B42" s="338">
+      <c r="B42" s="337">
         <v>0.27900000000000003</v>
       </c>
-      <c r="C42" s="337" t="s">
+      <c r="C42" s="336" t="s">
         <v>444</v>
       </c>
-      <c r="D42" s="338">
+      <c r="D42" s="337">
         <v>0.27900000000000003</v>
       </c>
-      <c r="E42" s="337" t="s">
+      <c r="E42" s="336" t="s">
         <v>444</v>
       </c>
-      <c r="F42" s="338">
+      <c r="F42" s="337">
         <v>0.27900000000000003</v>
       </c>
-      <c r="G42" s="325"/>
-      <c r="H42" s="327"/>
-      <c r="I42" s="327"/>
+      <c r="G42" s="324"/>
+      <c r="H42" s="326"/>
+      <c r="I42" s="326"/>
       <c r="J42" s="107"/>
-      <c r="K42" s="295"/>
+      <c r="K42" s="55"/>
       <c r="L42" s="295"/>
-      <c r="M42" s="356" t="s">
+      <c r="M42" s="355" t="s">
         <v>466</v>
       </c>
-      <c r="N42" s="357">
+      <c r="N42" s="356">
         <v>3635</v>
       </c>
-      <c r="O42" s="356">
+      <c r="O42" s="355">
         <v>3635</v>
       </c>
-      <c r="P42" s="375" t="s">
+      <c r="P42" s="374" t="s">
         <v>484</v>
       </c>
-      <c r="Q42" s="365">
+      <c r="Q42" s="364">
         <f>1-Q41</f>
         <v>0.41961307554330796</v>
       </c>
-      <c r="R42" s="365">
+      <c r="R42" s="364">
         <f>1-R41</f>
         <v>0.51877441579367978</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A43" s="339" t="s">
+      <c r="A43" s="338" t="s">
         <v>445</v>
       </c>
-      <c r="B43" s="341">
+      <c r="B43" s="340">
         <f>PRODUCT(B41,(1-B42))</f>
         <v>1.0295294936652924E-2</v>
       </c>
-      <c r="C43" s="339" t="s">
+      <c r="C43" s="338" t="s">
         <v>445</v>
       </c>
-      <c r="D43" s="341">
+      <c r="D43" s="340">
         <f>PRODUCT(D41,(1-D42))</f>
         <v>1.0295294936652924E-2</v>
       </c>
-      <c r="E43" s="339" t="s">
+      <c r="E43" s="338" t="s">
         <v>446</v>
       </c>
-      <c r="F43" s="341">
+      <c r="F43" s="340">
         <f>PRODUCT(F40,(1-F42))</f>
         <v>1.3160437303370786E-2</v>
       </c>
-      <c r="G43" s="325"/>
-      <c r="H43" s="317"/>
-      <c r="I43" s="317"/>
+      <c r="G43" s="324"/>
+      <c r="H43" s="316"/>
+      <c r="I43" s="316"/>
       <c r="J43" s="107"/>
-      <c r="K43" s="295"/>
+      <c r="K43" s="55"/>
       <c r="L43" s="295"/>
-      <c r="M43" s="356" t="s">
+      <c r="M43" s="355" t="s">
         <v>109</v>
       </c>
-      <c r="N43" s="357">
+      <c r="N43" s="356">
         <v>2</v>
       </c>
-      <c r="O43" s="356">
+      <c r="O43" s="355">
         <v>2</v>
       </c>
       <c r="P43" s="55"/>
       <c r="Q43" s="55"/>
-      <c r="R43" s="342"/>
+      <c r="R43" s="341"/>
     </row>
     <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="295"/>
-      <c r="B44" s="342"/>
+      <c r="B44" s="341"/>
       <c r="C44" s="295"/>
-      <c r="D44" s="342"/>
+      <c r="D44" s="341"/>
       <c r="E44" s="295"/>
-      <c r="F44" s="349"/>
-      <c r="G44" s="325"/>
-      <c r="H44" s="318"/>
-      <c r="I44" s="318"/>
+      <c r="F44" s="348"/>
+      <c r="G44" s="324"/>
+      <c r="H44" s="317"/>
+      <c r="I44" s="317"/>
       <c r="J44" s="107"/>
-      <c r="K44" s="295"/>
+      <c r="K44" s="55"/>
       <c r="L44" s="307"/>
-      <c r="M44" s="358" t="s">
+      <c r="M44" s="357" t="s">
         <v>467</v>
       </c>
-      <c r="N44" s="359">
+      <c r="N44" s="358">
         <v>117</v>
       </c>
-      <c r="O44" s="358">
+      <c r="O44" s="357">
         <v>117</v>
       </c>
       <c r="P44" s="55"/>
       <c r="Q44" s="55"/>
-      <c r="R44" s="342"/>
+      <c r="R44" s="341"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45" s="339" t="s">
+      <c r="A45" s="338" t="s">
         <v>447</v>
       </c>
-      <c r="B45" s="336">
+      <c r="B45" s="335">
         <v>-7.2081146095294803E-4</v>
       </c>
       <c r="C45" s="295" t="s">
         <v>447</v>
       </c>
-      <c r="D45" s="340">
+      <c r="D45" s="339">
         <v>-7.2081146095294803E-4</v>
       </c>
       <c r="E45" s="295" t="s">
         <v>447</v>
       </c>
-      <c r="F45" s="336">
+      <c r="F45" s="335">
         <v>-7.2081146095294803E-4</v>
       </c>
-      <c r="G45" s="325"/>
-      <c r="H45" s="323"/>
-      <c r="I45" s="323"/>
-      <c r="J45" s="319"/>
-      <c r="K45" s="295"/>
+      <c r="G45" s="324"/>
+      <c r="H45" s="322"/>
+      <c r="I45" s="322"/>
+      <c r="J45" s="318"/>
+      <c r="K45" s="55"/>
       <c r="L45" s="295"/>
       <c r="M45" s="55"/>
       <c r="N45" s="55"/>
       <c r="O45" s="55"/>
       <c r="P45" s="55"/>
       <c r="Q45" s="55"/>
-      <c r="R45" s="342"/>
+      <c r="R45" s="341"/>
     </row>
     <row r="46" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="295" t="s">
         <v>448</v>
       </c>
-      <c r="B46" s="343">
+      <c r="B46" s="342">
         <v>2.99661426831043E-2</v>
       </c>
       <c r="C46" s="295" t="s">
         <v>448</v>
       </c>
-      <c r="D46" s="343">
+      <c r="D46" s="342">
         <v>2.99661426831043E-2</v>
       </c>
       <c r="E46" s="295" t="s">
         <v>448</v>
       </c>
-      <c r="F46" s="343">
+      <c r="F46" s="342">
         <v>2.99661426831043E-2</v>
       </c>
-      <c r="G46" s="325"/>
-      <c r="H46" s="326"/>
-      <c r="I46" s="326"/>
+      <c r="G46" s="324"/>
+      <c r="H46" s="325"/>
+      <c r="I46" s="325"/>
       <c r="J46" s="107"/>
       <c r="K46" s="367" t="s">
         <v>479</v>
       </c>
-      <c r="L46" s="367"/>
-      <c r="M46" s="368"/>
+      <c r="L46" s="366"/>
+      <c r="M46" s="367"/>
       <c r="N46" s="55"/>
       <c r="O46" s="55"/>
       <c r="P46" s="55"/>
       <c r="Q46" s="55"/>
-      <c r="R46" s="342"/>
+      <c r="R46" s="341"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="295" t="s">
         <v>449</v>
       </c>
-      <c r="B47" s="341">
+      <c r="B47" s="340">
         <v>4.0205104717786398E-2</v>
       </c>
       <c r="C47" s="295" t="s">
         <v>449</v>
       </c>
-      <c r="D47" s="343">
+      <c r="D47" s="342">
         <v>4.0205104717786398E-2</v>
       </c>
       <c r="E47" s="295" t="s">
         <v>449</v>
       </c>
-      <c r="F47" s="341">
+      <c r="F47" s="340">
         <v>4.0205104717786398E-2</v>
       </c>
-      <c r="G47" s="325"/>
-      <c r="H47" s="317"/>
-      <c r="I47" s="317"/>
+      <c r="G47" s="324"/>
+      <c r="H47" s="316"/>
+      <c r="I47" s="316"/>
       <c r="J47" s="107"/>
-      <c r="K47" s="295"/>
-      <c r="L47" s="369"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="368"/>
       <c r="M47" s="70" t="s">
         <v>468</v>
       </c>
@@ -62772,36 +66034,36 @@
       </c>
       <c r="P47" s="55"/>
       <c r="Q47" s="55"/>
-      <c r="R47" s="342"/>
+      <c r="R47" s="341"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48" s="339" t="s">
+      <c r="A48" s="338" t="s">
         <v>450</v>
       </c>
-      <c r="B48" s="343">
+      <c r="B48" s="342">
         <f>SUM(B46:B47)</f>
         <v>7.0171247400890702E-2</v>
       </c>
       <c r="C48" s="295" t="s">
         <v>450</v>
       </c>
-      <c r="D48" s="343">
+      <c r="D48" s="342">
         <f>SUM(D46:D47)</f>
         <v>7.0171247400890702E-2</v>
       </c>
       <c r="E48" s="295" t="s">
         <v>450</v>
       </c>
-      <c r="F48" s="343">
+      <c r="F48" s="342">
         <f>SUM(F46:F47)</f>
         <v>7.0171247400890702E-2</v>
       </c>
-      <c r="G48" s="325"/>
-      <c r="H48" s="326"/>
-      <c r="I48" s="326"/>
+      <c r="G48" s="324"/>
+      <c r="H48" s="325"/>
+      <c r="I48" s="325"/>
       <c r="J48" s="107"/>
-      <c r="K48" s="295"/>
-      <c r="L48" s="370" t="s">
+      <c r="K48" s="55"/>
+      <c r="L48" s="369" t="s">
         <v>471</v>
       </c>
       <c r="M48" s="70">
@@ -62815,33 +66077,33 @@
       </c>
       <c r="P48" s="55"/>
       <c r="Q48" s="55"/>
-      <c r="R48" s="342"/>
+      <c r="R48" s="341"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A49" s="344" t="s">
+      <c r="A49" s="343" t="s">
         <v>451</v>
       </c>
-      <c r="B49" s="345">
+      <c r="B49" s="344">
         <v>0.87311649000000002</v>
       </c>
-      <c r="C49" s="337" t="s">
+      <c r="C49" s="336" t="s">
         <v>452</v>
       </c>
-      <c r="D49" s="347">
+      <c r="D49" s="346">
         <v>0.83109791342430983</v>
       </c>
-      <c r="E49" s="337" t="s">
+      <c r="E49" s="336" t="s">
         <v>451</v>
       </c>
-      <c r="F49" s="345">
+      <c r="F49" s="344">
         <v>0.87311649000000002</v>
       </c>
-      <c r="G49" s="325"/>
-      <c r="H49" s="320"/>
-      <c r="I49" s="320"/>
+      <c r="G49" s="324"/>
+      <c r="H49" s="319"/>
+      <c r="I49" s="319"/>
       <c r="J49" s="107"/>
-      <c r="K49" s="295"/>
-      <c r="L49" s="370" t="s">
+      <c r="K49" s="55"/>
+      <c r="L49" s="369" t="s">
         <v>472</v>
       </c>
       <c r="M49" s="70">
@@ -62855,36 +66117,36 @@
       </c>
       <c r="P49" s="55"/>
       <c r="Q49" s="55"/>
-      <c r="R49" s="342"/>
+      <c r="R49" s="341"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="295" t="s">
         <v>453</v>
       </c>
-      <c r="B50" s="340">
+      <c r="B50" s="339">
         <f>B45+PRODUCT(B49,B48)</f>
         <v>6.0546861768634365E-2</v>
       </c>
       <c r="C50" s="295" t="s">
         <v>453</v>
       </c>
-      <c r="D50" s="340">
+      <c r="D50" s="339">
         <f>D45+PRODUCT(D48:D49)</f>
         <v>5.7598365836308334E-2</v>
       </c>
       <c r="E50" s="295" t="s">
         <v>453</v>
       </c>
-      <c r="F50" s="340">
+      <c r="F50" s="339">
         <f>SUM(F45,PRODUCT(F49,F48))</f>
         <v>6.0546861768634365E-2</v>
       </c>
-      <c r="G50" s="325"/>
-      <c r="H50" s="328"/>
-      <c r="I50" s="328"/>
+      <c r="G50" s="324"/>
+      <c r="H50" s="327"/>
+      <c r="I50" s="327"/>
       <c r="J50" s="107"/>
-      <c r="K50" s="295"/>
-      <c r="L50" s="370" t="s">
+      <c r="K50" s="55"/>
+      <c r="L50" s="369" t="s">
         <v>473</v>
       </c>
       <c r="M50" s="70">
@@ -62898,21 +66160,21 @@
       </c>
       <c r="P50" s="55"/>
       <c r="Q50" s="55"/>
-      <c r="R50" s="342"/>
+      <c r="R50" s="341"/>
     </row>
     <row r="51" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="295"/>
-      <c r="B51" s="342"/>
+      <c r="B51" s="341"/>
       <c r="C51" s="295"/>
-      <c r="D51" s="342"/>
+      <c r="D51" s="341"/>
       <c r="E51" s="295"/>
-      <c r="F51" s="342"/>
-      <c r="G51" s="325"/>
-      <c r="H51" s="325"/>
-      <c r="I51" s="325"/>
+      <c r="F51" s="341"/>
+      <c r="G51" s="324"/>
+      <c r="H51" s="324"/>
+      <c r="I51" s="324"/>
       <c r="J51" s="107"/>
-      <c r="K51" s="295"/>
-      <c r="L51" s="371" t="s">
+      <c r="K51" s="55"/>
+      <c r="L51" s="370" t="s">
         <v>474</v>
       </c>
       <c r="M51" s="70">
@@ -62926,117 +66188,125 @@
       </c>
       <c r="P51" s="55"/>
       <c r="Q51" s="55"/>
-      <c r="R51" s="342"/>
+      <c r="R51" s="341"/>
     </row>
     <row r="52" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="334" t="s">
+      <c r="A52" s="333" t="s">
         <v>454</v>
       </c>
-      <c r="B52" s="376">
+      <c r="B52" s="375">
         <f>B43*Q39 + B50*Q38</f>
         <v>3.5559474295447223E-2</v>
       </c>
-      <c r="C52" s="334" t="s">
+      <c r="C52" s="333" t="s">
         <v>475</v>
       </c>
-      <c r="D52" s="335"/>
-      <c r="E52" s="334" t="s">
+      <c r="D52" s="334"/>
+      <c r="E52" s="333" t="s">
         <v>476</v>
       </c>
-      <c r="F52" s="376">
+      <c r="F52" s="375">
         <f>F43*Q39+Q38*F50</f>
         <v>3.6984154698396575E-2</v>
       </c>
-      <c r="G52" s="325"/>
-      <c r="H52" s="324"/>
-      <c r="I52" s="324"/>
+      <c r="G52" s="324"/>
+      <c r="H52" s="323"/>
+      <c r="I52" s="323"/>
       <c r="J52" s="107"/>
-      <c r="K52" s="295"/>
+      <c r="K52" s="55"/>
       <c r="L52" s="295"/>
       <c r="M52" s="55"/>
       <c r="N52" s="55"/>
       <c r="O52" s="55"/>
       <c r="P52" s="55"/>
       <c r="Q52" s="55"/>
-      <c r="R52" s="342"/>
+      <c r="R52" s="341"/>
     </row>
     <row r="53" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="333" t="s">
+      <c r="A53" s="332" t="s">
         <v>455</v>
       </c>
-      <c r="B53" s="377">
+      <c r="B53" s="376">
         <f>B43*Q42+B50*Q41</f>
         <v>3.9460647259396547E-2</v>
       </c>
-      <c r="C53" s="333" t="s">
+      <c r="C53" s="332" t="s">
         <v>455</v>
       </c>
-      <c r="D53" s="377">
+      <c r="D53" s="376">
         <f>Q42*D43+D50*Q41</f>
         <v>3.7749378773460775E-2</v>
       </c>
-      <c r="E53" s="333" t="s">
+      <c r="E53" s="332" t="s">
         <v>455</v>
       </c>
-      <c r="F53" s="377">
+      <c r="F53" s="376">
         <f>F43*Q42+Q41*F50</f>
         <v>4.0662898459764465E-2</v>
       </c>
-      <c r="G53" s="325"/>
-      <c r="H53" s="324"/>
-      <c r="I53" s="324"/>
+      <c r="G53" s="324"/>
+      <c r="H53" s="323"/>
+      <c r="I53" s="323"/>
       <c r="J53" s="107"/>
-      <c r="K53" s="295"/>
-      <c r="L53" s="372" t="s">
+      <c r="K53" s="55"/>
+      <c r="L53" s="371" t="s">
         <v>480</v>
       </c>
-      <c r="M53" s="373">
+      <c r="M53" s="372">
         <f xml:space="preserve"> (PRODUCT(M48:O48) + PRODUCT(M49:O49) + PRODUCT(M50:O50) + PRODUCT(M51:O51)) / (PRODUCT(N48:O48) + PRODUCT(N49:O49) + PRODUCT(N50:O50) + PRODUCT(N51:O51))</f>
         <v>1.8253033707865168E-2</v>
       </c>
-      <c r="N53" s="360"/>
+      <c r="N53" s="359"/>
       <c r="O53" s="55"/>
       <c r="P53" s="55"/>
       <c r="Q53" s="55"/>
-      <c r="R53" s="342"/>
+      <c r="R53" s="341"/>
     </row>
     <row r="54" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="106"/>
-      <c r="F54" s="321" t="s">
+      <c r="B54" s="126"/>
+      <c r="C54" s="126"/>
+      <c r="D54" s="126"/>
+      <c r="E54" s="126"/>
+      <c r="F54" s="320" t="s">
         <v>456</v>
       </c>
-      <c r="G54" s="329"/>
-      <c r="H54" s="329"/>
-      <c r="I54" s="329"/>
-      <c r="J54" s="330"/>
-      <c r="K54" s="295"/>
+      <c r="G54" s="328"/>
+      <c r="H54" s="328"/>
+      <c r="I54" s="328"/>
+      <c r="J54" s="329"/>
+      <c r="K54" s="55"/>
       <c r="L54" s="295"/>
       <c r="M54" s="55"/>
       <c r="N54" s="55"/>
       <c r="O54" s="55"/>
       <c r="P54" s="55"/>
       <c r="Q54" s="55"/>
-      <c r="R54" s="342"/>
+      <c r="R54" s="341"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="106"/>
+      <c r="B55" s="126"/>
+      <c r="C55" s="126"/>
+      <c r="D55" s="126"/>
+      <c r="E55" s="126"/>
       <c r="F55" s="315" t="s">
         <v>457</v>
       </c>
-      <c r="G55" s="316"/>
-      <c r="H55" s="316"/>
-      <c r="I55" s="316"/>
-      <c r="J55" s="379"/>
-      <c r="K55" s="55" t="s">
+      <c r="G55" s="378"/>
+      <c r="H55" s="378"/>
+      <c r="I55" s="378"/>
+      <c r="J55" s="509"/>
+      <c r="K55" s="444" t="s">
         <v>487</v>
       </c>
-      <c r="L55" s="55"/>
-      <c r="M55" s="363"/>
-      <c r="N55" s="363"/>
-      <c r="O55" s="363"/>
-      <c r="P55" s="355"/>
+      <c r="L55" s="362"/>
+      <c r="M55" s="362"/>
+      <c r="N55" s="362"/>
+      <c r="O55" s="362"/>
+      <c r="P55" s="354"/>
       <c r="Q55" s="55"/>
-      <c r="R55" s="342"/>
+      <c r="R55" s="341"/>
     </row>
     <row r="56" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="108"/>
@@ -63044,29 +66314,29 @@
       <c r="C56" s="92"/>
       <c r="D56" s="92"/>
       <c r="E56" s="92"/>
-      <c r="F56" s="322" t="s">
+      <c r="F56" s="321" t="s">
         <v>458</v>
       </c>
-      <c r="G56" s="331"/>
-      <c r="H56" s="331"/>
-      <c r="I56" s="331"/>
-      <c r="J56" s="331"/>
-      <c r="K56" s="55"/>
-      <c r="L56" s="55"/>
-      <c r="M56" s="361" t="s">
+      <c r="G56" s="330"/>
+      <c r="H56" s="330"/>
+      <c r="I56" s="330"/>
+      <c r="J56" s="510"/>
+      <c r="K56" s="307"/>
+      <c r="L56" s="360"/>
+      <c r="M56" s="360" t="s">
         <v>165</v>
       </c>
-      <c r="N56" s="361" t="s">
+      <c r="N56" s="360" t="s">
         <v>488</v>
       </c>
-      <c r="O56" s="361" t="s">
+      <c r="O56" s="360" t="s">
         <v>489</v>
       </c>
-      <c r="P56" s="362" t="s">
+      <c r="P56" s="361" t="s">
         <v>490</v>
       </c>
-      <c r="Q56" s="361"/>
-      <c r="R56" s="362"/>
+      <c r="Q56" s="360"/>
+      <c r="R56" s="361"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K57" s="295" t="s">
@@ -63082,7 +66352,7 @@
       <c r="O57" s="55">
         <v>0.41</v>
       </c>
-      <c r="P57" s="342">
+      <c r="P57" s="341">
         <v>0.21556170986369683</v>
       </c>
       <c r="Q57" s="1"/>
@@ -63101,7 +66371,7 @@
       <c r="O58" s="55">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P58" s="342">
+      <c r="P58" s="341">
         <v>1.9798728312687879E-3</v>
       </c>
       <c r="Q58" s="55"/>
@@ -63121,7 +66391,7 @@
       <c r="O59" s="55">
         <v>0.6</v>
       </c>
-      <c r="P59" s="342">
+      <c r="P59" s="341">
         <v>0.10515205359204725</v>
       </c>
       <c r="Q59" s="55"/>
@@ -63141,7 +66411,7 @@
       <c r="O60" s="55">
         <v>0.8</v>
       </c>
-      <c r="P60" s="342">
+      <c r="P60" s="341">
         <v>9.900494819165899E-2</v>
       </c>
       <c r="Q60" s="55"/>
@@ -63153,7 +66423,7 @@
       <c r="M61" s="55"/>
       <c r="N61" s="55"/>
       <c r="O61" s="55"/>
-      <c r="P61" s="342">
+      <c r="P61" s="341">
         <v>0</v>
       </c>
       <c r="Q61" s="55"/>
@@ -63173,7 +66443,7 @@
       <c r="O62" s="55">
         <v>0.74</v>
       </c>
-      <c r="P62" s="342">
+      <c r="P62" s="341">
         <v>0.12461820257503316</v>
       </c>
       <c r="Q62" s="55"/>
@@ -63191,7 +66461,7 @@
       <c r="O63" s="55">
         <v>0.91</v>
       </c>
-      <c r="P63" s="342">
+      <c r="P63" s="341">
         <v>0</v>
       </c>
       <c r="Q63" s="55"/>
@@ -63201,15 +66471,15 @@
       <c r="K64" s="307" t="s">
         <v>497</v>
       </c>
-      <c r="L64" s="361"/>
-      <c r="M64" s="361">
+      <c r="L64" s="360"/>
+      <c r="M64" s="360">
         <v>7296.6050000000014</v>
       </c>
-      <c r="N64" s="361">
+      <c r="N64" s="360">
         <v>0.99999999999999989</v>
       </c>
-      <c r="O64" s="361"/>
-      <c r="P64" s="362">
+      <c r="O64" s="360"/>
+      <c r="P64" s="361">
         <v>0.54631678705370501</v>
       </c>
       <c r="Q64" s="55"/>

--- a/Project/Work in progress/A2A.xlsx
+++ b/Project/Work in progress/A2A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\OneDrive\Desktop\Corporate-project-\Project\Work in progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2933" documentId="13_ncr:1_{62DBAB82-5A4C-4989-B565-9531680DA6CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1427469B-5298-4FAE-81BE-66A165109ADA}"/>
+  <xr:revisionPtr revIDLastSave="3062" documentId="13_ncr:1_{62DBAB82-5A4C-4989-B565-9531680DA6CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B342CEE4-9BD5-4E1F-B20D-A78540FBBFAA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fin statements overview" sheetId="10" r:id="rId1"/>
@@ -18,15 +18,16 @@
     <sheet name="Income Statement" sheetId="3" r:id="rId3"/>
     <sheet name="Reorganised Statements" sheetId="2" r:id="rId4"/>
     <sheet name="Cash flows" sheetId="8" r:id="rId5"/>
-    <sheet name="Trailing 12-months" sheetId="5" r:id="rId6"/>
-    <sheet name="ratio" sheetId="6" r:id="rId7"/>
-    <sheet name="WACC " sheetId="7" r:id="rId8"/>
-    <sheet name="Forecasts Simo " sheetId="9" r:id="rId9"/>
-    <sheet name="Forecasts Gianma " sheetId="11" r:id="rId10"/>
+    <sheet name="Consob Reorg " sheetId="12" r:id="rId6"/>
+    <sheet name="Trailing 12-months" sheetId="5" r:id="rId7"/>
+    <sheet name="ratio" sheetId="6" r:id="rId8"/>
+    <sheet name="WACC " sheetId="7" r:id="rId9"/>
+    <sheet name="Forecasts Simo " sheetId="9" r:id="rId10"/>
+    <sheet name="Forecasts Gianma " sheetId="11" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="588">
   <si>
     <t>BALANCE SHEET</t>
   </si>
@@ -1817,6 +1818,21 @@
   <si>
     <t xml:space="preserve">Historicals </t>
   </si>
+  <si>
+    <t xml:space="preserve">(Values included in NPF) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non current derivatives </t>
+  </si>
+  <si>
+    <t>Total medium long term financial receivables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current financial assets </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ∆ Current financial assets </t>
+  </si>
 </sst>
 </file>
 
@@ -2291,7 +2307,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -2983,6 +2999,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2990,7 +3019,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="533">
+  <cellXfs count="559">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3504,36 +3533,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="42" fillId="18" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="42" fillId="13" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3574,6 +3573,68 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="11" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="14" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="29" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="29" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="11" fillId="7" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="6" fillId="5" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Migliaia" xfId="2" builtinId="3"/>
@@ -3916,6 +3977,411 @@
             <a:rPr lang="it-IT" sz="1100" baseline="0"/>
             <a:t> paid on a potential full equity firm : I subtract the tax shield generated by financial items at the reported tax rate: reported taxes / EBT </a:t>
           </a:r>
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>65616</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>13123</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CasellaDiTesto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5AC9C0F-1F8A-496E-87FF-D9041337C47E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9555480" y="5509260"/>
+          <a:ext cx="2336376" cy="615103"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Notiche that item "Deffered tax" was already reported at net value on Balance sheet</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>157056</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CasellaDiTesto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96445F0D-30E0-4FD7-972F-C68AD2B97E42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9646920" y="8488680"/>
+          <a:ext cx="2336376" cy="944880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Notic</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>e, this is Net debt computation according to Consob rules, different from what we computed in Overviews. We find more realistic that way of computation. </a:t>
+          </a:r>
+          <a:endParaRPr lang="it-IT" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CasellaDiTesto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDAC2FFD-E500-445B-AD8C-09107F89B5A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8869680" y="23637240"/>
+          <a:ext cx="3238500" cy="472440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>Taxes</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t> paid on a potential full equity firm : I subtract the tax shield generated by financial items at the reported tax rate: reported taxes / EBT </a:t>
+          </a:r>
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>230505</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="CasellaDiTesto 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FB124CE-457E-4EB2-915B-4215870865A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8976360" y="26128980"/>
+          <a:ext cx="3133725" cy="586740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Adding back "Depreciation &amp; Ammortization"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> item allow us to not double count it, because we have already considered it in the computation of EBIT</a:t>
+          </a:r>
+          <a:endParaRPr lang="it-IT" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="CasellaDiTesto 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E7FE1D2-0A15-4597-B7DB-F1051FB420F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8968740" y="29504640"/>
+          <a:ext cx="2941320" cy="624840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>This</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t> value comes from modification In BS net debt side (according to Consob) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="it-IT" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -7201,6 +7667,1297 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0077E9-5EBC-43DF-AC77-55E4CE163A6D}">
+  <dimension ref="A1:W56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="123" t="s">
+        <v>582</v>
+      </c>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="474" t="s">
+        <v>581</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="101" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="102" t="s">
+        <v>307</v>
+      </c>
+      <c r="R6" s="103"/>
+      <c r="S6" s="103"/>
+      <c r="T6" s="103">
+        <v>2018</v>
+      </c>
+      <c r="U6" s="103"/>
+      <c r="V6" s="104">
+        <v>2023</v>
+      </c>
+      <c r="W6" s="105" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="106" t="s">
+        <v>309</v>
+      </c>
+      <c r="T7">
+        <v>359</v>
+      </c>
+      <c r="V7" s="107">
+        <v>323</v>
+      </c>
+      <c r="W7" s="87"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="106" t="s">
+        <v>310</v>
+      </c>
+      <c r="T8">
+        <v>187</v>
+      </c>
+      <c r="V8" s="107">
+        <v>323</v>
+      </c>
+      <c r="W8" s="87"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="106" t="s">
+        <v>311</v>
+      </c>
+      <c r="T9">
+        <v>269</v>
+      </c>
+      <c r="V9" s="107">
+        <v>381</v>
+      </c>
+      <c r="W9" s="87"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="106" t="s">
+        <v>312</v>
+      </c>
+      <c r="T10">
+        <v>406</v>
+      </c>
+      <c r="V10" s="107">
+        <v>518</v>
+      </c>
+      <c r="W10" s="87"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="106" t="s">
+        <v>45</v>
+      </c>
+      <c r="T11">
+        <v>-29</v>
+      </c>
+      <c r="V11" s="107">
+        <v>-14</v>
+      </c>
+      <c r="W11" s="87"/>
+    </row>
+    <row r="12" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="522"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="108" t="s">
+        <v>110</v>
+      </c>
+      <c r="R12" s="92"/>
+      <c r="S12" s="92"/>
+      <c r="T12" s="92">
+        <f>SUM(T7:T11)</f>
+        <v>1192</v>
+      </c>
+      <c r="U12" s="92"/>
+      <c r="V12" s="109">
+        <f>SUM(V7:V11)</f>
+        <v>1531</v>
+      </c>
+      <c r="W12" s="110">
+        <f>(V12-T12)/T12</f>
+        <v>0.28439597315436244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="102" t="s">
+        <v>313</v>
+      </c>
+      <c r="R14" s="103"/>
+      <c r="S14" s="103"/>
+      <c r="T14" s="103" t="s">
+        <v>314</v>
+      </c>
+      <c r="U14" s="103"/>
+      <c r="V14" s="104" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="106" t="s">
+        <v>315</v>
+      </c>
+      <c r="T15">
+        <v>2607</v>
+      </c>
+      <c r="U15" t="s">
+        <v>312</v>
+      </c>
+      <c r="V15" s="107">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="106" t="s">
+        <v>316</v>
+      </c>
+      <c r="T16">
+        <v>1378</v>
+      </c>
+      <c r="U16" t="s">
+        <v>317</v>
+      </c>
+      <c r="V16" s="107">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="106"/>
+      <c r="U17" t="s">
+        <v>311</v>
+      </c>
+      <c r="V17" s="107">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="106"/>
+      <c r="U18" t="s">
+        <v>318</v>
+      </c>
+      <c r="V18" s="107">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="106"/>
+      <c r="U19" t="s">
+        <v>319</v>
+      </c>
+      <c r="V19" s="107">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="106"/>
+      <c r="U20" t="s">
+        <v>320</v>
+      </c>
+      <c r="V20" s="107">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="106"/>
+      <c r="U21" t="s">
+        <v>321</v>
+      </c>
+      <c r="V21" s="107">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="108" t="s">
+        <v>16</v>
+      </c>
+      <c r="R22" s="92"/>
+      <c r="S22" s="92"/>
+      <c r="T22" s="92">
+        <f>SUM(T15:T16)</f>
+        <v>3985</v>
+      </c>
+      <c r="U22" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="V22" s="109">
+        <f>SUM(V15:V21)</f>
+        <v>3987</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="112" t="s">
+        <v>322</v>
+      </c>
+      <c r="R24" s="84"/>
+      <c r="S24" s="84"/>
+      <c r="T24" s="113"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="106" t="s">
+        <v>323</v>
+      </c>
+      <c r="T25" s="114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="106" t="s">
+        <v>324</v>
+      </c>
+      <c r="T26" s="107">
+        <v>-6.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="106" t="s">
+        <v>325</v>
+      </c>
+      <c r="T27" s="107">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="106" t="s">
+        <v>326</v>
+      </c>
+      <c r="T28" s="107">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="106" t="s">
+        <v>327</v>
+      </c>
+      <c r="T29" s="107">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="106" t="s">
+        <v>328</v>
+      </c>
+      <c r="T30" s="107">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="106" t="s">
+        <v>329</v>
+      </c>
+      <c r="T31" s="107">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="106" t="s">
+        <v>330</v>
+      </c>
+      <c r="T32" s="107">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="106" t="s">
+        <v>331</v>
+      </c>
+      <c r="T33" s="107">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="106" t="s">
+        <v>332</v>
+      </c>
+      <c r="T34" s="114">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="106" t="s">
+        <v>333</v>
+      </c>
+      <c r="T35" s="107">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="106" t="s">
+        <v>319</v>
+      </c>
+      <c r="T36" s="107">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="122"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="108" t="s">
+        <v>334</v>
+      </c>
+      <c r="R37" s="92"/>
+      <c r="S37" s="92"/>
+      <c r="T37" s="115">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25DC7F48-2C04-4736-A7FC-B90E14461610}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7217,7 +8974,7 @@
   <dimension ref="A1:EN581"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
@@ -7392,14 +9149,14 @@
       <c r="B2" s="62"/>
       <c r="C2" s="63"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="483" t="s">
+      <c r="E2" s="523" t="s">
         <v>158</v>
       </c>
-      <c r="F2" s="483"/>
-      <c r="G2" s="483"/>
-      <c r="H2" s="483"/>
-      <c r="I2" s="483"/>
-      <c r="J2" s="483"/>
+      <c r="F2" s="523"/>
+      <c r="G2" s="523"/>
+      <c r="H2" s="523"/>
+      <c r="I2" s="523"/>
+      <c r="J2" s="523"/>
       <c r="K2" s="195"/>
       <c r="L2" s="195"/>
       <c r="M2" s="195"/>
@@ -51127,7 +52884,7 @@
       <c r="R26" s="55"/>
       <c r="T26" s="71"/>
     </row>
-    <row r="27" spans="2:20" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B27" s="8"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -51150,7 +52907,7 @@
         <v>2.437043054427295E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:20" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B28" s="15" t="s">
         <v>198</v>
       </c>
@@ -51189,7 +52946,7 @@
       <c r="R28" s="55"/>
       <c r="T28" s="71"/>
     </row>
-    <row r="29" spans="2:20" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B29" s="8"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -53203,7 +54960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E6A2F6-3F0D-4770-954F-DCD44B8A0D2B}">
   <dimension ref="A1:T434"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
@@ -53218,10 +54975,10 @@
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="146"/>
-      <c r="B1" s="485" t="s">
+      <c r="B1" s="525" t="s">
         <v>368</v>
       </c>
-      <c r="C1" s="485"/>
+      <c r="C1" s="525"/>
       <c r="D1" s="148"/>
       <c r="E1" s="148"/>
       <c r="F1" s="148"/>
@@ -53241,14 +54998,14 @@
     <row r="2" spans="1:18" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A2" s="146"/>
       <c r="B2" s="146"/>
-      <c r="C2" s="484" t="s">
+      <c r="C2" s="524" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="484"/>
-      <c r="E2" s="484"/>
-      <c r="F2" s="484"/>
-      <c r="G2" s="484"/>
-      <c r="H2" s="484"/>
+      <c r="D2" s="524"/>
+      <c r="E2" s="524"/>
+      <c r="F2" s="524"/>
+      <c r="G2" s="524"/>
+      <c r="H2" s="524"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -54683,13 +56440,13 @@
       <c r="A49" s="146"/>
       <c r="B49" s="129"/>
       <c r="C49" s="129"/>
-      <c r="D49" s="486" t="s">
+      <c r="D49" s="526" t="s">
         <v>163</v>
       </c>
-      <c r="E49" s="486"/>
-      <c r="F49" s="486"/>
-      <c r="G49" s="486"/>
-      <c r="H49" s="486"/>
+      <c r="E49" s="526"/>
+      <c r="F49" s="526"/>
+      <c r="G49" s="526"/>
+      <c r="H49" s="526"/>
       <c r="I49" s="5"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -60487,12 +62244,12 @@
       <c r="A2" s="292"/>
       <c r="B2" s="285"/>
       <c r="C2" s="64"/>
-      <c r="D2" s="487" t="s">
+      <c r="D2" s="527" t="s">
         <v>163</v>
       </c>
-      <c r="E2" s="487"/>
-      <c r="F2" s="487"/>
-      <c r="G2" s="488"/>
+      <c r="E2" s="527"/>
+      <c r="F2" s="527"/>
+      <c r="G2" s="528"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="293"/>
@@ -61259,6 +63016,4017 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C464B2C-8398-479F-9B39-083013074D33}">
+  <dimension ref="A1:L168"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B173" sqref="B173"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="53.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="529" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1" s="530"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="352"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="353"/>
+      <c r="B2" s="524" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="524"/>
+      <c r="D2" s="524"/>
+      <c r="E2" s="524"/>
+      <c r="F2" s="524"/>
+      <c r="G2" s="531"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="293"/>
+      <c r="B3" s="144" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="147">
+        <v>42369</v>
+      </c>
+      <c r="D3" s="147">
+        <v>42735</v>
+      </c>
+      <c r="E3" s="147">
+        <v>43100</v>
+      </c>
+      <c r="F3" s="147">
+        <v>43465</v>
+      </c>
+      <c r="G3" s="354">
+        <v>43830</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="355"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="296"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="356" t="s">
+        <v>381</v>
+      </c>
+      <c r="B5" s="161"/>
+      <c r="C5" s="171">
+        <v>5067</v>
+      </c>
+      <c r="D5" s="163">
+        <v>5129</v>
+      </c>
+      <c r="E5" s="163">
+        <v>4606</v>
+      </c>
+      <c r="F5" s="163">
+        <v>4620</v>
+      </c>
+      <c r="G5" s="357">
+        <v>4869</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="356" t="s">
+        <v>382</v>
+      </c>
+      <c r="B6" s="161"/>
+      <c r="C6" s="171">
+        <v>1348</v>
+      </c>
+      <c r="D6" s="163">
+        <v>1704</v>
+      </c>
+      <c r="E6" s="163">
+        <v>1863</v>
+      </c>
+      <c r="F6" s="163">
+        <v>2302</v>
+      </c>
+      <c r="G6" s="357">
+        <v>2379</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="356" t="s">
+        <v>377</v>
+      </c>
+      <c r="B7" s="161"/>
+      <c r="C7" s="171">
+        <v>137</v>
+      </c>
+      <c r="D7" s="163">
+        <v>136</v>
+      </c>
+      <c r="E7" s="163">
+        <v>107</v>
+      </c>
+      <c r="F7" s="163">
+        <v>45</v>
+      </c>
+      <c r="G7" s="357">
+        <v>65</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="366" t="s">
+        <v>583</v>
+      </c>
+      <c r="B8" s="162"/>
+      <c r="C8" s="172">
+        <v>-57</v>
+      </c>
+      <c r="D8" s="164">
+        <v>-56</v>
+      </c>
+      <c r="E8" s="164">
+        <v>-36</v>
+      </c>
+      <c r="F8" s="164">
+        <v>-22</v>
+      </c>
+      <c r="G8" s="378">
+        <v>-20</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="358" t="s">
+        <v>383</v>
+      </c>
+      <c r="B9" s="359"/>
+      <c r="C9" s="166">
+        <f>SUM(C5:C8)</f>
+        <v>6495</v>
+      </c>
+      <c r="D9" s="166">
+        <f t="shared" ref="D9:G9" si="0">SUM(D5:D8)</f>
+        <v>6913</v>
+      </c>
+      <c r="E9" s="166">
+        <f t="shared" si="0"/>
+        <v>6540</v>
+      </c>
+      <c r="F9" s="166">
+        <f t="shared" si="0"/>
+        <v>6945</v>
+      </c>
+      <c r="G9" s="360">
+        <f t="shared" si="0"/>
+        <v>7293</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="356"/>
+      <c r="B10" s="161"/>
+      <c r="C10" s="171"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="357"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="356" t="s">
+        <v>372</v>
+      </c>
+      <c r="B11" s="161"/>
+      <c r="C11" s="171">
+        <v>184</v>
+      </c>
+      <c r="D11" s="163">
+        <v>159</v>
+      </c>
+      <c r="E11" s="163">
+        <v>147</v>
+      </c>
+      <c r="F11" s="163">
+        <v>187</v>
+      </c>
+      <c r="G11" s="357">
+        <v>184</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="356" t="s">
+        <v>373</v>
+      </c>
+      <c r="B12" s="161"/>
+      <c r="C12" s="171">
+        <v>1485</v>
+      </c>
+      <c r="D12" s="163">
+        <v>1821</v>
+      </c>
+      <c r="E12" s="163">
+        <v>1671</v>
+      </c>
+      <c r="F12" s="163">
+        <v>1781</v>
+      </c>
+      <c r="G12" s="357">
+        <v>1852</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="356" t="s">
+        <v>378</v>
+      </c>
+      <c r="B13" s="161"/>
+      <c r="C13" s="171">
+        <v>-1170</v>
+      </c>
+      <c r="D13" s="163">
+        <v>-1384</v>
+      </c>
+      <c r="E13" s="163">
+        <v>-1381</v>
+      </c>
+      <c r="F13" s="163">
+        <v>-1413</v>
+      </c>
+      <c r="G13" s="357">
+        <v>-1481</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="361" t="s">
+        <v>384</v>
+      </c>
+      <c r="B14" s="362"/>
+      <c r="C14" s="186">
+        <f>SUM(C11:C13)</f>
+        <v>499</v>
+      </c>
+      <c r="D14" s="186">
+        <f t="shared" ref="D14:G14" si="1">SUM(D11:D13)</f>
+        <v>596</v>
+      </c>
+      <c r="E14" s="186">
+        <f t="shared" si="1"/>
+        <v>437</v>
+      </c>
+      <c r="F14" s="186">
+        <f t="shared" si="1"/>
+        <v>555</v>
+      </c>
+      <c r="G14" s="535">
+        <f t="shared" si="1"/>
+        <v>555</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="364"/>
+      <c r="B15" s="160"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="365"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="356" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="161"/>
+      <c r="C16" s="163">
+        <f>SUM(C17:C23)</f>
+        <v>465</v>
+      </c>
+      <c r="D16" s="163">
+        <f t="shared" ref="D16:G16" si="2">SUM(D17:D23)</f>
+        <v>473</v>
+      </c>
+      <c r="E16" s="163">
+        <f t="shared" si="2"/>
+        <v>555</v>
+      </c>
+      <c r="F16" s="163">
+        <f t="shared" si="2"/>
+        <v>486</v>
+      </c>
+      <c r="G16" s="357">
+        <f t="shared" si="2"/>
+        <v>653</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="356" t="s">
+        <v>374</v>
+      </c>
+      <c r="B17" s="161"/>
+      <c r="C17" s="171">
+        <v>183</v>
+      </c>
+      <c r="D17" s="163">
+        <v>389</v>
+      </c>
+      <c r="E17" s="163">
+        <v>216</v>
+      </c>
+      <c r="F17" s="163">
+        <v>313</v>
+      </c>
+      <c r="G17" s="357">
+        <v>567</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="356" t="s">
+        <v>375</v>
+      </c>
+      <c r="B18" s="161"/>
+      <c r="C18" s="171">
+        <v>171</v>
+      </c>
+      <c r="D18" s="163">
+        <v>218</v>
+      </c>
+      <c r="E18" s="163">
+        <v>8</v>
+      </c>
+      <c r="F18" s="163">
+        <v>16</v>
+      </c>
+      <c r="G18" s="357">
+        <v>10</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="366" t="s">
+        <v>583</v>
+      </c>
+      <c r="B19" s="162"/>
+      <c r="C19" s="172">
+        <v>-171</v>
+      </c>
+      <c r="D19" s="164">
+        <v>-218</v>
+      </c>
+      <c r="E19" s="164">
+        <v>-8</v>
+      </c>
+      <c r="F19" s="164">
+        <v>-16</v>
+      </c>
+      <c r="G19" s="378">
+        <v>-10</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="367" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="174"/>
+      <c r="C20" s="171">
+        <v>6</v>
+      </c>
+      <c r="D20" s="163">
+        <v>12</v>
+      </c>
+      <c r="E20" s="163">
+        <v>8</v>
+      </c>
+      <c r="F20" s="163">
+        <v>20</v>
+      </c>
+      <c r="G20" s="357">
+        <v>25</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="536" t="s">
+        <v>583</v>
+      </c>
+      <c r="B21" s="537"/>
+      <c r="C21" s="172">
+        <v>0</v>
+      </c>
+      <c r="D21" s="164">
+        <v>-4</v>
+      </c>
+      <c r="E21" s="164">
+        <v>0</v>
+      </c>
+      <c r="F21" s="164">
+        <v>-8</v>
+      </c>
+      <c r="G21" s="378">
+        <v>-2</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="356" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="161"/>
+      <c r="C22" s="171">
+        <v>71</v>
+      </c>
+      <c r="D22" s="163">
+        <v>70</v>
+      </c>
+      <c r="E22" s="163">
+        <v>107</v>
+      </c>
+      <c r="F22" s="163">
+        <v>49</v>
+      </c>
+      <c r="G22" s="357">
+        <v>63</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="367" t="s">
+        <v>376</v>
+      </c>
+      <c r="B23" s="161"/>
+      <c r="C23" s="171">
+        <v>205</v>
+      </c>
+      <c r="D23" s="163">
+        <v>6</v>
+      </c>
+      <c r="E23" s="163">
+        <v>224</v>
+      </c>
+      <c r="F23" s="163">
+        <v>112</v>
+      </c>
+      <c r="G23" s="357">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="356" t="s">
+        <v>396</v>
+      </c>
+      <c r="B24" s="161"/>
+      <c r="C24" s="171">
+        <f>SUM(C25:C28)</f>
+        <v>-656</v>
+      </c>
+      <c r="D24" s="171">
+        <f t="shared" ref="D24:G24" si="3">SUM(D25:D28)</f>
+        <v>-874</v>
+      </c>
+      <c r="E24" s="171">
+        <f t="shared" si="3"/>
+        <v>-650</v>
+      </c>
+      <c r="F24" s="171">
+        <f t="shared" si="3"/>
+        <v>-749</v>
+      </c>
+      <c r="G24" s="368">
+        <f t="shared" si="3"/>
+        <v>-990</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="356" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="161"/>
+      <c r="C25" s="171">
+        <v>-72</v>
+      </c>
+      <c r="D25" s="163">
+        <v>-90</v>
+      </c>
+      <c r="E25" s="163">
+        <v>-125</v>
+      </c>
+      <c r="F25" s="163">
+        <v>-134</v>
+      </c>
+      <c r="G25" s="357">
+        <v>-140</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="356" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" s="161"/>
+      <c r="C26" s="171">
+        <v>-43</v>
+      </c>
+      <c r="D26" s="163">
+        <v>-33</v>
+      </c>
+      <c r="E26" s="163">
+        <v>-4</v>
+      </c>
+      <c r="F26" s="163">
+        <v>-34</v>
+      </c>
+      <c r="G26" s="357">
+        <v>-6</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="356" t="s">
+        <v>379</v>
+      </c>
+      <c r="B27" s="161"/>
+      <c r="C27" s="171">
+        <v>-521</v>
+      </c>
+      <c r="D27" s="163">
+        <v>-744</v>
+      </c>
+      <c r="E27" s="163">
+        <v>-521</v>
+      </c>
+      <c r="F27" s="163">
+        <v>-581</v>
+      </c>
+      <c r="G27" s="357">
+        <v>-844</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="356" t="s">
+        <v>430</v>
+      </c>
+      <c r="B28" s="161"/>
+      <c r="C28" s="171">
+        <v>-20</v>
+      </c>
+      <c r="D28" s="163">
+        <v>-7</v>
+      </c>
+      <c r="E28" s="163">
+        <v>0</v>
+      </c>
+      <c r="F28" s="163">
+        <v>0</v>
+      </c>
+      <c r="G28" s="357">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="358" t="s">
+        <v>385</v>
+      </c>
+      <c r="B29" s="359"/>
+      <c r="C29" s="181">
+        <f>C14+C16+C24</f>
+        <v>308</v>
+      </c>
+      <c r="D29" s="181">
+        <f t="shared" ref="D29:G29" si="4">D14+D16+D24</f>
+        <v>195</v>
+      </c>
+      <c r="E29" s="181">
+        <f t="shared" si="4"/>
+        <v>342</v>
+      </c>
+      <c r="F29" s="181">
+        <f t="shared" si="4"/>
+        <v>292</v>
+      </c>
+      <c r="G29" s="369">
+        <f t="shared" si="4"/>
+        <v>218</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="356"/>
+      <c r="B30" s="161"/>
+      <c r="C30" s="171"/>
+      <c r="D30" s="163"/>
+      <c r="E30" s="163"/>
+      <c r="F30" s="163"/>
+      <c r="G30" s="357"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="356" t="s">
+        <v>429</v>
+      </c>
+      <c r="B31" s="161"/>
+      <c r="C31" s="171">
+        <v>308</v>
+      </c>
+      <c r="D31" s="163">
+        <v>341</v>
+      </c>
+      <c r="E31" s="163">
+        <v>301</v>
+      </c>
+      <c r="F31" s="163">
+        <v>264</v>
+      </c>
+      <c r="G31" s="357">
+        <v>277</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="356" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="161"/>
+      <c r="C32" s="171">
+        <v>-332</v>
+      </c>
+      <c r="D32" s="163">
+        <v>-365</v>
+      </c>
+      <c r="E32" s="163">
+        <v>-319</v>
+      </c>
+      <c r="F32" s="163">
+        <v>-314</v>
+      </c>
+      <c r="G32" s="357">
+        <v>-307</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="356" t="s">
+        <v>380</v>
+      </c>
+      <c r="B33" s="161"/>
+      <c r="C33" s="171">
+        <v>-576</v>
+      </c>
+      <c r="D33" s="163">
+        <v>-671</v>
+      </c>
+      <c r="E33" s="163">
+        <v>-625</v>
+      </c>
+      <c r="F33" s="163">
+        <v>-642</v>
+      </c>
+      <c r="G33" s="357">
+        <v>-676</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="370" t="s">
+        <v>386</v>
+      </c>
+      <c r="B34" s="371"/>
+      <c r="C34" s="179">
+        <f>C9+C29+C31+C32+C33</f>
+        <v>6203</v>
+      </c>
+      <c r="D34" s="179">
+        <f t="shared" ref="D34:G34" si="5">D9+D29+D31+D32+D33</f>
+        <v>6413</v>
+      </c>
+      <c r="E34" s="179">
+        <f t="shared" si="5"/>
+        <v>6239</v>
+      </c>
+      <c r="F34" s="179">
+        <f t="shared" si="5"/>
+        <v>6545</v>
+      </c>
+      <c r="G34" s="372">
+        <f t="shared" si="5"/>
+        <v>6805</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="356"/>
+      <c r="B35" s="161"/>
+      <c r="C35" s="171"/>
+      <c r="D35" s="163"/>
+      <c r="E35" s="163"/>
+      <c r="F35" s="163"/>
+      <c r="G35" s="357"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="356"/>
+      <c r="B36" s="161"/>
+      <c r="C36" s="171"/>
+      <c r="D36" s="163"/>
+      <c r="E36" s="163"/>
+      <c r="F36" s="163"/>
+      <c r="G36" s="357"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="356"/>
+      <c r="B37" s="161"/>
+      <c r="C37" s="171"/>
+      <c r="D37" s="163"/>
+      <c r="E37" s="163"/>
+      <c r="F37" s="163"/>
+      <c r="G37" s="357"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="373" t="s">
+        <v>393</v>
+      </c>
+      <c r="B38" s="374"/>
+      <c r="C38" s="183">
+        <v>-3259</v>
+      </c>
+      <c r="D38" s="184">
+        <v>-3279</v>
+      </c>
+      <c r="E38" s="184">
+        <v>-3013</v>
+      </c>
+      <c r="F38" s="184">
+        <v>-3523</v>
+      </c>
+      <c r="G38" s="397">
+        <v>-3651</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="356"/>
+      <c r="B39" s="161"/>
+      <c r="C39" s="171"/>
+      <c r="D39" s="163"/>
+      <c r="E39" s="163"/>
+      <c r="F39" s="163"/>
+      <c r="G39" s="357"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="356" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="161"/>
+      <c r="C40" s="171">
+        <v>-3089</v>
+      </c>
+      <c r="D40" s="163">
+        <v>-3436</v>
+      </c>
+      <c r="E40" s="163">
+        <v>-3501</v>
+      </c>
+      <c r="F40" s="163">
+        <v>-2984</v>
+      </c>
+      <c r="G40" s="357">
+        <v>-3307</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="356" t="s">
+        <v>584</v>
+      </c>
+      <c r="B41" s="161"/>
+      <c r="C41" s="171">
+        <v>-27</v>
+      </c>
+      <c r="D41" s="163">
+        <v>-19</v>
+      </c>
+      <c r="E41" s="163">
+        <v>-23</v>
+      </c>
+      <c r="F41" s="163">
+        <v>-14</v>
+      </c>
+      <c r="G41" s="357">
+        <v>-9</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="356" t="s">
+        <v>585</v>
+      </c>
+      <c r="B42" s="161"/>
+      <c r="C42" s="163">
+        <v>57</v>
+      </c>
+      <c r="D42" s="163">
+        <v>60</v>
+      </c>
+      <c r="E42" s="163">
+        <v>36</v>
+      </c>
+      <c r="F42" s="163">
+        <v>30</v>
+      </c>
+      <c r="G42" s="357">
+        <v>22</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="356" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" s="161"/>
+      <c r="C43" s="171">
+        <v>-692</v>
+      </c>
+      <c r="D43" s="163">
+        <v>-359</v>
+      </c>
+      <c r="E43" s="163">
+        <v>-437</v>
+      </c>
+      <c r="F43" s="163">
+        <v>-694</v>
+      </c>
+      <c r="G43" s="357">
+        <v>-304</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="375" t="s">
+        <v>392</v>
+      </c>
+      <c r="B44" s="376"/>
+      <c r="C44" s="190">
+        <f>C40+C41+C42+C43</f>
+        <v>-3751</v>
+      </c>
+      <c r="D44" s="190">
+        <v>-3754</v>
+      </c>
+      <c r="E44" s="190">
+        <v>-3925</v>
+      </c>
+      <c r="F44" s="190">
+        <v>-3662</v>
+      </c>
+      <c r="G44" s="538">
+        <v>-3598</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="366"/>
+      <c r="B45" s="162"/>
+      <c r="C45" s="172"/>
+      <c r="D45" s="164"/>
+      <c r="E45" s="164"/>
+      <c r="F45" s="164"/>
+      <c r="G45" s="378"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="366" t="s">
+        <v>586</v>
+      </c>
+      <c r="B46" s="162"/>
+      <c r="C46" s="164">
+        <v>171</v>
+      </c>
+      <c r="D46" s="164">
+        <v>218</v>
+      </c>
+      <c r="E46" s="164">
+        <v>8</v>
+      </c>
+      <c r="F46" s="164">
+        <v>16</v>
+      </c>
+      <c r="G46" s="378">
+        <v>10</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="356" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="161"/>
+      <c r="C47" s="171">
+        <v>636</v>
+      </c>
+      <c r="D47" s="163">
+        <v>402</v>
+      </c>
+      <c r="E47" s="163">
+        <v>691</v>
+      </c>
+      <c r="F47" s="163">
+        <v>624</v>
+      </c>
+      <c r="G47" s="357">
+        <v>434</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="358" t="s">
+        <v>387</v>
+      </c>
+      <c r="B48" s="359"/>
+      <c r="C48" s="166">
+        <f>C44+C46+C47</f>
+        <v>-2944</v>
+      </c>
+      <c r="D48" s="166">
+        <f t="shared" ref="D48:G48" si="6">D44+D46+D47</f>
+        <v>-3134</v>
+      </c>
+      <c r="E48" s="166">
+        <f t="shared" si="6"/>
+        <v>-3226</v>
+      </c>
+      <c r="F48" s="166">
+        <f t="shared" si="6"/>
+        <v>-3022</v>
+      </c>
+      <c r="G48" s="360">
+        <f t="shared" si="6"/>
+        <v>-3154</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="356"/>
+      <c r="B49" s="161"/>
+      <c r="C49" s="171"/>
+      <c r="D49" s="163"/>
+      <c r="E49" s="163"/>
+      <c r="F49" s="163"/>
+      <c r="G49" s="357"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="370" t="s">
+        <v>386</v>
+      </c>
+      <c r="B50" s="371"/>
+      <c r="C50" s="179">
+        <f>C38+C48</f>
+        <v>-6203</v>
+      </c>
+      <c r="D50" s="179">
+        <f t="shared" ref="D50:G50" si="7">D38+D48</f>
+        <v>-6413</v>
+      </c>
+      <c r="E50" s="179">
+        <f t="shared" si="7"/>
+        <v>-6239</v>
+      </c>
+      <c r="F50" s="179">
+        <f t="shared" si="7"/>
+        <v>-6545</v>
+      </c>
+      <c r="G50" s="372">
+        <f t="shared" si="7"/>
+        <v>-6805</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="539" t="s">
+        <v>399</v>
+      </c>
+      <c r="B51" s="540"/>
+      <c r="C51" s="541">
+        <f>C34+C50</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="541">
+        <f t="shared" ref="D51:G51" si="8">D34+D50</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="541">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="541">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="542">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="1:12" ht="24.6" x14ac:dyDescent="0.5">
+      <c r="A54" s="383" t="s">
+        <v>302</v>
+      </c>
+      <c r="B54" s="384"/>
+      <c r="C54" s="384"/>
+      <c r="D54" s="384"/>
+      <c r="E54" s="384"/>
+      <c r="F54" s="384"/>
+      <c r="G54" s="385"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="386"/>
+      <c r="B55" s="129"/>
+      <c r="C55" s="526" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55" s="526"/>
+      <c r="E55" s="526"/>
+      <c r="F55" s="526"/>
+      <c r="G55" s="532"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="293"/>
+      <c r="B56" s="143" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="130">
+        <v>42369</v>
+      </c>
+      <c r="D56" s="130">
+        <v>42735</v>
+      </c>
+      <c r="E56" s="130">
+        <v>43100</v>
+      </c>
+      <c r="F56" s="130">
+        <v>43465</v>
+      </c>
+      <c r="G56" s="294">
+        <v>43830</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="295"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="543"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="355" t="s">
+        <v>398</v>
+      </c>
+      <c r="B58" s="55"/>
+      <c r="C58" s="170">
+        <f>SUM(C61:C62)</f>
+        <v>4921</v>
+      </c>
+      <c r="D58" s="165">
+        <f t="shared" ref="D58:G58" si="9">SUM(D61:D62)</f>
+        <v>4860</v>
+      </c>
+      <c r="E58" s="165">
+        <f t="shared" si="9"/>
+        <v>5796</v>
+      </c>
+      <c r="F58" s="165">
+        <f t="shared" si="9"/>
+        <v>6494</v>
+      </c>
+      <c r="G58" s="365">
+        <f t="shared" si="9"/>
+        <v>7324</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="212" t="s">
+        <v>167</v>
+      </c>
+      <c r="B59" s="55"/>
+      <c r="C59" s="171">
+        <v>3947</v>
+      </c>
+      <c r="D59" s="163">
+        <v>3734</v>
+      </c>
+      <c r="E59" s="163">
+        <v>4633</v>
+      </c>
+      <c r="F59" s="163">
+        <v>5268</v>
+      </c>
+      <c r="G59" s="357">
+        <v>6046</v>
+      </c>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="212" t="s">
+        <v>169</v>
+      </c>
+      <c r="B60" s="55"/>
+      <c r="C60" s="171">
+        <v>785</v>
+      </c>
+      <c r="D60" s="163">
+        <v>847</v>
+      </c>
+      <c r="E60" s="163">
+        <v>957</v>
+      </c>
+      <c r="F60" s="163">
+        <v>1003</v>
+      </c>
+      <c r="G60" s="357">
+        <v>1076</v>
+      </c>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="544" t="s">
+        <v>171</v>
+      </c>
+      <c r="B61" s="55"/>
+      <c r="C61" s="172">
+        <f>SUM(C59:C60)</f>
+        <v>4732</v>
+      </c>
+      <c r="D61" s="164">
+        <f>SUM(D59:D60)</f>
+        <v>4581</v>
+      </c>
+      <c r="E61" s="164">
+        <f>SUM(E59:E60)</f>
+        <v>5590</v>
+      </c>
+      <c r="F61" s="164">
+        <f>SUM(F59:F60)</f>
+        <v>6271</v>
+      </c>
+      <c r="G61" s="378">
+        <f>SUM(G59:G60)</f>
+        <v>7122</v>
+      </c>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="212" t="s">
+        <v>173</v>
+      </c>
+      <c r="B62" s="55"/>
+      <c r="C62" s="171">
+        <v>189</v>
+      </c>
+      <c r="D62" s="163">
+        <v>279</v>
+      </c>
+      <c r="E62" s="163">
+        <v>206</v>
+      </c>
+      <c r="F62" s="163">
+        <v>223</v>
+      </c>
+      <c r="G62" s="357">
+        <v>202</v>
+      </c>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="212"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="171"/>
+      <c r="D63" s="171"/>
+      <c r="E63" s="163"/>
+      <c r="F63" s="163"/>
+      <c r="G63" s="357"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="212" t="s">
+        <v>177</v>
+      </c>
+      <c r="B64" s="55"/>
+      <c r="C64" s="171">
+        <v>-2286</v>
+      </c>
+      <c r="D64" s="171">
+        <v>-2101</v>
+      </c>
+      <c r="E64" s="163">
+        <v>-2831</v>
+      </c>
+      <c r="F64" s="163">
+        <v>-3346</v>
+      </c>
+      <c r="G64" s="357">
+        <v>-4004</v>
+      </c>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="212" t="s">
+        <v>179</v>
+      </c>
+      <c r="B65" s="55"/>
+      <c r="C65" s="171">
+        <v>-706</v>
+      </c>
+      <c r="D65" s="171">
+        <v>-758</v>
+      </c>
+      <c r="E65" s="163">
+        <v>-850</v>
+      </c>
+      <c r="F65" s="163">
+        <v>-986</v>
+      </c>
+      <c r="G65" s="357">
+        <v>-1152</v>
+      </c>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" s="212" t="s">
+        <v>183</v>
+      </c>
+      <c r="B66" s="55"/>
+      <c r="C66" s="171">
+        <v>-252</v>
+      </c>
+      <c r="D66" s="171">
+        <v>-243</v>
+      </c>
+      <c r="E66" s="163">
+        <v>-281</v>
+      </c>
+      <c r="F66" s="163">
+        <v>-266</v>
+      </c>
+      <c r="G66" s="357">
+        <v>-234</v>
+      </c>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" s="212" t="s">
+        <v>388</v>
+      </c>
+      <c r="B67" s="55"/>
+      <c r="C67" s="171">
+        <f>-SUM(C72:C73)</f>
+        <v>-629</v>
+      </c>
+      <c r="D67" s="171">
+        <f>-SUM(D72:D73)</f>
+        <v>-596</v>
+      </c>
+      <c r="E67" s="163">
+        <f>-SUM(E72:E73)</f>
+        <v>-635</v>
+      </c>
+      <c r="F67" s="163">
+        <f>-SUM(F72:F73)</f>
+        <v>-665</v>
+      </c>
+      <c r="G67" s="357">
+        <f>-SUM(G72:G73)</f>
+        <v>-700</v>
+      </c>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="212" t="s">
+        <v>187</v>
+      </c>
+      <c r="B68" s="55"/>
+      <c r="C68" s="171">
+        <v>441</v>
+      </c>
+      <c r="D68" s="171">
+        <v>433</v>
+      </c>
+      <c r="E68" s="163">
+        <v>471</v>
+      </c>
+      <c r="F68" s="163">
+        <v>494</v>
+      </c>
+      <c r="G68" s="357">
+        <v>527</v>
+      </c>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" s="212" t="s">
+        <v>189</v>
+      </c>
+      <c r="B69" s="55"/>
+      <c r="C69" s="171">
+        <v>163</v>
+      </c>
+      <c r="D69" s="171">
+        <v>146</v>
+      </c>
+      <c r="E69" s="163">
+        <v>160</v>
+      </c>
+      <c r="F69" s="163">
+        <v>173</v>
+      </c>
+      <c r="G69" s="357">
+        <v>179</v>
+      </c>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" s="212" t="s">
+        <v>191</v>
+      </c>
+      <c r="B70" s="55"/>
+      <c r="C70" s="171">
+        <v>25</v>
+      </c>
+      <c r="D70" s="171">
+        <v>26</v>
+      </c>
+      <c r="E70" s="163">
+        <v>29</v>
+      </c>
+      <c r="F70" s="163">
+        <v>31</v>
+      </c>
+      <c r="G70" s="357">
+        <v>31</v>
+      </c>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="212" t="s">
+        <v>192</v>
+      </c>
+      <c r="B71" s="55"/>
+      <c r="C71" s="171">
+        <v>27</v>
+      </c>
+      <c r="D71" s="171">
+        <v>36</v>
+      </c>
+      <c r="E71" s="163">
+        <v>27</v>
+      </c>
+      <c r="F71" s="163">
+        <v>33</v>
+      </c>
+      <c r="G71" s="357">
+        <v>42</v>
+      </c>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" s="544" t="s">
+        <v>194</v>
+      </c>
+      <c r="B72" s="55"/>
+      <c r="C72" s="172">
+        <f>SUM(C68:C71)</f>
+        <v>656</v>
+      </c>
+      <c r="D72" s="172">
+        <f>SUM(D68:D71)</f>
+        <v>641</v>
+      </c>
+      <c r="E72" s="164">
+        <f>SUM(E68:E71)</f>
+        <v>687</v>
+      </c>
+      <c r="F72" s="164">
+        <f t="shared" ref="F72" si="10">SUM(F68:F71)</f>
+        <v>731</v>
+      </c>
+      <c r="G72" s="378">
+        <f>SUM(G68:G71)</f>
+        <v>779</v>
+      </c>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" s="212" t="s">
+        <v>196</v>
+      </c>
+      <c r="B73" s="55"/>
+      <c r="C73" s="171">
+        <v>-27</v>
+      </c>
+      <c r="D73" s="171">
+        <v>-45</v>
+      </c>
+      <c r="E73" s="163">
+        <v>-52</v>
+      </c>
+      <c r="F73" s="163">
+        <v>-66</v>
+      </c>
+      <c r="G73" s="357">
+        <v>-79</v>
+      </c>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" s="545" t="s">
+        <v>397</v>
+      </c>
+      <c r="B74" s="345"/>
+      <c r="C74" s="186">
+        <f>SUM(C64:C67)</f>
+        <v>-3873</v>
+      </c>
+      <c r="D74" s="186">
+        <f>SUM(D64:D67)</f>
+        <v>-3698</v>
+      </c>
+      <c r="E74" s="187">
+        <f>SUM(E64:E67)</f>
+        <v>-4597</v>
+      </c>
+      <c r="F74" s="187">
+        <f>SUM(F64:F67)</f>
+        <v>-5263</v>
+      </c>
+      <c r="G74" s="363">
+        <f>SUM(G64:G67)</f>
+        <v>-6090</v>
+      </c>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" s="355"/>
+      <c r="B75" s="55"/>
+      <c r="C75" s="171"/>
+      <c r="D75" s="171"/>
+      <c r="E75" s="163"/>
+      <c r="F75" s="163"/>
+      <c r="G75" s="357"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" s="391" t="s">
+        <v>324</v>
+      </c>
+      <c r="B76" s="546"/>
+      <c r="C76" s="181">
+        <f>SUM(C58,C74)</f>
+        <v>1048</v>
+      </c>
+      <c r="D76" s="181">
+        <f>SUM(D58,D74)</f>
+        <v>1162</v>
+      </c>
+      <c r="E76" s="166">
+        <f>SUM(E58,E74)</f>
+        <v>1199</v>
+      </c>
+      <c r="F76" s="166">
+        <f>SUM(F58,F74)</f>
+        <v>1231</v>
+      </c>
+      <c r="G76" s="360">
+        <f>SUM(G58,G74)</f>
+        <v>1234</v>
+      </c>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" s="212"/>
+      <c r="B77" s="55"/>
+      <c r="C77" s="275"/>
+      <c r="D77" s="275"/>
+      <c r="E77" s="167"/>
+      <c r="F77" s="167"/>
+      <c r="G77" s="547"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="212" t="s">
+        <v>389</v>
+      </c>
+      <c r="B78" s="55"/>
+      <c r="C78" s="171">
+        <f>-SUM(C79:C81)</f>
+        <v>-754</v>
+      </c>
+      <c r="D78" s="171">
+        <f t="shared" ref="D78:G78" si="11">-SUM(D79:D81)</f>
+        <v>-648</v>
+      </c>
+      <c r="E78" s="163">
+        <f t="shared" si="11"/>
+        <v>-444</v>
+      </c>
+      <c r="F78" s="163">
+        <f t="shared" si="11"/>
+        <v>-623</v>
+      </c>
+      <c r="G78" s="357">
+        <f t="shared" si="11"/>
+        <v>-511</v>
+      </c>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" s="212" t="s">
+        <v>202</v>
+      </c>
+      <c r="B79" s="55"/>
+      <c r="C79" s="171">
+        <v>54</v>
+      </c>
+      <c r="D79" s="171">
+        <v>55</v>
+      </c>
+      <c r="E79" s="163">
+        <v>72</v>
+      </c>
+      <c r="F79" s="163">
+        <v>91</v>
+      </c>
+      <c r="G79" s="357">
+        <v>123</v>
+      </c>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" s="212" t="s">
+        <v>204</v>
+      </c>
+      <c r="B80" s="55"/>
+      <c r="C80" s="171">
+        <v>341</v>
+      </c>
+      <c r="D80" s="171">
+        <v>348</v>
+      </c>
+      <c r="E80" s="163">
+        <v>338</v>
+      </c>
+      <c r="F80" s="163">
+        <v>372</v>
+      </c>
+      <c r="G80" s="357">
+        <v>379</v>
+      </c>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" s="212" t="s">
+        <v>206</v>
+      </c>
+      <c r="B81" s="55"/>
+      <c r="C81" s="171">
+        <v>359</v>
+      </c>
+      <c r="D81" s="171">
+        <v>245</v>
+      </c>
+      <c r="E81" s="163">
+        <v>34</v>
+      </c>
+      <c r="F81" s="163">
+        <v>160</v>
+      </c>
+      <c r="G81" s="357">
+        <v>9</v>
+      </c>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" s="212" t="s">
+        <v>514</v>
+      </c>
+      <c r="B82" s="55"/>
+      <c r="C82" s="172">
+        <f>-SUM(C83:C84)</f>
+        <v>-79</v>
+      </c>
+      <c r="D82" s="172">
+        <f t="shared" ref="D82:G82" si="12">-SUM(D83:D84)</f>
+        <v>-71</v>
+      </c>
+      <c r="E82" s="164">
+        <f t="shared" si="12"/>
+        <v>-45</v>
+      </c>
+      <c r="F82" s="164">
+        <f t="shared" si="12"/>
+        <v>-20</v>
+      </c>
+      <c r="G82" s="378">
+        <f t="shared" si="12"/>
+        <v>-36</v>
+      </c>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" s="212" t="s">
+        <v>210</v>
+      </c>
+      <c r="B83" s="55"/>
+      <c r="C83" s="171">
+        <v>57</v>
+      </c>
+      <c r="D83" s="171">
+        <v>50</v>
+      </c>
+      <c r="E83" s="163">
+        <v>10</v>
+      </c>
+      <c r="F83" s="163">
+        <v>-5</v>
+      </c>
+      <c r="G83" s="357">
+        <v>21</v>
+      </c>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+    </row>
+    <row r="84" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="548" t="s">
+        <v>212</v>
+      </c>
+      <c r="B84" s="55"/>
+      <c r="C84" s="171">
+        <v>22</v>
+      </c>
+      <c r="D84" s="171">
+        <v>21</v>
+      </c>
+      <c r="E84" s="163">
+        <v>35</v>
+      </c>
+      <c r="F84" s="163">
+        <v>25</v>
+      </c>
+      <c r="G84" s="357">
+        <v>15</v>
+      </c>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" s="355"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="170"/>
+      <c r="D85" s="171"/>
+      <c r="E85" s="165"/>
+      <c r="F85" s="165"/>
+      <c r="G85" s="365"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" s="391" t="s">
+        <v>303</v>
+      </c>
+      <c r="B86" s="546"/>
+      <c r="C86" s="181">
+        <f>SUM(C76,C78,C82)</f>
+        <v>215</v>
+      </c>
+      <c r="D86" s="181">
+        <f>SUM(D76,D78,D82)</f>
+        <v>443</v>
+      </c>
+      <c r="E86" s="166">
+        <f>SUM(E76,E78,E82)</f>
+        <v>710</v>
+      </c>
+      <c r="F86" s="166">
+        <f>SUM(F76,F78,F82)</f>
+        <v>588</v>
+      </c>
+      <c r="G86" s="360">
+        <f>SUM(G76,G78,G82)</f>
+        <v>687</v>
+      </c>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" s="355"/>
+      <c r="B87" s="55"/>
+      <c r="C87" s="170"/>
+      <c r="D87" s="171"/>
+      <c r="E87" s="165"/>
+      <c r="F87" s="165"/>
+      <c r="G87" s="365"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" s="212" t="s">
+        <v>217</v>
+      </c>
+      <c r="B88" s="55"/>
+      <c r="C88" s="171">
+        <v>1</v>
+      </c>
+      <c r="D88" s="171">
+        <v>52</v>
+      </c>
+      <c r="E88" s="163">
+        <v>0</v>
+      </c>
+      <c r="F88" s="163">
+        <v>14</v>
+      </c>
+      <c r="G88" s="357">
+        <v>4</v>
+      </c>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="212" t="s">
+        <v>219</v>
+      </c>
+      <c r="B89" s="55"/>
+      <c r="C89" s="171">
+        <f>SUM(C93,-C102,C103)</f>
+        <v>-138</v>
+      </c>
+      <c r="D89" s="171">
+        <f t="shared" ref="D89:G89" si="13">SUM(D93,-D102,D103)</f>
+        <v>-161</v>
+      </c>
+      <c r="E89" s="163">
+        <f t="shared" si="13"/>
+        <v>-134</v>
+      </c>
+      <c r="F89" s="163">
+        <f t="shared" si="13"/>
+        <v>-112</v>
+      </c>
+      <c r="G89" s="357">
+        <f t="shared" si="13"/>
+        <v>-110</v>
+      </c>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" s="212" t="s">
+        <v>221</v>
+      </c>
+      <c r="B90" s="55"/>
+      <c r="C90" s="171"/>
+      <c r="D90" s="171"/>
+      <c r="E90" s="163"/>
+      <c r="F90" s="163"/>
+      <c r="G90" s="357"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91" s="212" t="s">
+        <v>223</v>
+      </c>
+      <c r="B91" s="55"/>
+      <c r="C91" s="171"/>
+      <c r="D91" s="171"/>
+      <c r="E91" s="163"/>
+      <c r="F91" s="163">
+        <v>0</v>
+      </c>
+      <c r="G91" s="357">
+        <v>4</v>
+      </c>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" s="212" t="s">
+        <v>224</v>
+      </c>
+      <c r="B92" s="55"/>
+      <c r="C92" s="171"/>
+      <c r="D92" s="171"/>
+      <c r="E92" s="163"/>
+      <c r="F92" s="163">
+        <v>16</v>
+      </c>
+      <c r="G92" s="357">
+        <v>12</v>
+      </c>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93" s="212" t="s">
+        <v>225</v>
+      </c>
+      <c r="B93" s="55"/>
+      <c r="C93" s="171">
+        <v>28</v>
+      </c>
+      <c r="D93" s="171">
+        <v>34</v>
+      </c>
+      <c r="E93" s="163">
+        <v>19</v>
+      </c>
+      <c r="F93" s="163">
+        <f t="shared" ref="F93" si="14">SUM(F91:F92)</f>
+        <v>16</v>
+      </c>
+      <c r="G93" s="357">
+        <f>SUM(G91:G92)</f>
+        <v>16</v>
+      </c>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" s="212" t="s">
+        <v>226</v>
+      </c>
+      <c r="B94" s="55"/>
+      <c r="C94" s="171"/>
+      <c r="D94" s="171"/>
+      <c r="E94" s="163"/>
+      <c r="F94" s="163"/>
+      <c r="G94" s="357"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" s="212" t="s">
+        <v>228</v>
+      </c>
+      <c r="B95" s="55"/>
+      <c r="C95" s="171">
+        <v>125</v>
+      </c>
+      <c r="D95" s="171">
+        <v>125</v>
+      </c>
+      <c r="E95" s="163">
+        <v>104</v>
+      </c>
+      <c r="F95" s="163">
+        <v>102</v>
+      </c>
+      <c r="G95" s="357">
+        <v>94</v>
+      </c>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96" s="212" t="s">
+        <v>230</v>
+      </c>
+      <c r="B96" s="55"/>
+      <c r="C96" s="171">
+        <v>15</v>
+      </c>
+      <c r="D96" s="171">
+        <v>9</v>
+      </c>
+      <c r="E96" s="163">
+        <v>9</v>
+      </c>
+      <c r="F96" s="163">
+        <v>6</v>
+      </c>
+      <c r="G96" s="357">
+        <v>4</v>
+      </c>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" s="212" t="s">
+        <v>232</v>
+      </c>
+      <c r="B97" s="55"/>
+      <c r="C97" s="171">
+        <v>5</v>
+      </c>
+      <c r="D97" s="171">
+        <v>6</v>
+      </c>
+      <c r="E97" s="163">
+        <v>8</v>
+      </c>
+      <c r="F97" s="163">
+        <v>8</v>
+      </c>
+      <c r="G97" s="357">
+        <v>7</v>
+      </c>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" s="212" t="s">
+        <v>234</v>
+      </c>
+      <c r="B98" s="55"/>
+      <c r="C98" s="171">
+        <v>0</v>
+      </c>
+      <c r="D98" s="171">
+        <v>1</v>
+      </c>
+      <c r="E98" s="163">
+        <v>2</v>
+      </c>
+      <c r="F98" s="163">
+        <v>2</v>
+      </c>
+      <c r="G98" s="357">
+        <v>1</v>
+      </c>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99" s="212" t="s">
+        <v>236</v>
+      </c>
+      <c r="B99" s="55"/>
+      <c r="C99" s="171">
+        <v>17</v>
+      </c>
+      <c r="D99" s="171">
+        <v>51</v>
+      </c>
+      <c r="E99" s="163">
+        <v>35</v>
+      </c>
+      <c r="F99" s="163">
+        <v>14</v>
+      </c>
+      <c r="G99" s="357">
+        <v>24</v>
+      </c>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100" s="212" t="s">
+        <v>238</v>
+      </c>
+      <c r="B100" s="55"/>
+      <c r="C100" s="171">
+        <v>162</v>
+      </c>
+      <c r="D100" s="171">
+        <f>SUM(D95:D99)</f>
+        <v>192</v>
+      </c>
+      <c r="E100" s="163">
+        <f>SUM(E95:E99)</f>
+        <v>158</v>
+      </c>
+      <c r="F100" s="163">
+        <f>SUM(F95:F99)</f>
+        <v>132</v>
+      </c>
+      <c r="G100" s="357">
+        <f>SUM(G95:G99)</f>
+        <v>130</v>
+      </c>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101" s="212" t="s">
+        <v>240</v>
+      </c>
+      <c r="B101" s="55"/>
+      <c r="C101" s="171">
+        <v>0</v>
+      </c>
+      <c r="D101" s="171">
+        <v>0</v>
+      </c>
+      <c r="E101" s="163">
+        <v>0</v>
+      </c>
+      <c r="F101" s="163">
+        <v>0</v>
+      </c>
+      <c r="G101" s="357">
+        <v>0</v>
+      </c>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102" s="212" t="s">
+        <v>242</v>
+      </c>
+      <c r="B102" s="55"/>
+      <c r="C102" s="171">
+        <f>SUM(C100:C101)</f>
+        <v>162</v>
+      </c>
+      <c r="D102" s="171">
+        <f>SUM(D100:D101)</f>
+        <v>192</v>
+      </c>
+      <c r="E102" s="163">
+        <f>SUM(E100:E101)</f>
+        <v>158</v>
+      </c>
+      <c r="F102" s="163">
+        <f>SUM(F100:F101)</f>
+        <v>132</v>
+      </c>
+      <c r="G102" s="357">
+        <f>SUM(G100:G101)</f>
+        <v>130</v>
+      </c>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103" s="212" t="s">
+        <v>244</v>
+      </c>
+      <c r="B103" s="55"/>
+      <c r="C103" s="171">
+        <v>-4</v>
+      </c>
+      <c r="D103" s="171">
+        <v>-3</v>
+      </c>
+      <c r="E103" s="163">
+        <v>5</v>
+      </c>
+      <c r="F103" s="163">
+        <v>4</v>
+      </c>
+      <c r="G103" s="357">
+        <v>4</v>
+      </c>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A104" s="212" t="s">
+        <v>246</v>
+      </c>
+      <c r="B104" s="55"/>
+      <c r="C104" s="171"/>
+      <c r="D104" s="171">
+        <v>0</v>
+      </c>
+      <c r="E104" s="163">
+        <v>0</v>
+      </c>
+      <c r="F104" s="163">
+        <v>0</v>
+      </c>
+      <c r="G104" s="357">
+        <v>0</v>
+      </c>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105" s="544" t="s">
+        <v>428</v>
+      </c>
+      <c r="B105" s="55"/>
+      <c r="C105" s="171">
+        <f>SUM(C88:C89)</f>
+        <v>-137</v>
+      </c>
+      <c r="D105" s="171">
+        <f t="shared" ref="D105:G105" si="15">SUM(D88:D89)</f>
+        <v>-109</v>
+      </c>
+      <c r="E105" s="163">
+        <f t="shared" si="15"/>
+        <v>-134</v>
+      </c>
+      <c r="F105" s="163">
+        <f t="shared" si="15"/>
+        <v>-98</v>
+      </c>
+      <c r="G105" s="357">
+        <f t="shared" si="15"/>
+        <v>-106</v>
+      </c>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A106" s="106"/>
+      <c r="B106" s="55"/>
+      <c r="C106" s="533"/>
+      <c r="D106" s="533"/>
+      <c r="E106" s="534"/>
+      <c r="F106" s="534"/>
+      <c r="G106" s="549"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" s="391" t="s">
+        <v>304</v>
+      </c>
+      <c r="B107" s="546"/>
+      <c r="C107" s="181">
+        <f>SUM(C86,C88,C89)</f>
+        <v>78</v>
+      </c>
+      <c r="D107" s="181">
+        <f>SUM(D86,D88,D89)</f>
+        <v>334</v>
+      </c>
+      <c r="E107" s="166">
+        <f>SUM(E86,E88,E89)</f>
+        <v>576</v>
+      </c>
+      <c r="F107" s="166">
+        <f>SUM(F86,F88,F89)</f>
+        <v>490</v>
+      </c>
+      <c r="G107" s="360">
+        <f>SUM(G86,G88,G89)</f>
+        <v>581</v>
+      </c>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108" s="106"/>
+      <c r="B108" s="55"/>
+      <c r="C108" s="533"/>
+      <c r="D108" s="533"/>
+      <c r="E108" s="534"/>
+      <c r="F108" s="534"/>
+      <c r="G108" s="549"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A109" s="212" t="s">
+        <v>254</v>
+      </c>
+      <c r="B109" s="55"/>
+      <c r="C109" s="171">
+        <v>105</v>
+      </c>
+      <c r="D109" s="171">
+        <v>138</v>
+      </c>
+      <c r="E109" s="163">
+        <v>107</v>
+      </c>
+      <c r="F109" s="163">
+        <v>146</v>
+      </c>
+      <c r="G109" s="357">
+        <v>147</v>
+      </c>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A110" s="212" t="s">
+        <v>256</v>
+      </c>
+      <c r="B110" s="55"/>
+      <c r="C110" s="171">
+        <v>23</v>
+      </c>
+      <c r="D110" s="171">
+        <v>25</v>
+      </c>
+      <c r="E110" s="163">
+        <v>26</v>
+      </c>
+      <c r="F110" s="163">
+        <v>30</v>
+      </c>
+      <c r="G110" s="357">
+        <v>30</v>
+      </c>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A111" s="212" t="s">
+        <v>258</v>
+      </c>
+      <c r="B111" s="55"/>
+      <c r="C111" s="171">
+        <v>-17</v>
+      </c>
+      <c r="D111" s="171">
+        <v>4</v>
+      </c>
+      <c r="E111" s="163">
+        <v>-1</v>
+      </c>
+      <c r="F111" s="163">
+        <v>2</v>
+      </c>
+      <c r="G111" s="357">
+        <v>5</v>
+      </c>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A112" s="544" t="s">
+        <v>260</v>
+      </c>
+      <c r="B112" s="55"/>
+      <c r="C112" s="172">
+        <f>SUM(C109:C111)</f>
+        <v>111</v>
+      </c>
+      <c r="D112" s="172">
+        <f>SUM(D109:D111)</f>
+        <v>167</v>
+      </c>
+      <c r="E112" s="164">
+        <f>SUM(E109:E111)</f>
+        <v>132</v>
+      </c>
+      <c r="F112" s="164">
+        <f>SUM(F109:F111)</f>
+        <v>178</v>
+      </c>
+      <c r="G112" s="378">
+        <f>SUM(G109:G111)</f>
+        <v>182</v>
+      </c>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A113" s="212" t="s">
+        <v>394</v>
+      </c>
+      <c r="B113" s="55"/>
+      <c r="C113" s="171">
+        <v>142</v>
+      </c>
+      <c r="D113" s="171">
+        <v>44</v>
+      </c>
+      <c r="E113" s="163">
+        <v>88</v>
+      </c>
+      <c r="F113" s="163">
+        <v>33</v>
+      </c>
+      <c r="G113" s="357">
+        <v>71</v>
+      </c>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A114" s="212" t="s">
+        <v>395</v>
+      </c>
+      <c r="B114" s="55"/>
+      <c r="C114" s="171">
+        <v>-120</v>
+      </c>
+      <c r="D114" s="171">
+        <v>-89</v>
+      </c>
+      <c r="E114" s="163">
+        <v>-28</v>
+      </c>
+      <c r="F114" s="163">
+        <v>-54</v>
+      </c>
+      <c r="G114" s="357">
+        <v>-64</v>
+      </c>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A115" s="212" t="s">
+        <v>305</v>
+      </c>
+      <c r="B115" s="55"/>
+      <c r="C115" s="171">
+        <f>-SUM(C112:C114)</f>
+        <v>-133</v>
+      </c>
+      <c r="D115" s="171">
+        <f t="shared" ref="D115:G115" si="16">-SUM(D112:D114)</f>
+        <v>-122</v>
+      </c>
+      <c r="E115" s="163">
+        <f t="shared" si="16"/>
+        <v>-192</v>
+      </c>
+      <c r="F115" s="163">
+        <f t="shared" si="16"/>
+        <v>-157</v>
+      </c>
+      <c r="G115" s="357">
+        <f t="shared" si="16"/>
+        <v>-189</v>
+      </c>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A116" s="212" t="s">
+        <v>390</v>
+      </c>
+      <c r="B116" s="55"/>
+      <c r="C116" s="171">
+        <f>SUM(C117:C118)</f>
+        <v>130</v>
+      </c>
+      <c r="D116" s="171">
+        <f t="shared" ref="D116:G116" si="17">SUM(D117:D118)</f>
+        <v>20</v>
+      </c>
+      <c r="E116" s="163">
+        <f t="shared" si="17"/>
+        <v>-91</v>
+      </c>
+      <c r="F116" s="163">
+        <f t="shared" si="17"/>
+        <v>11</v>
+      </c>
+      <c r="G116" s="357">
+        <f t="shared" si="17"/>
+        <v>-3</v>
+      </c>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A117" s="212" t="s">
+        <v>269</v>
+      </c>
+      <c r="B117" s="55"/>
+      <c r="C117" s="171">
+        <v>0</v>
+      </c>
+      <c r="D117" s="171">
+        <v>19</v>
+      </c>
+      <c r="E117" s="163">
+        <v>-85</v>
+      </c>
+      <c r="F117" s="163">
+        <v>21</v>
+      </c>
+      <c r="G117" s="357">
+        <v>1</v>
+      </c>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A118" s="212" t="s">
+        <v>273</v>
+      </c>
+      <c r="B118" s="55"/>
+      <c r="C118" s="171">
+        <v>130</v>
+      </c>
+      <c r="D118" s="171">
+        <v>1</v>
+      </c>
+      <c r="E118" s="163">
+        <v>-6</v>
+      </c>
+      <c r="F118" s="163">
+        <v>-10</v>
+      </c>
+      <c r="G118" s="357">
+        <v>-4</v>
+      </c>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A119" s="212"/>
+      <c r="B119" s="55"/>
+      <c r="C119" s="171"/>
+      <c r="D119" s="171"/>
+      <c r="E119" s="163"/>
+      <c r="F119" s="163"/>
+      <c r="G119" s="357"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+    </row>
+    <row r="120" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="398" t="s">
+        <v>391</v>
+      </c>
+      <c r="B120" s="550"/>
+      <c r="C120" s="381">
+        <f>SUM(C107,C115:C116)</f>
+        <v>75</v>
+      </c>
+      <c r="D120" s="381">
+        <f>SUM(D107,D115:D116)</f>
+        <v>232</v>
+      </c>
+      <c r="E120" s="551">
+        <f>SUM(E107,E115:E116)</f>
+        <v>293</v>
+      </c>
+      <c r="F120" s="551">
+        <f>SUM(F107,F115:F116)</f>
+        <v>344</v>
+      </c>
+      <c r="G120" s="382">
+        <f>SUM(G107,G115:G116)</f>
+        <v>389</v>
+      </c>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+    </row>
+    <row r="122" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+    </row>
+    <row r="123" spans="1:12" ht="24.6" x14ac:dyDescent="0.5">
+      <c r="A123" s="401" t="s">
+        <v>401</v>
+      </c>
+      <c r="B123" s="289"/>
+      <c r="C123" s="290"/>
+      <c r="D123" s="290"/>
+      <c r="E123" s="290"/>
+      <c r="F123" s="291"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A124" s="292"/>
+      <c r="B124" s="64"/>
+      <c r="C124" s="527" t="s">
+        <v>163</v>
+      </c>
+      <c r="D124" s="527"/>
+      <c r="E124" s="527"/>
+      <c r="F124" s="528"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A125" s="293"/>
+      <c r="B125" s="143" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" s="130">
+        <v>42735</v>
+      </c>
+      <c r="D125" s="130">
+        <v>43100</v>
+      </c>
+      <c r="E125" s="130">
+        <v>43465</v>
+      </c>
+      <c r="F125" s="294">
+        <v>43830</v>
+      </c>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A126" s="212"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="31"/>
+      <c r="D126" s="29"/>
+      <c r="E126" s="29"/>
+      <c r="F126" s="296"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A127" s="355" t="s">
+        <v>303</v>
+      </c>
+      <c r="B127" s="5"/>
+      <c r="C127" s="215">
+        <v>443</v>
+      </c>
+      <c r="D127" s="216">
+        <v>710</v>
+      </c>
+      <c r="E127" s="216">
+        <v>588</v>
+      </c>
+      <c r="F127" s="297">
+        <v>687</v>
+      </c>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A128" s="212" t="s">
+        <v>402</v>
+      </c>
+      <c r="B128" s="5"/>
+      <c r="C128" s="217">
+        <v>-122</v>
+      </c>
+      <c r="D128" s="218">
+        <v>-192</v>
+      </c>
+      <c r="E128" s="218">
+        <v>-157</v>
+      </c>
+      <c r="F128" s="298">
+        <v>-189</v>
+      </c>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A129" s="212" t="s">
+        <v>431</v>
+      </c>
+      <c r="B129" s="5"/>
+      <c r="C129" s="213">
+        <v>-39.814371257485028</v>
+      </c>
+      <c r="D129" s="214">
+        <v>-44.666666666666664</v>
+      </c>
+      <c r="E129" s="214">
+        <v>-31.400000000000002</v>
+      </c>
+      <c r="F129" s="552">
+        <v>-34.481927710843372</v>
+      </c>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A130" s="391" t="s">
+        <v>403</v>
+      </c>
+      <c r="B130" s="25"/>
+      <c r="C130" s="219">
+        <f>C127+C128+C129</f>
+        <v>281.18562874251495</v>
+      </c>
+      <c r="D130" s="219">
+        <f t="shared" ref="D130:F130" si="18">D127+D128+D129</f>
+        <v>473.33333333333331</v>
+      </c>
+      <c r="E130" s="219">
+        <f t="shared" si="18"/>
+        <v>399.6</v>
+      </c>
+      <c r="F130" s="555">
+        <f t="shared" si="18"/>
+        <v>463.51807228915663</v>
+      </c>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A131" s="212"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="217"/>
+      <c r="D131" s="218"/>
+      <c r="E131" s="218"/>
+      <c r="F131" s="298"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A132" s="212" t="s">
+        <v>425</v>
+      </c>
+      <c r="B132" s="5"/>
+      <c r="C132" s="217">
+        <v>25</v>
+      </c>
+      <c r="D132" s="218">
+        <v>12</v>
+      </c>
+      <c r="E132" s="218">
+        <v>-40</v>
+      </c>
+      <c r="F132" s="298">
+        <v>3</v>
+      </c>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A133" s="212" t="s">
+        <v>404</v>
+      </c>
+      <c r="B133" s="5"/>
+      <c r="C133" s="217">
+        <v>-336</v>
+      </c>
+      <c r="D133" s="218">
+        <v>150</v>
+      </c>
+      <c r="E133" s="218">
+        <v>-110</v>
+      </c>
+      <c r="F133" s="298">
+        <v>-71</v>
+      </c>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A134" s="212" t="s">
+        <v>424</v>
+      </c>
+      <c r="B134" s="5"/>
+      <c r="C134" s="217">
+        <v>214</v>
+      </c>
+      <c r="D134" s="218">
+        <v>-3</v>
+      </c>
+      <c r="E134" s="218">
+        <v>32</v>
+      </c>
+      <c r="F134" s="298">
+        <v>68</v>
+      </c>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A135" s="391" t="s">
+        <v>426</v>
+      </c>
+      <c r="B135" s="25"/>
+      <c r="C135" s="219">
+        <f>C132+C133+C134</f>
+        <v>-97</v>
+      </c>
+      <c r="D135" s="219">
+        <f t="shared" ref="D135:F135" si="19">D132+D133+D134</f>
+        <v>159</v>
+      </c>
+      <c r="E135" s="219">
+        <f t="shared" si="19"/>
+        <v>-118</v>
+      </c>
+      <c r="F135" s="555">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A136" s="212"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="217"/>
+      <c r="D136" s="218"/>
+      <c r="E136" s="218"/>
+      <c r="F136" s="298"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A137" s="212" t="s">
+        <v>405</v>
+      </c>
+      <c r="B137" s="5"/>
+      <c r="C137" s="217">
+        <v>-8</v>
+      </c>
+      <c r="D137" s="218">
+        <v>-82</v>
+      </c>
+      <c r="E137" s="218">
+        <v>69</v>
+      </c>
+      <c r="F137" s="298">
+        <v>-167</v>
+      </c>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A138" s="212" t="s">
+        <v>406</v>
+      </c>
+      <c r="B138" s="5"/>
+      <c r="C138" s="217">
+        <v>218</v>
+      </c>
+      <c r="D138" s="218">
+        <v>-224</v>
+      </c>
+      <c r="E138" s="218">
+        <v>99</v>
+      </c>
+      <c r="F138" s="298">
+        <v>241</v>
+      </c>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A139" s="391" t="s">
+        <v>427</v>
+      </c>
+      <c r="B139" s="25"/>
+      <c r="C139" s="219">
+        <f>C135+C137+C138</f>
+        <v>113</v>
+      </c>
+      <c r="D139" s="219">
+        <f t="shared" ref="D139:F139" si="20">D135+D137+D138</f>
+        <v>-147</v>
+      </c>
+      <c r="E139" s="219">
+        <f t="shared" si="20"/>
+        <v>50</v>
+      </c>
+      <c r="F139" s="555">
+        <f t="shared" si="20"/>
+        <v>74</v>
+      </c>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A140" s="212"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="217"/>
+      <c r="D140" s="218"/>
+      <c r="E140" s="218"/>
+      <c r="F140" s="298"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A141" s="212" t="s">
+        <v>407</v>
+      </c>
+      <c r="B141" s="5"/>
+      <c r="C141" s="217">
+        <v>-1066</v>
+      </c>
+      <c r="D141" s="218">
+        <v>-80</v>
+      </c>
+      <c r="E141" s="218">
+        <v>-1076</v>
+      </c>
+      <c r="F141" s="298">
+        <v>-837</v>
+      </c>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A142" s="212" t="s">
+        <v>408</v>
+      </c>
+      <c r="B142" s="5"/>
+      <c r="C142" s="217">
+        <v>648</v>
+      </c>
+      <c r="D142" s="218">
+        <v>444</v>
+      </c>
+      <c r="E142" s="218">
+        <v>623</v>
+      </c>
+      <c r="F142" s="298">
+        <v>511</v>
+      </c>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A143" s="212" t="s">
+        <v>409</v>
+      </c>
+      <c r="B143" s="5"/>
+      <c r="C143" s="217">
+        <v>95</v>
+      </c>
+      <c r="D143" s="217">
+        <v>-46</v>
+      </c>
+      <c r="E143" s="217">
+        <v>17</v>
+      </c>
+      <c r="F143" s="301">
+        <v>34</v>
+      </c>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A144" s="212" t="s">
+        <v>410</v>
+      </c>
+      <c r="B144" s="5"/>
+      <c r="C144" s="217">
+        <v>33</v>
+      </c>
+      <c r="D144" s="217">
+        <v>-46</v>
+      </c>
+      <c r="E144" s="217">
+        <v>-5</v>
+      </c>
+      <c r="F144" s="301">
+        <v>-7</v>
+      </c>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A145" s="212" t="s">
+        <v>423</v>
+      </c>
+      <c r="B145" s="5"/>
+      <c r="C145" s="217">
+        <v>-33</v>
+      </c>
+      <c r="D145" s="217">
+        <v>40</v>
+      </c>
+      <c r="E145" s="217">
+        <v>37</v>
+      </c>
+      <c r="F145" s="301">
+        <v>-13</v>
+      </c>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A146" s="212" t="s">
+        <v>411</v>
+      </c>
+      <c r="B146" s="5"/>
+      <c r="C146" s="217">
+        <v>20</v>
+      </c>
+      <c r="D146" s="218">
+        <v>-91</v>
+      </c>
+      <c r="E146" s="218">
+        <v>11</v>
+      </c>
+      <c r="F146" s="298">
+        <v>-3</v>
+      </c>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A147" s="402" t="s">
+        <v>412</v>
+      </c>
+      <c r="B147" s="20"/>
+      <c r="C147" s="221">
+        <f>C130+C139+SUM(C141:C146)</f>
+        <v>91.18562874251495</v>
+      </c>
+      <c r="D147" s="221">
+        <f t="shared" ref="D147:F147" si="21">D130+D139+SUM(D141:D146)</f>
+        <v>547.33333333333326</v>
+      </c>
+      <c r="E147" s="221">
+        <f t="shared" si="21"/>
+        <v>56.600000000000023</v>
+      </c>
+      <c r="F147" s="302">
+        <f t="shared" si="21"/>
+        <v>222.51807228915663</v>
+      </c>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A148" s="212" t="s">
+        <v>413</v>
+      </c>
+      <c r="B148" s="5"/>
+      <c r="C148" s="225">
+        <f>C147/C127</f>
+        <v>0.20583663373028205</v>
+      </c>
+      <c r="D148" s="225">
+        <f t="shared" ref="D148:F148" si="22">D147/D127</f>
+        <v>0.77089201877934266</v>
+      </c>
+      <c r="E148" s="225">
+        <f t="shared" si="22"/>
+        <v>9.6258503401360579E-2</v>
+      </c>
+      <c r="F148" s="303">
+        <f t="shared" si="22"/>
+        <v>0.3238982129390926</v>
+      </c>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A149" s="212"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="217"/>
+      <c r="D149" s="218"/>
+      <c r="E149" s="218"/>
+      <c r="F149" s="298"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A150" s="212" t="s">
+        <v>414</v>
+      </c>
+      <c r="B150" s="5"/>
+      <c r="C150" s="217">
+        <f>C7+C8-D7-D8 +D105</f>
+        <v>-109</v>
+      </c>
+      <c r="D150" s="217">
+        <f t="shared" ref="D150:F150" si="23">D7+D8-E7-E8 +E105</f>
+        <v>-125</v>
+      </c>
+      <c r="E150" s="217">
+        <f t="shared" si="23"/>
+        <v>-50</v>
+      </c>
+      <c r="F150" s="301">
+        <f t="shared" si="23"/>
+        <v>-128</v>
+      </c>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A151" s="212" t="s">
+        <v>415</v>
+      </c>
+      <c r="B151" s="5"/>
+      <c r="C151" s="217">
+        <f>C44-D44</f>
+        <v>3</v>
+      </c>
+      <c r="D151" s="217">
+        <f t="shared" ref="D151:F151" si="24">D44-E44</f>
+        <v>171</v>
+      </c>
+      <c r="E151" s="217">
+        <f t="shared" si="24"/>
+        <v>-263</v>
+      </c>
+      <c r="F151" s="301">
+        <f t="shared" si="24"/>
+        <v>-64</v>
+      </c>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A152" s="212" t="s">
+        <v>432</v>
+      </c>
+      <c r="B152" s="5"/>
+      <c r="C152" s="283">
+        <f>-C129</f>
+        <v>39.814371257485028</v>
+      </c>
+      <c r="D152" s="283">
+        <f t="shared" ref="D152:F152" si="25">-D129</f>
+        <v>44.666666666666664</v>
+      </c>
+      <c r="E152" s="283">
+        <f t="shared" si="25"/>
+        <v>31.400000000000002</v>
+      </c>
+      <c r="F152" s="556">
+        <f t="shared" si="25"/>
+        <v>34.481927710843372</v>
+      </c>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A153" s="402" t="s">
+        <v>416</v>
+      </c>
+      <c r="B153" s="20"/>
+      <c r="C153" s="553">
+        <f>C147+C150+C151+C152</f>
+        <v>24.999999999999979</v>
+      </c>
+      <c r="D153" s="553">
+        <f t="shared" ref="D153:F153" si="26">D147+D150+D151+D152</f>
+        <v>637.99999999999989</v>
+      </c>
+      <c r="E153" s="553">
+        <f t="shared" si="26"/>
+        <v>-224.99999999999997</v>
+      </c>
+      <c r="F153" s="557">
+        <f t="shared" si="26"/>
+        <v>65</v>
+      </c>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A154" s="212" t="s">
+        <v>417</v>
+      </c>
+      <c r="B154" s="5"/>
+      <c r="C154" s="554">
+        <f>C153/C127</f>
+        <v>5.6433408577878055E-2</v>
+      </c>
+      <c r="D154" s="554">
+        <f t="shared" ref="D154:F154" si="27">D153/D127</f>
+        <v>0.89859154929577445</v>
+      </c>
+      <c r="E154" s="554">
+        <f t="shared" si="27"/>
+        <v>-0.38265306122448972</v>
+      </c>
+      <c r="F154" s="558">
+        <f t="shared" si="27"/>
+        <v>9.4614264919941779E-2</v>
+      </c>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A155" s="212"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="223"/>
+      <c r="D155" s="224"/>
+      <c r="E155" s="224"/>
+      <c r="F155" s="305"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+      <c r="L155" s="1"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A156" s="212" t="s">
+        <v>418</v>
+      </c>
+      <c r="B156" s="5"/>
+      <c r="C156" s="224">
+        <f>C38-D38-D120</f>
+        <v>-212</v>
+      </c>
+      <c r="D156" s="224">
+        <f t="shared" ref="D156:F156" si="28">D38-E38-E120</f>
+        <v>-559</v>
+      </c>
+      <c r="E156" s="224">
+        <f t="shared" si="28"/>
+        <v>166</v>
+      </c>
+      <c r="F156" s="305">
+        <f t="shared" si="28"/>
+        <v>-261</v>
+      </c>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A157" s="355" t="s">
+        <v>419</v>
+      </c>
+      <c r="B157" s="5"/>
+      <c r="C157" s="223">
+        <f>C153+C156</f>
+        <v>-187.00000000000003</v>
+      </c>
+      <c r="D157" s="223">
+        <f t="shared" ref="D157:F157" si="29">D153+D156</f>
+        <v>78.999999999999886</v>
+      </c>
+      <c r="E157" s="223">
+        <f t="shared" si="29"/>
+        <v>-58.999999999999972</v>
+      </c>
+      <c r="F157" s="306">
+        <f t="shared" si="29"/>
+        <v>-196</v>
+      </c>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A158" s="355" t="s">
+        <v>587</v>
+      </c>
+      <c r="B158" s="5"/>
+      <c r="C158" s="223">
+        <f>C46-D46</f>
+        <v>-47</v>
+      </c>
+      <c r="D158" s="223">
+        <f t="shared" ref="D158:F158" si="30">D46-E46</f>
+        <v>210</v>
+      </c>
+      <c r="E158" s="223">
+        <f t="shared" si="30"/>
+        <v>-8</v>
+      </c>
+      <c r="F158" s="306">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A159" s="212"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="223"/>
+      <c r="D159" s="223"/>
+      <c r="E159" s="223"/>
+      <c r="F159" s="306"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A160" s="212" t="s">
+        <v>420</v>
+      </c>
+      <c r="B160" s="5"/>
+      <c r="C160" s="223">
+        <v>636</v>
+      </c>
+      <c r="D160" s="224">
+        <v>402</v>
+      </c>
+      <c r="E160" s="224">
+        <v>691</v>
+      </c>
+      <c r="F160" s="305">
+        <v>624</v>
+      </c>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A161" s="212" t="s">
+        <v>421</v>
+      </c>
+      <c r="B161" s="5"/>
+      <c r="C161" s="223">
+        <v>402</v>
+      </c>
+      <c r="D161" s="224">
+        <v>691</v>
+      </c>
+      <c r="E161" s="224">
+        <v>624</v>
+      </c>
+      <c r="F161" s="305">
+        <v>434</v>
+      </c>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+    </row>
+    <row r="162" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="403" t="s">
+        <v>422</v>
+      </c>
+      <c r="B162" s="308"/>
+      <c r="C162" s="309">
+        <v>-234</v>
+      </c>
+      <c r="D162" s="309">
+        <v>289</v>
+      </c>
+      <c r="E162" s="309">
+        <v>-67</v>
+      </c>
+      <c r="F162" s="310">
+        <v>-190</v>
+      </c>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+    </row>
+    <row r="163" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="295"/>
+      <c r="B163" s="55"/>
+      <c r="C163" s="55"/>
+      <c r="D163" s="55"/>
+      <c r="E163" s="55"/>
+      <c r="F163" s="328"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+    </row>
+    <row r="164" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="311" t="s">
+        <v>433</v>
+      </c>
+      <c r="B164" s="312"/>
+      <c r="C164" s="312">
+        <f>IF(C157+C158=C162,0,"differentfrom0")</f>
+        <v>0</v>
+      </c>
+      <c r="D164" s="312">
+        <f t="shared" ref="D164:F164" si="31">IF(D157+D158=D162,0,"differentfrom0")</f>
+        <v>0</v>
+      </c>
+      <c r="E164" s="312">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="F164" s="313">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+      <c r="J167" s="1"/>
+      <c r="K167" s="1"/>
+      <c r="L167" s="1"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C124:F124"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C55:G55"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8198519F-90E1-4FDA-9AEB-E44D11AA75F5}">
   <dimension ref="A1:V153"/>
   <sheetViews>
@@ -61279,10 +67047,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="489" t="s">
+      <c r="A1" s="529" t="s">
         <v>511</v>
       </c>
-      <c r="B1" s="490"/>
+      <c r="B1" s="530"/>
       <c r="C1" s="148"/>
       <c r="D1" s="148"/>
       <c r="E1" s="148"/>
@@ -61291,14 +67059,14 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="353"/>
-      <c r="B2" s="484" t="s">
+      <c r="B2" s="524" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="484"/>
-      <c r="D2" s="484"/>
-      <c r="E2" s="484"/>
-      <c r="F2" s="484"/>
-      <c r="G2" s="491"/>
+      <c r="C2" s="524"/>
+      <c r="D2" s="524"/>
+      <c r="E2" s="524"/>
+      <c r="F2" s="524"/>
+      <c r="G2" s="531"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="293"/>
@@ -62394,13 +68162,13 @@
     <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="386"/>
       <c r="B49" s="129"/>
-      <c r="C49" s="486" t="s">
+      <c r="C49" s="526" t="s">
         <v>163</v>
       </c>
-      <c r="D49" s="486"/>
-      <c r="E49" s="486"/>
-      <c r="F49" s="486"/>
-      <c r="G49" s="492"/>
+      <c r="D49" s="526"/>
+      <c r="E49" s="526"/>
+      <c r="F49" s="526"/>
+      <c r="G49" s="532"/>
       <c r="H49" s="316"/>
       <c r="I49" s="316"/>
       <c r="J49" s="316"/>
@@ -63249,12 +69017,12 @@
     <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84" s="292"/>
       <c r="B84" s="64"/>
-      <c r="C84" s="487" t="s">
+      <c r="C84" s="527" t="s">
         <v>163</v>
       </c>
-      <c r="D84" s="487"/>
-      <c r="E84" s="487"/>
-      <c r="F84" s="488"/>
+      <c r="D84" s="527"/>
+      <c r="E84" s="527"/>
+      <c r="F84" s="528"/>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A85" s="293"/>
@@ -64954,7 +70722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD37427-164C-4835-9C1F-A956DD7B9DF4}">
   <dimension ref="A11:M54"/>
   <sheetViews>
@@ -65460,7 +71228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD59958-46D0-436F-824F-15C4AA54C7FC}">
   <dimension ref="A1:I62"/>
   <sheetViews>
@@ -65480,7 +71248,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="494" t="s">
+      <c r="A1" s="484" t="s">
         <v>475</v>
       </c>
       <c r="B1" s="477"/>
@@ -65493,15 +71261,15 @@
       <c r="I1" s="126"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="493" t="s">
+      <c r="A2" s="483" t="s">
         <v>475</v>
       </c>
-      <c r="B2" s="493"/>
+      <c r="B2" s="483"/>
       <c r="C2" s="55"/>
-      <c r="D2" s="525" t="s">
+      <c r="D2" s="515" t="s">
         <v>457</v>
       </c>
-      <c r="E2" s="510" t="s">
+      <c r="E2" s="500" t="s">
         <v>482</v>
       </c>
       <c r="F2" s="55"/>
@@ -65517,139 +71285,139 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="55"/>
-      <c r="B3" s="495" t="s">
+      <c r="B3" s="485" t="s">
         <v>458</v>
       </c>
-      <c r="C3" s="499" t="s">
+      <c r="C3" s="489" t="s">
         <v>459</v>
       </c>
-      <c r="D3" s="526">
+      <c r="D3" s="516">
         <f>'Balance sheet'!J110</f>
         <v>3651</v>
       </c>
-      <c r="E3" s="500">
+      <c r="E3" s="490">
         <f>-'Trailing 12-months'!G35</f>
         <v>3746</v>
       </c>
       <c r="F3" s="122"/>
-      <c r="G3" s="517" t="s">
+      <c r="G3" s="507" t="s">
         <v>478</v>
       </c>
-      <c r="H3" s="518">
+      <c r="H3" s="508">
         <v>0.50275406224180663</v>
       </c>
-      <c r="I3" s="522">
+      <c r="I3" s="512">
         <v>0.50917493543563952</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="55"/>
-      <c r="B4" s="496" t="s">
+      <c r="B4" s="486" t="s">
         <v>460</v>
       </c>
       <c r="C4" s="315" t="s">
         <v>461</v>
       </c>
-      <c r="D4" s="527">
+      <c r="D4" s="517">
         <f>PRODUCT(1.67,3109.183856)</f>
         <v>5192.33703952</v>
       </c>
-      <c r="E4" s="501">
+      <c r="E4" s="491">
         <f>PRODUCT(1.12,3109.183856)</f>
         <v>3482.2859187200006</v>
       </c>
       <c r="F4" s="122"/>
-      <c r="G4" s="519" t="s">
+      <c r="G4" s="509" t="s">
         <v>479</v>
       </c>
-      <c r="H4" s="516">
+      <c r="H4" s="506">
         <v>0.49724593775819331</v>
       </c>
-      <c r="I4" s="523">
+      <c r="I4" s="513">
         <v>0.49082506456436048</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="55"/>
-      <c r="B5" s="497" t="s">
+      <c r="B5" s="487" t="s">
         <v>462</v>
       </c>
-      <c r="C5" s="502" t="s">
+      <c r="C5" s="492" t="s">
         <v>483</v>
       </c>
-      <c r="D5" s="528">
+      <c r="D5" s="518">
         <f>-'Reorganised Statements'!H39</f>
         <v>3611</v>
       </c>
-      <c r="E5" s="503">
+      <c r="E5" s="493">
         <f>-'Reorganised Statements'!H39</f>
         <v>3611</v>
       </c>
       <c r="F5" s="122"/>
-      <c r="G5" s="519"/>
+      <c r="G5" s="509"/>
       <c r="H5" s="70"/>
-      <c r="I5" s="523"/>
+      <c r="I5" s="513"/>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="55"/>
-      <c r="B6" s="498" t="s">
+      <c r="B6" s="488" t="s">
         <v>463</v>
       </c>
-      <c r="C6" s="504" t="s">
+      <c r="C6" s="494" t="s">
         <v>576</v>
       </c>
-      <c r="D6" s="529">
+      <c r="D6" s="519">
         <f>(SUM(D7:D9))</f>
         <v>3754</v>
       </c>
-      <c r="E6" s="505">
+      <c r="E6" s="495">
         <f>(SUM(E7:E9))</f>
         <v>3754</v>
       </c>
       <c r="F6" s="122"/>
-      <c r="G6" s="519" t="s">
+      <c r="G6" s="509" t="s">
         <v>480</v>
       </c>
-      <c r="H6" s="516">
+      <c r="H6" s="506">
         <v>0.58038692445669204</v>
       </c>
-      <c r="I6" s="523">
+      <c r="I6" s="513">
         <v>0.48122558420632017</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="55"/>
       <c r="B7" s="55"/>
-      <c r="C7" s="506" t="s">
+      <c r="C7" s="496" t="s">
         <v>464</v>
       </c>
-      <c r="D7" s="530">
+      <c r="D7" s="520">
         <v>3635</v>
       </c>
-      <c r="E7" s="507">
+      <c r="E7" s="497">
         <v>3635</v>
       </c>
       <c r="F7" s="122"/>
-      <c r="G7" s="520" t="s">
+      <c r="G7" s="510" t="s">
         <v>481</v>
       </c>
-      <c r="H7" s="521">
+      <c r="H7" s="511">
         <v>0.41961307554330796</v>
       </c>
-      <c r="I7" s="524">
+      <c r="I7" s="514">
         <v>0.51877441579367978</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="55"/>
       <c r="B8" s="55"/>
-      <c r="C8" s="506" t="s">
+      <c r="C8" s="496" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="530">
+      <c r="D8" s="520">
         <v>2</v>
       </c>
-      <c r="E8" s="507">
+      <c r="E8" s="497">
         <v>2</v>
       </c>
       <c r="F8" s="55"/>
@@ -65660,13 +71428,13 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="55"/>
       <c r="B9" s="55"/>
-      <c r="C9" s="508" t="s">
+      <c r="C9" s="498" t="s">
         <v>465</v>
       </c>
-      <c r="D9" s="531">
+      <c r="D9" s="521">
         <v>117</v>
       </c>
-      <c r="E9" s="509">
+      <c r="E9" s="499">
         <v>117</v>
       </c>
       <c r="F9" s="55"/>
@@ -65686,11 +71454,11 @@
       <c r="I10" s="55"/>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="511" t="s">
+      <c r="A11" s="501" t="s">
         <v>476</v>
       </c>
-      <c r="B11" s="512"/>
-      <c r="C11" s="513"/>
+      <c r="B11" s="502"/>
+      <c r="C11" s="503"/>
       <c r="D11" s="55"/>
       <c r="E11" s="55"/>
       <c r="F11" s="55"/>
@@ -65699,9 +71467,9 @@
       <c r="I11" s="55"/>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="514"/>
-      <c r="B12" s="515"/>
-      <c r="C12" s="515"/>
+      <c r="A12" s="504"/>
+      <c r="B12" s="505"/>
+      <c r="C12" s="505"/>
       <c r="D12" s="55"/>
       <c r="E12" s="55"/>
       <c r="F12" s="55"/>
@@ -66602,1295 +72370,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0077E9-5EBC-43DF-AC77-55E4CE163A6D}">
-  <dimension ref="A1:W56"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="123" t="s">
-        <v>582</v>
-      </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="474" t="s">
-        <v>581</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="101" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="102" t="s">
-        <v>307</v>
-      </c>
-      <c r="R6" s="103"/>
-      <c r="S6" s="103"/>
-      <c r="T6" s="103">
-        <v>2018</v>
-      </c>
-      <c r="U6" s="103"/>
-      <c r="V6" s="104">
-        <v>2023</v>
-      </c>
-      <c r="W6" s="105" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="106" t="s">
-        <v>309</v>
-      </c>
-      <c r="T7">
-        <v>359</v>
-      </c>
-      <c r="V7" s="107">
-        <v>323</v>
-      </c>
-      <c r="W7" s="87"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="106" t="s">
-        <v>310</v>
-      </c>
-      <c r="T8">
-        <v>187</v>
-      </c>
-      <c r="V8" s="107">
-        <v>323</v>
-      </c>
-      <c r="W8" s="87"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="106" t="s">
-        <v>311</v>
-      </c>
-      <c r="T9">
-        <v>269</v>
-      </c>
-      <c r="V9" s="107">
-        <v>381</v>
-      </c>
-      <c r="W9" s="87"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="106" t="s">
-        <v>312</v>
-      </c>
-      <c r="T10">
-        <v>406</v>
-      </c>
-      <c r="V10" s="107">
-        <v>518</v>
-      </c>
-      <c r="W10" s="87"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="106" t="s">
-        <v>45</v>
-      </c>
-      <c r="T11">
-        <v>-29</v>
-      </c>
-      <c r="V11" s="107">
-        <v>-14</v>
-      </c>
-      <c r="W11" s="87"/>
-    </row>
-    <row r="12" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="532"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="108" t="s">
-        <v>110</v>
-      </c>
-      <c r="R12" s="92"/>
-      <c r="S12" s="92"/>
-      <c r="T12" s="92">
-        <f>SUM(T7:T11)</f>
-        <v>1192</v>
-      </c>
-      <c r="U12" s="92"/>
-      <c r="V12" s="109">
-        <f>SUM(V7:V11)</f>
-        <v>1531</v>
-      </c>
-      <c r="W12" s="110">
-        <f>(V12-T12)/T12</f>
-        <v>0.28439597315436244</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="102" t="s">
-        <v>313</v>
-      </c>
-      <c r="R14" s="103"/>
-      <c r="S14" s="103"/>
-      <c r="T14" s="103" t="s">
-        <v>314</v>
-      </c>
-      <c r="U14" s="103"/>
-      <c r="V14" s="104" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="106" t="s">
-        <v>315</v>
-      </c>
-      <c r="T15">
-        <v>2607</v>
-      </c>
-      <c r="U15" t="s">
-        <v>312</v>
-      </c>
-      <c r="V15" s="107">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="106" t="s">
-        <v>316</v>
-      </c>
-      <c r="T16">
-        <v>1378</v>
-      </c>
-      <c r="U16" t="s">
-        <v>317</v>
-      </c>
-      <c r="V16" s="107">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="106"/>
-      <c r="U17" t="s">
-        <v>311</v>
-      </c>
-      <c r="V17" s="107">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="106"/>
-      <c r="U18" t="s">
-        <v>318</v>
-      </c>
-      <c r="V18" s="107">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="106"/>
-      <c r="U19" t="s">
-        <v>319</v>
-      </c>
-      <c r="V19" s="107">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="106"/>
-      <c r="U20" t="s">
-        <v>320</v>
-      </c>
-      <c r="V20" s="107">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="106"/>
-      <c r="U21" t="s">
-        <v>321</v>
-      </c>
-      <c r="V21" s="107">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="108" t="s">
-        <v>16</v>
-      </c>
-      <c r="R22" s="92"/>
-      <c r="S22" s="92"/>
-      <c r="T22" s="92">
-        <f>SUM(T15:T16)</f>
-        <v>3985</v>
-      </c>
-      <c r="U22" s="92" t="s">
-        <v>16</v>
-      </c>
-      <c r="V22" s="109">
-        <f>SUM(V15:V21)</f>
-        <v>3987</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="112" t="s">
-        <v>322</v>
-      </c>
-      <c r="R24" s="84"/>
-      <c r="S24" s="84"/>
-      <c r="T24" s="113"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="106" t="s">
-        <v>323</v>
-      </c>
-      <c r="T25" s="114">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="106" t="s">
-        <v>324</v>
-      </c>
-      <c r="T26" s="107">
-        <v>-6.8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="106" t="s">
-        <v>325</v>
-      </c>
-      <c r="T27" s="107">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="106" t="s">
-        <v>326</v>
-      </c>
-      <c r="T28" s="107">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="106" t="s">
-        <v>327</v>
-      </c>
-      <c r="T29" s="107">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="106" t="s">
-        <v>328</v>
-      </c>
-      <c r="T30" s="107">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="106" t="s">
-        <v>329</v>
-      </c>
-      <c r="T31" s="107">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="106" t="s">
-        <v>330</v>
-      </c>
-      <c r="T32" s="107">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="106" t="s">
-        <v>331</v>
-      </c>
-      <c r="T33" s="107">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="106" t="s">
-        <v>332</v>
-      </c>
-      <c r="T34" s="114">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="106" t="s">
-        <v>333</v>
-      </c>
-      <c r="T35" s="107">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="106" t="s">
-        <v>319</v>
-      </c>
-      <c r="T36" s="107">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="122"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="108" t="s">
-        <v>334</v>
-      </c>
-      <c r="R37" s="92"/>
-      <c r="S37" s="92"/>
-      <c r="T37" s="115">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>